--- a/Test Case/Sangeetha/Testcase- Insurance .xlsx
+++ b/Test Case/Sangeetha/Testcase- Insurance .xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sangeetha\Mediware\11-06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sangeetha\Mediware\12-06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0249CC26-5912-4605-A3C6-5A7790FEF94A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED76FA5-190D-406E-82DB-587D4BE277EB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B0F86180-7D4B-4DF7-AD62-71380A8C5CDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Insurance" sheetId="1" r:id="rId1"/>
+    <sheet name="Menu" sheetId="4" r:id="rId2"/>
+    <sheet name="Surgery tab" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="144">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -133,9 +135,6 @@
     <t>MED_ Insurance_TC_001</t>
   </si>
   <si>
-    <t>Verify that Surgery request is available in  OP Approval</t>
-  </si>
-  <si>
     <t>Precondition: Patient in Consulted status and insurance covered
 Procedure request has been initiated.</t>
   </si>
@@ -199,9 +198,6 @@
     <t>MED_ Insurance_TC_007</t>
   </si>
   <si>
-    <t>Verify that user is able to search Pending Surgery Requests</t>
-  </si>
-  <si>
     <t>Surgery Requests list should be displayed.</t>
   </si>
   <si>
@@ -214,9 +210,6 @@
     <t>MED_ Insurance_TC_008</t>
   </si>
   <si>
-    <t xml:space="preserve">Verify that user is able to process pending request by selecting patient </t>
-  </si>
-  <si>
     <t>Search result should be displayed.</t>
   </si>
   <si>
@@ -241,13 +234,253 @@
     <t>MED_ Insurance_TC_0010</t>
   </si>
   <si>
-    <t xml:space="preserve">Verify that user is able to upload file in approve/reject  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Try to upload file </t>
-  </si>
-  <si>
     <t>User should be able to upload files.</t>
+  </si>
+  <si>
+    <t>MED_ Insurance_TC_0011</t>
+  </si>
+  <si>
+    <t>Select Procedure tab ,Go to Refine by Date Period and search for a patient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System should display pending procedure request list and Sent Procedure Request List </t>
+  </si>
+  <si>
+    <t>Select any patient in pending status</t>
+  </si>
+  <si>
+    <t>Approve/Reject  Surgery Request  page should be displayed</t>
+  </si>
+  <si>
+    <t>Enter the mandatory fields including remarks and change the status as Sent  and Click on SENT button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Patient status should move to SENT status </t>
+  </si>
+  <si>
+    <t>Go to EMR OP section and verify the particular patient  has given notfication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be able to check particualr patient's details in EMR OP </t>
+  </si>
+  <si>
+    <t>Verify that user can search  pending Procedure insurance request list</t>
+  </si>
+  <si>
+    <t>Verify that user can search Procedure list in SENT status</t>
+  </si>
+  <si>
+    <t>Verify that the status of patient in SENT status while searching particular status</t>
+  </si>
+  <si>
+    <t>The status of the patient should be in SENT status.</t>
+  </si>
+  <si>
+    <t>Verify that Pending Surgery patients are  listed in Pending Surgery Request list</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pending Surgery patient list should be displayed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the Pending Surgery Pateint list </t>
+  </si>
+  <si>
+    <t>Verify that Surgery list is displayed for SENT status</t>
+  </si>
+  <si>
+    <t>Verify that can change the status Pending to SENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select a patient in Pending </t>
+  </si>
+  <si>
+    <t>Move the status to SENT by clicking SENT button</t>
+  </si>
+  <si>
+    <t>Approve/Reject Surgery Request should be displayed</t>
+  </si>
+  <si>
+    <t>User should be able to change the status to SENT</t>
+  </si>
+  <si>
+    <t>Verify that user is able to view Diagnosis in Approve/Reject Surgery page</t>
+  </si>
+  <si>
+    <t>Verify  Diagnosis View</t>
+  </si>
+  <si>
+    <t>Diagnosis Page should be displayed</t>
+  </si>
+  <si>
+    <t>Verify that user is able to upload file in File attachment field</t>
+  </si>
+  <si>
+    <t>Try to upload file for File attachment field</t>
+  </si>
+  <si>
+    <t>Verify that user is able to upload file for Claim File Upload field</t>
+  </si>
+  <si>
+    <t>Try to upload file  for Claim File Upload field</t>
+  </si>
+  <si>
+    <t>User should be able to upload files for Claim File Upload</t>
+  </si>
+  <si>
+    <t>Verify tha user can change the status of Patient to Int.Query Asked status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The patient status is changed to  In Query asked status </t>
+  </si>
+  <si>
+    <t>Enter remarks and change the status to Int.Query asked   and click on SENT button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that Insurance dashboard is displayed properly </t>
+  </si>
+  <si>
+    <t>Verify that Refine by date Period is is working for Insurance</t>
+  </si>
+  <si>
+    <t>Verify that VIEW Medical report is available along with Pending Procedure  Request List</t>
+  </si>
+  <si>
+    <t>Go to Procedure request and search  requests by billed date</t>
+  </si>
+  <si>
+    <t>Search result should be displayed with two sections as
+Pending Surgery Request
+Surgery List</t>
+  </si>
+  <si>
+    <t>Select  View Medical Report</t>
+  </si>
+  <si>
+    <t>Medical report page should be displayed.</t>
+  </si>
+  <si>
+    <t>Verify that user is able to View Diagnosis in Approve/Reject Surgery page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Go to Procedure request and search Procedure requests by billed date  </t>
+  </si>
+  <si>
+    <t>Select any patient  and click patient details</t>
+  </si>
+  <si>
+    <t>Select any patient and click patient details</t>
+  </si>
+  <si>
+    <t>Verify that user can change the status of  pending request to SENT</t>
+  </si>
+  <si>
+    <t>MED_ Insurance_TC_010</t>
+  </si>
+  <si>
+    <t>Verify the sent details in EMR module
+Go to EMR and check</t>
+  </si>
+  <si>
+    <t>Patient details should be displayed with coloured notification</t>
+  </si>
+  <si>
+    <t>MED_ Insurance_TC_011</t>
+  </si>
+  <si>
+    <t>MED_ Insurance_TC_012</t>
+  </si>
+  <si>
+    <t>MED_ Insurance_TC_013</t>
+  </si>
+  <si>
+    <t>MED_ Insurance_TC_014</t>
+  </si>
+  <si>
+    <t>MED_ Insurance_TC_015</t>
+  </si>
+  <si>
+    <t>MED_ Insurance_TC_016</t>
+  </si>
+  <si>
+    <t>MED_ Insurance_TC_017</t>
+  </si>
+  <si>
+    <t>MED_ Insurance_TC_018</t>
+  </si>
+  <si>
+    <t>MED_ Insurance_TC_019</t>
+  </si>
+  <si>
+    <t>MED_ Insurance_TC_020</t>
+  </si>
+  <si>
+    <t>MED_ Insurance_TC_021</t>
+  </si>
+  <si>
+    <t>Verify that user can approve Advance Insurance Requests</t>
+  </si>
+  <si>
+    <t>Select Advance Approval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The request should be displayed </t>
+  </si>
+  <si>
+    <t>Process the insurance in advance</t>
+  </si>
+  <si>
+    <t>User should be able to process insurance in advance</t>
+  </si>
+  <si>
+    <t>MED_ Insurance_TC_022</t>
+  </si>
+  <si>
+    <t>Verify that ALERT option is working for Insuracne</t>
+  </si>
+  <si>
+    <t>Select  Dashboard,OP Approval Tab /IP approval tab/Ist Review/Second Review/Auditing /Batch processing/Batch Creating and verify  all requests are displayed on clicking ALERT button</t>
+  </si>
+  <si>
+    <t>All request should be displayed to the user on selecting ALERT.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that GET ATH option is working for OP approval Insuracne </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select  GET ATH </t>
+  </si>
+  <si>
+    <t>Refine Pop up window should be displayed</t>
+  </si>
+  <si>
+    <t>User should be able to download Authorization</t>
+  </si>
+  <si>
+    <t>Select TPA and Select Insurance and verify the download Authorization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that New Procedure </t>
+  </si>
+  <si>
+    <t>Select  New Procedure Order button</t>
+  </si>
+  <si>
+    <t>Procedure Entry order page should be displayed</t>
+  </si>
+  <si>
+    <t>Search for a patient and try to add new procedure for particular patient</t>
+  </si>
+  <si>
+    <t>User should be able to add new procedure against patient.</t>
+  </si>
+  <si>
+    <t>MED_ Insurance_TC_023</t>
+  </si>
+  <si>
+    <t>MED_ Insurance_TC_024</t>
+  </si>
+  <si>
+    <t>MED_ Insurance_TC_025</t>
   </si>
 </sst>
 </file>
@@ -355,7 +588,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -404,6 +637,9 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -729,8 +965,8 @@
   <dimension ref="A1:S722"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D75" sqref="D75"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -791,31 +1027,31 @@
       <c r="M1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="17"/>
-      <c r="R1" s="18" t="s">
+      <c r="P1" s="18"/>
+      <c r="R1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="18"/>
+      <c r="S1" s="19"/>
     </row>
     <row r="2" spans="1:19" s="13" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="D2" s="11" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="E2" s="11"/>
       <c r="F2" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
@@ -829,7 +1065,7 @@
       </c>
       <c r="P2" s="4">
         <f>COUNTA(A:A)-1</f>
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="R2" s="5" t="s">
         <v>12</v>
@@ -919,16 +1155,19 @@
     </row>
     <row r="7" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>32</v>
       </c>
       <c r="L7" s="4"/>
     </row>
@@ -953,239 +1192,269 @@
     </row>
     <row r="10" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="F10" s="11" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="F11" s="11" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="L11" s="4"/>
     </row>
     <row r="12" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="F12" s="11" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="F13" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>71</v>
+      </c>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="11" t="s">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="L14" s="4"/>
-    </row>
-    <row r="15" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="F15" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="I15" s="14"/>
       <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="F16" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F17" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G17" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="L16" s="4"/>
-    </row>
-    <row r="17" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="F17" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>34</v>
-      </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="F18" s="11" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F19" s="11" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F20" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>69</v>
+      </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F21" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>71</v>
+      </c>
       <c r="L21" s="4"/>
     </row>
     <row r="22" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="11" t="s">
+      <c r="F22" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="L22" s="4"/>
-    </row>
-    <row r="23" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D23" s="11" t="s">
+        <v>98</v>
+      </c>
       <c r="F23" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="L23" s="4"/>
     </row>
     <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F24" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F25" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G25" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="L24" s="4"/>
-    </row>
-    <row r="25" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="F25" s="11" t="s">
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="F26" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G25" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="L25" s="4"/>
-    </row>
-    <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="F26" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>36</v>
-      </c>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="F27" s="11" t="s">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F28" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>102</v>
+      </c>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>42</v>
-      </c>
+    <row r="30" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F30" s="11" t="s">
-        <v>43</v>
+        <v>22</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="L30" s="4"/>
     </row>
     <row r="31" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F31" s="11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="F32" s="11" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F33" s="11" t="s">
-        <v>33</v>
+        <v>104</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F34" s="11" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F35" s="11" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="L35" s="4"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L37" s="4"/>
     </row>
@@ -1209,755 +1478,1378 @@
     </row>
     <row r="40" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="F40" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G40" s="11" t="s">
         <v>33</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>34</v>
       </c>
       <c r="L40" s="4"/>
     </row>
     <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F41" s="11" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="L41" s="4"/>
     </row>
     <row r="42" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F42" s="11" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F43" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>94</v>
+      </c>
       <c r="L43" s="4"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>43</v>
-      </c>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L45" s="4"/>
     </row>
-    <row r="46" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>107</v>
+      </c>
       <c r="F46" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G46" s="11" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="L46" s="4"/>
     </row>
     <row r="47" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F47" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L47" s="4"/>
+    </row>
+    <row r="48" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F48" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G47" s="11" t="s">
+      <c r="G48" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="L47" s="4"/>
-    </row>
-    <row r="48" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="F48" s="11" t="s">
+      <c r="L48" s="4"/>
+    </row>
+    <row r="49" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="F49" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G49" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G48" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="L48" s="4"/>
-    </row>
-    <row r="49" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="F49" s="11" t="s">
+      <c r="L49" s="4"/>
+    </row>
+    <row r="50" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F50" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G50" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="G49" s="11" t="s">
+      <c r="L50" s="4"/>
+    </row>
+    <row r="51" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F51" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G51" s="11" t="s">
         <v>57</v>
-      </c>
-      <c r="L49" s="4"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L50" s="4"/>
-    </row>
-    <row r="51" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F51" s="11" t="s">
-        <v>43</v>
       </c>
       <c r="L51" s="4"/>
     </row>
     <row r="52" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F52" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="L52" s="4"/>
+    </row>
+    <row r="53" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F53" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="L53" s="4"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L54" s="4"/>
+    </row>
+    <row r="55" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A55" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="L55" s="4"/>
+    </row>
+    <row r="56" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F56" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G52" s="11" t="s">
+      <c r="G56" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="L52" s="4"/>
-    </row>
-    <row r="53" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="F53" s="11" t="s">
+      <c r="L56" s="4"/>
+    </row>
+    <row r="57" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F57" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G53" s="11" t="s">
+      <c r="G57" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="L53" s="4"/>
-    </row>
-    <row r="54" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="F54" s="11" t="s">
+      <c r="L57" s="4"/>
+    </row>
+    <row r="58" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="F58" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G58" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G54" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="L54" s="4"/>
-    </row>
-    <row r="55" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="F55" s="11" t="s">
+      <c r="L58" s="4"/>
+    </row>
+    <row r="59" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F59" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="L59" s="4"/>
+    </row>
+    <row r="60" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F60" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L60" s="4"/>
+    </row>
+    <row r="61" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F61" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="L61" s="4"/>
+    </row>
+    <row r="62" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A62" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="G55" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="L55" s="4"/>
-    </row>
-    <row r="56" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="F56" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="G56" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="L56" s="4"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L57" s="4"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L58" s="4"/>
-    </row>
-    <row r="59" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A59" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D59" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F59" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="L59" s="4"/>
-    </row>
-    <row r="60" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="F60" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G60" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="L60" s="4"/>
-    </row>
-    <row r="61" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="F61" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G61" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="L61" s="4"/>
-    </row>
-    <row r="62" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="C62" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>88</v>
+      </c>
       <c r="F62" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G62" s="11" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="L62" s="4"/>
     </row>
     <row r="63" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F63" s="11" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="G63" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L63" s="4"/>
+    </row>
+    <row r="64" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F64" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L64" s="4"/>
+    </row>
+    <row r="65" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="F65" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G65" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L65" s="4"/>
+    </row>
+    <row r="66" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F66" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="L66" s="4"/>
+    </row>
+    <row r="67" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F67" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G67" s="11" t="s">
         <v>57</v>
-      </c>
-      <c r="L63" s="4"/>
-    </row>
-    <row r="64" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="F64" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="G64" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="L64" s="4"/>
-    </row>
-    <row r="65" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="F65" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G65" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="L65" s="4"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L66" s="4"/>
-    </row>
-    <row r="67" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A67" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D67" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F67" s="11" t="s">
-        <v>43</v>
       </c>
       <c r="L67" s="4"/>
     </row>
     <row r="68" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F68" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G68" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="L68" s="4"/>
+    </row>
+    <row r="69" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L69" s="4"/>
+    </row>
+    <row r="70" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F70" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G68" s="11" t="s">
+      <c r="G70" s="11" t="s">
         <v>25</v>
-      </c>
-      <c r="L68" s="4"/>
-    </row>
-    <row r="69" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F69" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G69" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="L69" s="4"/>
-    </row>
-    <row r="70" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="F70" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G70" s="11" t="s">
-        <v>34</v>
       </c>
       <c r="L70" s="4"/>
     </row>
     <row r="71" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F71" s="11" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="L71" s="4"/>
     </row>
-    <row r="72" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="F72" s="11" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="L72" s="4"/>
     </row>
     <row r="73" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F73" s="11" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="L73" s="4"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F74" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G74" s="11" t="s">
+        <v>37</v>
+      </c>
       <c r="L74" s="4"/>
     </row>
-    <row r="75" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D75" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="F75" s="11" t="s">
-        <v>43</v>
-      </c>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L75" s="4"/>
     </row>
-    <row r="76" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A76" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>76</v>
+      </c>
       <c r="F76" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G76" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L76" s="4"/>
     </row>
     <row r="77" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F77" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G77" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L77" s="4"/>
+    </row>
+    <row r="78" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F78" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G77" s="11" t="s">
+      <c r="G78" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="L77" s="4"/>
-    </row>
-    <row r="78" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="F78" s="11" t="s">
+      <c r="L78" s="4"/>
+    </row>
+    <row r="79" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="F79" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G79" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G78" s="11" t="s">
+      <c r="L79" s="4"/>
+    </row>
+    <row r="80" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F80" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="L78" s="4"/>
-    </row>
-    <row r="79" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="F79" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G79" s="11" t="s">
+      <c r="G80" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="L80" s="4"/>
+    </row>
+    <row r="81" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F81" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G81" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L81" s="4"/>
+    </row>
+    <row r="82" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F82" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G82" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="L82" s="4"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L83" s="4"/>
+    </row>
+    <row r="84" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A84" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F84" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="L84" s="4"/>
+    </row>
+    <row r="85" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F85" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G85" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L85" s="4"/>
+    </row>
+    <row r="86" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F86" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G86" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L86" s="4"/>
+    </row>
+    <row r="87" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="F87" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G87" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L87" s="4"/>
+    </row>
+    <row r="88" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F88" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G88" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="L88" s="4"/>
+    </row>
+    <row r="89" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F89" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G89" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L89" s="4"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L90" s="4"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L91" s="4"/>
+    </row>
+    <row r="92" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A92" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F92" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="L92" s="4"/>
+    </row>
+    <row r="93" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F93" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G93" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L93" s="4"/>
+    </row>
+    <row r="94" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F94" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G94" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L94" s="4"/>
+    </row>
+    <row r="95" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="F95" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G95" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L95" s="4"/>
+    </row>
+    <row r="96" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F96" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G96" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="L96" s="4"/>
+    </row>
+    <row r="97" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="F97" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G97" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="L97" s="4"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L98" s="4"/>
+    </row>
+    <row r="99" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A99" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D99" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F99" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="L99" s="4"/>
+    </row>
+    <row r="100" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F100" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G100" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L100" s="4"/>
+    </row>
+    <row r="101" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F101" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G101" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L101" s="4"/>
+    </row>
+    <row r="102" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="F102" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G102" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L102" s="4"/>
+    </row>
+    <row r="103" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F103" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G103" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="L103" s="4"/>
+    </row>
+    <row r="104" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F104" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G104" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="L104" s="4"/>
+    </row>
+    <row r="105" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F105" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G105" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="L105" s="4"/>
+    </row>
+    <row r="106" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F106" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G106" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="L106" s="4"/>
+    </row>
+    <row r="107" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A107" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D107" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F107" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="L107" s="4"/>
+    </row>
+    <row r="108" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F108" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G108" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L108" s="4"/>
+    </row>
+    <row r="109" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F109" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G109" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L109" s="4"/>
+    </row>
+    <row r="110" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="F110" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G110" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L110" s="4"/>
+    </row>
+    <row r="111" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F111" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G111" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="L111" s="4"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L112" s="4"/>
+    </row>
+    <row r="113" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A113" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D113" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F113" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="L113" s="4"/>
+    </row>
+    <row r="114" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F114" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G114" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L114" s="4"/>
+    </row>
+    <row r="115" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F115" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G115" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L115" s="4"/>
+    </row>
+    <row r="116" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="F116" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G116" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L116" s="4"/>
+    </row>
+    <row r="117" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F117" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G117" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="L117" s="4"/>
+    </row>
+    <row r="118" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F118" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G118" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="L79" s="4"/>
-    </row>
-    <row r="80" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="F80" s="11" t="s">
+      <c r="L118" s="4"/>
+    </row>
+    <row r="119" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F119" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G119" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="L119" s="4"/>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L120" s="4"/>
+    </row>
+    <row r="121" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A121" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D121" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F121" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="L121" s="4"/>
+    </row>
+    <row r="122" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F122" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G122" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L122" s="4"/>
+    </row>
+    <row r="123" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F123" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G123" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L123" s="4"/>
+    </row>
+    <row r="124" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="F124" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G124" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L124" s="4"/>
+    </row>
+    <row r="125" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F125" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G125" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="L125" s="4"/>
+    </row>
+    <row r="126" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F126" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G126" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L126" s="4"/>
+    </row>
+    <row r="127" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F127" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="G127" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="L127" s="4"/>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L128" s="4"/>
+    </row>
+    <row r="129" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A129" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D129" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F129" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="L129" s="4"/>
+    </row>
+    <row r="130" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F130" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G130" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L130" s="4"/>
+    </row>
+    <row r="131" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F131" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G131" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L131" s="4"/>
+    </row>
+    <row r="132" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="F132" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G132" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L132" s="4"/>
+    </row>
+    <row r="133" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F133" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G133" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="L133" s="4"/>
+    </row>
+    <row r="134" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F134" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G134" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L134" s="4"/>
+    </row>
+    <row r="135" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F135" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="G80" s="11" t="s">
+      <c r="G135" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="L80" s="4"/>
-    </row>
-    <row r="81" spans="6:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="F81" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G81" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="L81" s="4"/>
-    </row>
-    <row r="82" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="L82" s="4"/>
-    </row>
-    <row r="83" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="L83" s="4"/>
-    </row>
-    <row r="84" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="L84" s="4"/>
-    </row>
-    <row r="85" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="L85" s="4"/>
-    </row>
-    <row r="86" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="L86" s="4"/>
-    </row>
-    <row r="87" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="L87" s="4"/>
-    </row>
-    <row r="88" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="L88" s="4"/>
-    </row>
-    <row r="89" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="L89" s="4"/>
-    </row>
-    <row r="90" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="L90" s="4"/>
-    </row>
-    <row r="91" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="L91" s="4"/>
-    </row>
-    <row r="92" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="L92" s="4"/>
-    </row>
-    <row r="93" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="L93" s="4"/>
-    </row>
-    <row r="94" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="L94" s="4"/>
-    </row>
-    <row r="95" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="L95" s="4"/>
-    </row>
-    <row r="96" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="L96" s="4"/>
-    </row>
-    <row r="97" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L97" s="4"/>
-    </row>
-    <row r="98" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L98" s="4"/>
-    </row>
-    <row r="99" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L99" s="4"/>
-    </row>
-    <row r="100" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L100" s="4"/>
-    </row>
-    <row r="101" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L101" s="4"/>
-    </row>
-    <row r="102" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L102" s="4"/>
-    </row>
-    <row r="103" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L103" s="4"/>
-    </row>
-    <row r="104" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L104" s="4"/>
-    </row>
-    <row r="105" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L105" s="4"/>
-    </row>
-    <row r="106" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L106" s="4"/>
-    </row>
-    <row r="107" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L107" s="4"/>
-    </row>
-    <row r="108" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L108" s="4"/>
-    </row>
-    <row r="109" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L109" s="4"/>
-    </row>
-    <row r="110" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L110" s="4"/>
-    </row>
-    <row r="111" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L111" s="4"/>
-    </row>
-    <row r="112" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L112" s="4"/>
-    </row>
-    <row r="113" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="L113" s="4"/>
-    </row>
-    <row r="114" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="L114" s="4"/>
-    </row>
-    <row r="115" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="L115" s="4"/>
-    </row>
-    <row r="116" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="L116" s="4"/>
-    </row>
-    <row r="117" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="G117" s="15"/>
-      <c r="L117" s="4"/>
-    </row>
-    <row r="118" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="F118" s="15"/>
-      <c r="G118" s="15"/>
-      <c r="L118" s="4"/>
-    </row>
-    <row r="119" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="F119" s="15"/>
-      <c r="G119" s="15"/>
-      <c r="L119" s="4"/>
-    </row>
-    <row r="120" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="F120" s="15"/>
-      <c r="G120" s="15"/>
-      <c r="L120" s="4"/>
-    </row>
-    <row r="121" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="L121" s="4"/>
-    </row>
-    <row r="122" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C122"/>
-      <c r="L122" s="4"/>
-    </row>
-    <row r="123" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="L123" s="4"/>
-    </row>
-    <row r="124" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="L124" s="4"/>
-    </row>
-    <row r="125" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="L125" s="4"/>
-    </row>
-    <row r="126" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="L126" s="4"/>
-    </row>
-    <row r="127" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="G127" s="15"/>
-      <c r="L127" s="4"/>
-    </row>
-    <row r="128" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="F128" s="15"/>
-      <c r="G128" s="15"/>
-      <c r="L128" s="4"/>
-    </row>
-    <row r="129" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="F129" s="15"/>
-      <c r="G129" s="15"/>
-      <c r="L129" s="4"/>
-    </row>
-    <row r="130" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="F130" s="15"/>
-      <c r="G130" s="15"/>
-      <c r="L130" s="4"/>
-    </row>
-    <row r="131" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="L131" s="4"/>
-    </row>
-    <row r="132" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="L132" s="4"/>
-    </row>
-    <row r="133" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C133"/>
-      <c r="L133" s="4"/>
-    </row>
-    <row r="134" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="L134" s="4"/>
-    </row>
-    <row r="135" spans="3:12" x14ac:dyDescent="0.25">
       <c r="L135" s="4"/>
     </row>
-    <row r="136" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L136" s="4"/>
     </row>
-    <row r="137" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A137" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D137" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F137" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="L137" s="4"/>
     </row>
-    <row r="138" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="G138" s="15"/>
+    <row r="138" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F138" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G138" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="L138" s="4"/>
     </row>
-    <row r="139" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="F139" s="15"/>
-      <c r="G139" s="15"/>
+    <row r="139" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F139" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G139" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="L139" s="4"/>
     </row>
-    <row r="140" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="F140" s="15"/>
-      <c r="G140" s="15"/>
+    <row r="140" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="F140" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G140" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="L140" s="4"/>
     </row>
-    <row r="141" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="F141" s="15"/>
-      <c r="G141" s="15"/>
+    <row r="141" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F141" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G141" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="L141" s="4"/>
     </row>
-    <row r="142" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F142" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G142" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="L142" s="4"/>
     </row>
-    <row r="143" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C143"/>
+    <row r="143" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F143" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G143" s="11" t="s">
+        <v>92</v>
+      </c>
       <c r="L143" s="4"/>
     </row>
-    <row r="144" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L144" s="4"/>
     </row>
-    <row r="145" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A145" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D145" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F145" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="L145" s="4"/>
     </row>
-    <row r="146" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F146" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G146" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="L146" s="4"/>
     </row>
-    <row r="147" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F147" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G147" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="L147" s="4"/>
     </row>
-    <row r="148" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="G148" s="15"/>
+    <row r="148" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="F148" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G148" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="L148" s="4"/>
     </row>
-    <row r="149" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="F149" s="15"/>
-      <c r="G149" s="15"/>
+    <row r="149" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F149" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G149" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="L149" s="4"/>
     </row>
-    <row r="150" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="F150" s="15"/>
-      <c r="G150" s="15"/>
+    <row r="150" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F150" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G150" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="L150" s="4"/>
     </row>
-    <row r="151" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="F151" s="15"/>
-      <c r="G151" s="15"/>
+    <row r="151" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F151" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G151" s="11" t="s">
+        <v>62</v>
+      </c>
       <c r="L151" s="4"/>
     </row>
-    <row r="152" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C152"/>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L152" s="4"/>
     </row>
-    <row r="153" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L153" s="4"/>
     </row>
-    <row r="154" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A154" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D154" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F154" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="L154" s="4"/>
     </row>
-    <row r="155" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F155" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G155" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="L155" s="4"/>
     </row>
-    <row r="156" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F156" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G156" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="L156" s="4"/>
     </row>
-    <row r="157" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="G157" s="15"/>
+    <row r="157" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="F157" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G157" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="L157" s="4"/>
     </row>
-    <row r="158" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="F158" s="15"/>
-      <c r="G158" s="15"/>
+    <row r="158" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F158" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="G158" s="11" t="s">
+        <v>124</v>
+      </c>
       <c r="L158" s="4"/>
     </row>
-    <row r="159" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="F159" s="15"/>
-      <c r="G159" s="15"/>
+    <row r="159" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F159" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="G159" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="L159" s="4"/>
     </row>
-    <row r="160" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="F160" s="15"/>
-      <c r="G160" s="15"/>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L160" s="4"/>
     </row>
-    <row r="161" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L161" s="4"/>
     </row>
-    <row r="162" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A162" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D162" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F162" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="L162" s="4"/>
     </row>
-    <row r="163" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C163"/>
-      <c r="D163" s="15"/>
+    <row r="163" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F163" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G163" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="L163" s="4"/>
     </row>
-    <row r="164" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F164" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G164" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="L164" s="4"/>
     </row>
-    <row r="165" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="F165" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G165" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="L165" s="4"/>
     </row>
-    <row r="166" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F166" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="G166" s="11" t="s">
+        <v>124</v>
+      </c>
       <c r="L166" s="4"/>
     </row>
-    <row r="167" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F167" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="G167" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="L167" s="4"/>
     </row>
-    <row r="168" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G168" s="15"/>
       <c r="L168" s="4"/>
     </row>
-    <row r="169" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F169" s="15"/>
       <c r="G169" s="15"/>
       <c r="L169" s="4"/>
     </row>
-    <row r="170" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="F170" s="15"/>
-      <c r="G170" s="15"/>
+    <row r="170" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A170" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D170" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F170" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="L170" s="4"/>
     </row>
-    <row r="171" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="F171" s="15"/>
-      <c r="G171" s="15"/>
+    <row r="171" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F171" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G171" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="L171" s="4"/>
     </row>
-    <row r="172" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F172" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G172" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="L172" s="4"/>
     </row>
-    <row r="173" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C173"/>
-      <c r="D173" s="15"/>
+    <row r="173" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="F173" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G173" s="11" t="s">
+        <v>130</v>
+      </c>
       <c r="L173" s="4"/>
     </row>
-    <row r="174" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L174" s="4"/>
     </row>
-    <row r="175" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A175" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D175" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F175" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="L175" s="4"/>
     </row>
-    <row r="176" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F176" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G176" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="L176" s="4"/>
     </row>
-    <row r="177" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F177" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G177" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="L177" s="4"/>
     </row>
-    <row r="178" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="G178" s="15"/>
+    <row r="178" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F178" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="G178" s="11" t="s">
+        <v>133</v>
+      </c>
       <c r="L178" s="4"/>
     </row>
-    <row r="179" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="F179" s="15"/>
-      <c r="G179" s="15"/>
+    <row r="179" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F179" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="G179" s="11" t="s">
+        <v>134</v>
+      </c>
       <c r="L179" s="4"/>
     </row>
-    <row r="180" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="F180" s="15"/>
-      <c r="G180" s="15"/>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L180" s="4"/>
     </row>
-    <row r="181" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F181" s="15"/>
       <c r="G181" s="15"/>
       <c r="L181" s="4"/>
     </row>
-    <row r="182" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A182" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D182" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F182" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="L182" s="4"/>
     </row>
-    <row r="183" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F183" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G183" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="L183" s="4"/>
     </row>
-    <row r="184" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C184"/>
-      <c r="D184" s="15"/>
+    <row r="184" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F184" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G184" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="L184" s="4"/>
     </row>
-    <row r="185" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F185" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="G185" s="11" t="s">
+        <v>138</v>
+      </c>
       <c r="L185" s="4"/>
     </row>
-    <row r="186" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F186" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="G186" s="11" t="s">
+        <v>140</v>
+      </c>
       <c r="L186" s="4"/>
     </row>
-    <row r="187" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L187" s="4"/>
     </row>
-    <row r="188" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L188" s="4"/>
     </row>
-    <row r="189" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="G189" s="15"/>
+    <row r="189" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A189" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D189" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F189" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="L189" s="4"/>
     </row>
-    <row r="190" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="F190" s="15"/>
-      <c r="G190" s="15"/>
+    <row r="190" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F190" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G190" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="L190" s="4"/>
     </row>
-    <row r="191" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="F191" s="15"/>
-      <c r="G191" s="15"/>
+    <row r="191" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F191" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G191" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="L191" s="4"/>
     </row>
-    <row r="192" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="F192" s="15"/>
-      <c r="G192" s="15"/>
+    <row r="192" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F192" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="G192" s="11" t="s">
+        <v>138</v>
+      </c>
       <c r="L192" s="4"/>
     </row>
-    <row r="193" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F193" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="G193" s="11" t="s">
+        <v>140</v>
+      </c>
       <c r="L193" s="4"/>
     </row>
     <row r="194" spans="3:12" x14ac:dyDescent="0.25">
@@ -3829,13 +4721,13 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C649:C718" xr:uid="{BB1FB602-1765-4F63-8427-732A8BF96F64}">
       <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Parvathy P, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B84 B87 B108 B97 B104:B105 B94 B2 B358 B365 B13:B14 B7 B20 B344 B351 B22 B28 B30 B36:B37 B337 B45 B57 B331 B51 B59 B67 B73 B112 B115 B125 B122 B133 B143 B152 B163 B173 B184 B195 B206 B218 B225 B233 B241 B249 B256 B265 B272 B278 B284 B290 B296 B302:B303 B310 B317 B324 B65 B75 B81" xr:uid="{2F52606D-49DC-4947-9725-5342D25B1853}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B233 B241 B249 B256 B265 B272 B2 B358 B365 B13:B15 B278 B7 B344 B351 B21:B23 B28:B29 B284 B46 B337 B35:B37 B331 B53 B55 B290 B296 B302:B303 B310 B317 B324 B62 B68:B69 B160 B162 B175 B195 B206 B218 B225 B137 B143 B75:B76 B82 B84 B90 B92 B98:B99 B107 B119 B113 B121 B129 B135 B127 B145 B151 B154 B170 B182 B189" xr:uid="{2F52606D-49DC-4947-9725-5342D25B1853}">
       <formula1>"CAS/ Appointment, Out Patient, Care Desk, EMR, Lab &amp; General Billing, Pharmacy Billing, Lab Results, Radiology, Insurance Desk, Casualty, MRD, In Patient, Nursing Station, Theatre, Indent, Store Management"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K475:K677" xr:uid="{01AD6F3F-ED6E-4BD4-A56A-48A431009C35}">
       <formula1>"Leona, Parvathy, Raziya, Rijo"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C94:C648 C2:C43 K45:K474 K2:K43 C45:C92" xr:uid="{9ABCAB91-EA72-4653-9CA8-9A382BDAE099}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C55:C105 K45:K474 K2:K43 C2:C43 C46:C53 C107:C648" xr:uid="{9ABCAB91-EA72-4653-9CA8-9A382BDAE099}">
       <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L722" xr:uid="{448852A5-7DBD-44F3-839F-CC0FA067F14F}">
@@ -3845,4 +4737,3235 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5E1A8AF-6E01-4B6C-8928-F3D0D3A90524}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CEFDF15-D63A-47A6-A67E-E8C9E05106A8}">
+  <dimension ref="A1:S722"/>
+  <sheetViews>
+    <sheetView topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="35.28515625" style="11" customWidth="1"/>
+    <col min="7" max="8" width="27.28515625" style="11" customWidth="1"/>
+    <col min="9" max="9" width="25.5703125" style="11" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" style="5" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="5"/>
+    <col min="12" max="12" width="9.5703125" style="5" customWidth="1"/>
+    <col min="13" max="14" width="9.140625" style="5"/>
+    <col min="15" max="15" width="13.140625" style="5" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="10" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="18"/>
+      <c r="R1" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" s="19"/>
+    </row>
+    <row r="2" spans="1:19" s="13" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="O2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" s="4">
+        <f>COUNTA(A:A)-1</f>
+        <v>12</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="6">
+        <f>COUNTIF(L:L,"Pass")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="11"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="O3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="4"/>
+      <c r="R3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="S3" s="6"/>
+    </row>
+    <row r="4" spans="1:19" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="O4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" s="4"/>
+      <c r="R4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S4" s="6">
+        <f>COUNTIF(L:L,"Blocked")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="150" x14ac:dyDescent="0.25">
+      <c r="F5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="R5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="S5" s="6">
+        <f>COUNTA(M:M)-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L6" s="4"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="6"/>
+    </row>
+    <row r="7" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="F8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="14"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="F9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="F10" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="F11" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="F12" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="F15" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="14"/>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="F16" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="F17" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F18" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F19" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F20" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F23" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F24" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="F25" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F26" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F27" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L29" s="4"/>
+    </row>
+    <row r="30" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="L30" s="4"/>
+    </row>
+    <row r="31" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F31" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L31" s="4"/>
+    </row>
+    <row r="32" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F32" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L32" s="4"/>
+    </row>
+    <row r="33" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="F33" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L33" s="4"/>
+    </row>
+    <row r="34" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F34" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="L34" s="4"/>
+    </row>
+    <row r="35" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="F35" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="L35" s="4"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L36" s="4"/>
+    </row>
+    <row r="37" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="L37" s="4"/>
+    </row>
+    <row r="38" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F38" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L38" s="4"/>
+    </row>
+    <row r="39" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F39" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L39" s="4"/>
+    </row>
+    <row r="40" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="F40" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L40" s="4"/>
+    </row>
+    <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F41" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="L41" s="4"/>
+    </row>
+    <row r="42" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F42" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="L42" s="4"/>
+    </row>
+    <row r="43" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F43" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="L43" s="4"/>
+    </row>
+    <row r="44" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F44" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="L44" s="4"/>
+    </row>
+    <row r="45" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="L45" s="4"/>
+    </row>
+    <row r="46" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F46" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L46" s="4"/>
+    </row>
+    <row r="47" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F47" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L47" s="4"/>
+    </row>
+    <row r="48" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="F48" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L48" s="4"/>
+    </row>
+    <row r="49" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F49" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="L49" s="4"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L50" s="4"/>
+    </row>
+    <row r="51" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A51" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="L51" s="4"/>
+    </row>
+    <row r="52" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F52" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L52" s="4"/>
+    </row>
+    <row r="53" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F53" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L53" s="4"/>
+    </row>
+    <row r="54" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="F54" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L54" s="4"/>
+    </row>
+    <row r="55" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F55" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="L55" s="4"/>
+    </row>
+    <row r="56" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F56" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L56" s="4"/>
+    </row>
+    <row r="57" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F57" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="L57" s="4"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L58" s="4"/>
+    </row>
+    <row r="59" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A59" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="L59" s="4"/>
+    </row>
+    <row r="60" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F60" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L60" s="4"/>
+    </row>
+    <row r="61" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F61" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L61" s="4"/>
+    </row>
+    <row r="62" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="F62" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L62" s="4"/>
+    </row>
+    <row r="63" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F63" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="L63" s="4"/>
+    </row>
+    <row r="64" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F64" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L64" s="4"/>
+    </row>
+    <row r="65" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F65" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="G65" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="L65" s="4"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L66" s="4"/>
+    </row>
+    <row r="67" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A67" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="L67" s="4"/>
+    </row>
+    <row r="68" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F68" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G68" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L68" s="4"/>
+    </row>
+    <row r="69" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F69" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L69" s="4"/>
+    </row>
+    <row r="70" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="F70" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L70" s="4"/>
+    </row>
+    <row r="71" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F71" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G71" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="L71" s="4"/>
+    </row>
+    <row r="72" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F72" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G72" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L72" s="4"/>
+    </row>
+    <row r="73" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F73" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G73" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="L73" s="4"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L74" s="4"/>
+    </row>
+    <row r="75" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A75" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F75" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="L75" s="4"/>
+    </row>
+    <row r="76" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F76" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G76" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L76" s="4"/>
+    </row>
+    <row r="77" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F77" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G77" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L77" s="4"/>
+    </row>
+    <row r="78" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="F78" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G78" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L78" s="4"/>
+    </row>
+    <row r="79" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F79" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G79" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="L79" s="4"/>
+    </row>
+    <row r="80" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F80" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G80" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L80" s="4"/>
+    </row>
+    <row r="81" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F81" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G81" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="L81" s="4"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L82" s="4"/>
+    </row>
+    <row r="83" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A83" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F83" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="L83" s="4"/>
+    </row>
+    <row r="84" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F84" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G84" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L84" s="4"/>
+    </row>
+    <row r="85" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F85" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G85" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L85" s="4"/>
+    </row>
+    <row r="86" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="F86" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G86" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L86" s="4"/>
+    </row>
+    <row r="87" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F87" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G87" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="L87" s="4"/>
+    </row>
+    <row r="88" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F88" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G88" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L88" s="4"/>
+    </row>
+    <row r="89" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F89" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G89" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="L89" s="4"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L90" s="4"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L91" s="4"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L92" s="4"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L93" s="4"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L94" s="4"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L95" s="4"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L96" s="4"/>
+    </row>
+    <row r="97" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L97" s="4"/>
+    </row>
+    <row r="98" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L98" s="4"/>
+    </row>
+    <row r="99" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L99" s="4"/>
+    </row>
+    <row r="100" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L100" s="4"/>
+    </row>
+    <row r="101" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L101" s="4"/>
+    </row>
+    <row r="102" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L102" s="4"/>
+    </row>
+    <row r="103" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L103" s="4"/>
+    </row>
+    <row r="104" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L104" s="4"/>
+    </row>
+    <row r="105" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L105" s="4"/>
+    </row>
+    <row r="106" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L106" s="4"/>
+    </row>
+    <row r="107" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L107" s="4"/>
+    </row>
+    <row r="108" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L108" s="4"/>
+    </row>
+    <row r="109" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L109" s="4"/>
+    </row>
+    <row r="110" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L110" s="4"/>
+    </row>
+    <row r="111" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L111" s="4"/>
+    </row>
+    <row r="112" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L112" s="4"/>
+    </row>
+    <row r="113" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L113" s="4"/>
+    </row>
+    <row r="114" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L114" s="4"/>
+    </row>
+    <row r="115" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L115" s="4"/>
+    </row>
+    <row r="116" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L116" s="4"/>
+    </row>
+    <row r="117" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="G117" s="15"/>
+      <c r="L117" s="4"/>
+    </row>
+    <row r="118" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="F118" s="15"/>
+      <c r="G118" s="15"/>
+      <c r="L118" s="4"/>
+    </row>
+    <row r="119" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="F119" s="15"/>
+      <c r="G119" s="15"/>
+      <c r="L119" s="4"/>
+    </row>
+    <row r="120" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="F120" s="15"/>
+      <c r="G120" s="15"/>
+      <c r="L120" s="4"/>
+    </row>
+    <row r="121" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L121" s="4"/>
+    </row>
+    <row r="122" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C122"/>
+      <c r="L122" s="4"/>
+    </row>
+    <row r="123" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L123" s="4"/>
+    </row>
+    <row r="124" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L124" s="4"/>
+    </row>
+    <row r="125" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L125" s="4"/>
+    </row>
+    <row r="126" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L126" s="4"/>
+    </row>
+    <row r="127" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="G127" s="15"/>
+      <c r="L127" s="4"/>
+    </row>
+    <row r="128" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="F128" s="15"/>
+      <c r="G128" s="15"/>
+      <c r="L128" s="4"/>
+    </row>
+    <row r="129" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="F129" s="15"/>
+      <c r="G129" s="15"/>
+      <c r="L129" s="4"/>
+    </row>
+    <row r="130" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="F130" s="15"/>
+      <c r="G130" s="15"/>
+      <c r="L130" s="4"/>
+    </row>
+    <row r="131" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L131" s="4"/>
+    </row>
+    <row r="132" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L132" s="4"/>
+    </row>
+    <row r="133" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C133"/>
+      <c r="L133" s="4"/>
+    </row>
+    <row r="134" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L134" s="4"/>
+    </row>
+    <row r="135" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L135" s="4"/>
+    </row>
+    <row r="136" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L136" s="4"/>
+    </row>
+    <row r="137" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L137" s="4"/>
+    </row>
+    <row r="138" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="G138" s="15"/>
+      <c r="L138" s="4"/>
+    </row>
+    <row r="139" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="F139" s="15"/>
+      <c r="G139" s="15"/>
+      <c r="L139" s="4"/>
+    </row>
+    <row r="140" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="F140" s="15"/>
+      <c r="G140" s="15"/>
+      <c r="L140" s="4"/>
+    </row>
+    <row r="141" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="F141" s="15"/>
+      <c r="G141" s="15"/>
+      <c r="L141" s="4"/>
+    </row>
+    <row r="142" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L142" s="4"/>
+    </row>
+    <row r="143" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C143"/>
+      <c r="L143" s="4"/>
+    </row>
+    <row r="144" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L144" s="4"/>
+    </row>
+    <row r="145" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L145" s="4"/>
+    </row>
+    <row r="146" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L146" s="4"/>
+    </row>
+    <row r="147" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L147" s="4"/>
+    </row>
+    <row r="148" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="G148" s="15"/>
+      <c r="L148" s="4"/>
+    </row>
+    <row r="149" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="F149" s="15"/>
+      <c r="G149" s="15"/>
+      <c r="L149" s="4"/>
+    </row>
+    <row r="150" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="F150" s="15"/>
+      <c r="G150" s="15"/>
+      <c r="L150" s="4"/>
+    </row>
+    <row r="151" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="F151" s="15"/>
+      <c r="G151" s="15"/>
+      <c r="L151" s="4"/>
+    </row>
+    <row r="152" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C152"/>
+      <c r="L152" s="4"/>
+    </row>
+    <row r="153" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L153" s="4"/>
+    </row>
+    <row r="154" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L154" s="4"/>
+    </row>
+    <row r="155" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L155" s="4"/>
+    </row>
+    <row r="156" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L156" s="4"/>
+    </row>
+    <row r="157" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="G157" s="15"/>
+      <c r="L157" s="4"/>
+    </row>
+    <row r="158" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="F158" s="15"/>
+      <c r="G158" s="15"/>
+      <c r="L158" s="4"/>
+    </row>
+    <row r="159" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="F159" s="15"/>
+      <c r="G159" s="15"/>
+      <c r="L159" s="4"/>
+    </row>
+    <row r="160" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="F160" s="15"/>
+      <c r="G160" s="15"/>
+      <c r="L160" s="4"/>
+    </row>
+    <row r="161" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L161" s="4"/>
+    </row>
+    <row r="162" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L162" s="4"/>
+    </row>
+    <row r="163" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C163"/>
+      <c r="D163" s="15"/>
+      <c r="L163" s="4"/>
+    </row>
+    <row r="164" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L164" s="4"/>
+    </row>
+    <row r="165" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L165" s="4"/>
+    </row>
+    <row r="166" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L166" s="4"/>
+    </row>
+    <row r="167" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L167" s="4"/>
+    </row>
+    <row r="168" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="G168" s="15"/>
+      <c r="L168" s="4"/>
+    </row>
+    <row r="169" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="F169" s="15"/>
+      <c r="G169" s="15"/>
+      <c r="L169" s="4"/>
+    </row>
+    <row r="170" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="F170" s="15"/>
+      <c r="G170" s="15"/>
+      <c r="L170" s="4"/>
+    </row>
+    <row r="171" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="F171" s="15"/>
+      <c r="G171" s="15"/>
+      <c r="L171" s="4"/>
+    </row>
+    <row r="172" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L172" s="4"/>
+    </row>
+    <row r="173" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C173"/>
+      <c r="D173" s="15"/>
+      <c r="L173" s="4"/>
+    </row>
+    <row r="174" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L174" s="4"/>
+    </row>
+    <row r="175" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L175" s="4"/>
+    </row>
+    <row r="176" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L176" s="4"/>
+    </row>
+    <row r="177" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L177" s="4"/>
+    </row>
+    <row r="178" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="G178" s="15"/>
+      <c r="L178" s="4"/>
+    </row>
+    <row r="179" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="F179" s="15"/>
+      <c r="G179" s="15"/>
+      <c r="L179" s="4"/>
+    </row>
+    <row r="180" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="F180" s="15"/>
+      <c r="G180" s="15"/>
+      <c r="L180" s="4"/>
+    </row>
+    <row r="181" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="F181" s="15"/>
+      <c r="G181" s="15"/>
+      <c r="L181" s="4"/>
+    </row>
+    <row r="182" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L182" s="4"/>
+    </row>
+    <row r="183" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L183" s="4"/>
+    </row>
+    <row r="184" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C184"/>
+      <c r="D184" s="15"/>
+      <c r="L184" s="4"/>
+    </row>
+    <row r="185" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L185" s="4"/>
+    </row>
+    <row r="186" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L186" s="4"/>
+    </row>
+    <row r="187" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L187" s="4"/>
+    </row>
+    <row r="188" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L188" s="4"/>
+    </row>
+    <row r="189" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="G189" s="15"/>
+      <c r="L189" s="4"/>
+    </row>
+    <row r="190" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="F190" s="15"/>
+      <c r="G190" s="15"/>
+      <c r="L190" s="4"/>
+    </row>
+    <row r="191" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="F191" s="15"/>
+      <c r="G191" s="15"/>
+      <c r="L191" s="4"/>
+    </row>
+    <row r="192" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="F192" s="15"/>
+      <c r="G192" s="15"/>
+      <c r="L192" s="4"/>
+    </row>
+    <row r="193" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L193" s="4"/>
+    </row>
+    <row r="194" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L194" s="4"/>
+    </row>
+    <row r="195" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C195"/>
+      <c r="D195" s="15"/>
+      <c r="L195" s="4"/>
+    </row>
+    <row r="196" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L196" s="4"/>
+    </row>
+    <row r="197" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L197" s="4"/>
+    </row>
+    <row r="198" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L198" s="4"/>
+    </row>
+    <row r="199" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L199" s="4"/>
+    </row>
+    <row r="200" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="G200" s="15"/>
+      <c r="L200" s="4"/>
+    </row>
+    <row r="201" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="F201" s="15"/>
+      <c r="G201" s="15"/>
+      <c r="L201" s="4"/>
+    </row>
+    <row r="202" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="F202" s="15"/>
+      <c r="G202" s="15"/>
+      <c r="L202" s="4"/>
+    </row>
+    <row r="203" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="F203" s="15"/>
+      <c r="G203" s="15"/>
+      <c r="L203" s="4"/>
+    </row>
+    <row r="204" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L204" s="4"/>
+    </row>
+    <row r="205" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L205" s="4"/>
+    </row>
+    <row r="206" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C206"/>
+      <c r="D206" s="15"/>
+      <c r="L206" s="4"/>
+    </row>
+    <row r="207" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L207" s="4"/>
+    </row>
+    <row r="208" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L208" s="4"/>
+    </row>
+    <row r="209" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L209" s="4"/>
+    </row>
+    <row r="210" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L210" s="4"/>
+    </row>
+    <row r="211" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="G211" s="15"/>
+      <c r="L211" s="4"/>
+    </row>
+    <row r="212" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="F212" s="15"/>
+      <c r="G212" s="15"/>
+      <c r="L212" s="4"/>
+    </row>
+    <row r="213" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="F213" s="15"/>
+      <c r="G213" s="15"/>
+      <c r="L213" s="4"/>
+    </row>
+    <row r="214" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="F214" s="15"/>
+      <c r="G214" s="15"/>
+      <c r="L214" s="4"/>
+    </row>
+    <row r="215" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="F215" s="15"/>
+      <c r="G215" s="15"/>
+      <c r="L215" s="4"/>
+    </row>
+    <row r="216" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L216" s="4"/>
+    </row>
+    <row r="217" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L217" s="4"/>
+    </row>
+    <row r="218" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C218"/>
+      <c r="D218" s="15"/>
+      <c r="L218" s="4"/>
+    </row>
+    <row r="219" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L219" s="4"/>
+    </row>
+    <row r="220" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L220" s="4"/>
+    </row>
+    <row r="221" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L221" s="4"/>
+    </row>
+    <row r="222" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L222" s="4"/>
+    </row>
+    <row r="223" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L223" s="4"/>
+    </row>
+    <row r="224" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L224" s="4"/>
+    </row>
+    <row r="225" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C225"/>
+      <c r="D225" s="15"/>
+      <c r="L225" s="4"/>
+    </row>
+    <row r="226" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L226" s="4"/>
+    </row>
+    <row r="227" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L227" s="4"/>
+    </row>
+    <row r="228" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L228" s="4"/>
+    </row>
+    <row r="229" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L229" s="4"/>
+    </row>
+    <row r="230" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L230" s="4"/>
+    </row>
+    <row r="231" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L231" s="4"/>
+    </row>
+    <row r="232" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L232" s="4"/>
+    </row>
+    <row r="233" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C233"/>
+      <c r="D233" s="15"/>
+      <c r="L233" s="4"/>
+    </row>
+    <row r="234" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L234" s="4"/>
+    </row>
+    <row r="235" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L235" s="4"/>
+    </row>
+    <row r="236" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L236" s="4"/>
+    </row>
+    <row r="237" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L237" s="4"/>
+    </row>
+    <row r="238" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L238" s="4"/>
+    </row>
+    <row r="239" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L239" s="4"/>
+    </row>
+    <row r="240" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L240" s="4"/>
+    </row>
+    <row r="241" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C241"/>
+      <c r="D241" s="15"/>
+      <c r="L241" s="4"/>
+    </row>
+    <row r="242" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L242" s="4"/>
+    </row>
+    <row r="243" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L243" s="4"/>
+    </row>
+    <row r="244" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L244" s="4"/>
+    </row>
+    <row r="245" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L245" s="4"/>
+    </row>
+    <row r="246" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L246" s="4"/>
+    </row>
+    <row r="247" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L247" s="4"/>
+    </row>
+    <row r="248" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L248" s="4"/>
+    </row>
+    <row r="249" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C249"/>
+      <c r="D249" s="15"/>
+      <c r="L249" s="4"/>
+    </row>
+    <row r="250" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L250" s="4"/>
+    </row>
+    <row r="251" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L251" s="4"/>
+    </row>
+    <row r="252" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L252" s="4"/>
+    </row>
+    <row r="253" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L253" s="4"/>
+    </row>
+    <row r="254" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L254" s="4"/>
+    </row>
+    <row r="255" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L255" s="4"/>
+    </row>
+    <row r="256" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C256"/>
+      <c r="D256" s="15"/>
+      <c r="L256" s="4"/>
+    </row>
+    <row r="257" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L257" s="4"/>
+    </row>
+    <row r="258" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L258" s="4"/>
+    </row>
+    <row r="259" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L259" s="4"/>
+    </row>
+    <row r="260" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L260" s="4"/>
+    </row>
+    <row r="261" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L261" s="4"/>
+    </row>
+    <row r="262" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L262" s="4"/>
+    </row>
+    <row r="263" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L263" s="4"/>
+    </row>
+    <row r="264" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L264" s="4"/>
+    </row>
+    <row r="265" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C265"/>
+      <c r="D265" s="15"/>
+      <c r="L265" s="4"/>
+    </row>
+    <row r="266" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L266" s="4"/>
+    </row>
+    <row r="267" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L267" s="4"/>
+    </row>
+    <row r="268" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L268" s="4"/>
+    </row>
+    <row r="269" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L269" s="4"/>
+    </row>
+    <row r="270" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L270" s="4"/>
+    </row>
+    <row r="271" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L271" s="4"/>
+    </row>
+    <row r="272" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C272"/>
+      <c r="D272" s="15"/>
+      <c r="J272" s="16">
+        <v>43626</v>
+      </c>
+      <c r="L272" s="4"/>
+    </row>
+    <row r="273" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L273" s="4"/>
+    </row>
+    <row r="274" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L274" s="4"/>
+    </row>
+    <row r="275" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L275" s="4"/>
+    </row>
+    <row r="276" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L276" s="4"/>
+    </row>
+    <row r="277" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L277" s="4"/>
+    </row>
+    <row r="278" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C278"/>
+      <c r="D278" s="15"/>
+      <c r="L278" s="4"/>
+    </row>
+    <row r="279" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L279" s="4"/>
+    </row>
+    <row r="280" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L280" s="4"/>
+    </row>
+    <row r="281" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L281" s="4"/>
+    </row>
+    <row r="282" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L282" s="4"/>
+    </row>
+    <row r="283" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L283" s="4"/>
+    </row>
+    <row r="284" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C284"/>
+      <c r="D284" s="15"/>
+      <c r="L284" s="4"/>
+    </row>
+    <row r="285" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L285" s="4"/>
+    </row>
+    <row r="286" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L286" s="4"/>
+    </row>
+    <row r="287" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L287" s="4"/>
+    </row>
+    <row r="288" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L288" s="4"/>
+    </row>
+    <row r="289" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L289" s="4"/>
+    </row>
+    <row r="290" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C290"/>
+      <c r="D290" s="15"/>
+      <c r="L290" s="4"/>
+    </row>
+    <row r="291" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L291" s="4"/>
+    </row>
+    <row r="292" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L292" s="4"/>
+    </row>
+    <row r="293" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L293" s="4"/>
+    </row>
+    <row r="294" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L294" s="4"/>
+    </row>
+    <row r="295" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L295" s="4"/>
+    </row>
+    <row r="296" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C296"/>
+      <c r="D296" s="15"/>
+      <c r="L296" s="4"/>
+    </row>
+    <row r="297" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L297" s="4"/>
+    </row>
+    <row r="298" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L298" s="4"/>
+    </row>
+    <row r="299" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L299" s="4"/>
+    </row>
+    <row r="300" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L300" s="4"/>
+    </row>
+    <row r="301" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L301" s="4"/>
+    </row>
+    <row r="302" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C302"/>
+      <c r="D302" s="15"/>
+      <c r="L302" s="4"/>
+    </row>
+    <row r="303" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C303"/>
+      <c r="D303" s="15"/>
+      <c r="L303" s="4"/>
+    </row>
+    <row r="304" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L304" s="4"/>
+    </row>
+    <row r="305" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L305" s="4"/>
+    </row>
+    <row r="306" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L306" s="4"/>
+    </row>
+    <row r="307" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L307" s="4"/>
+    </row>
+    <row r="308" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L308" s="4"/>
+    </row>
+    <row r="309" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L309" s="4"/>
+    </row>
+    <row r="310" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C310"/>
+      <c r="D310" s="15"/>
+      <c r="L310" s="4"/>
+    </row>
+    <row r="311" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L311" s="4"/>
+    </row>
+    <row r="312" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L312" s="4"/>
+    </row>
+    <row r="313" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L313" s="4"/>
+    </row>
+    <row r="314" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L314" s="4"/>
+    </row>
+    <row r="315" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L315" s="4"/>
+    </row>
+    <row r="316" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L316" s="4"/>
+    </row>
+    <row r="317" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C317"/>
+      <c r="D317" s="15"/>
+      <c r="L317" s="4"/>
+    </row>
+    <row r="318" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L318" s="4"/>
+    </row>
+    <row r="319" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L319" s="4"/>
+    </row>
+    <row r="320" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L320" s="4"/>
+    </row>
+    <row r="321" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L321" s="4"/>
+    </row>
+    <row r="322" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L322" s="4"/>
+    </row>
+    <row r="323" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L323" s="4"/>
+    </row>
+    <row r="324" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C324"/>
+      <c r="D324" s="15"/>
+      <c r="L324" s="4"/>
+    </row>
+    <row r="325" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L325" s="4"/>
+    </row>
+    <row r="326" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L326" s="4"/>
+    </row>
+    <row r="327" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L327" s="4"/>
+    </row>
+    <row r="328" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L328" s="4"/>
+    </row>
+    <row r="329" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L329" s="4"/>
+    </row>
+    <row r="330" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L330" s="4"/>
+    </row>
+    <row r="331" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C331"/>
+      <c r="D331" s="15"/>
+      <c r="L331" s="4"/>
+    </row>
+    <row r="332" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L332" s="4"/>
+    </row>
+    <row r="333" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L333" s="4"/>
+    </row>
+    <row r="334" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L334" s="4"/>
+    </row>
+    <row r="335" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L335" s="4"/>
+    </row>
+    <row r="336" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L336" s="4"/>
+    </row>
+    <row r="337" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C337"/>
+      <c r="D337" s="15"/>
+      <c r="L337" s="4"/>
+    </row>
+    <row r="338" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L338" s="4"/>
+    </row>
+    <row r="339" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L339" s="4"/>
+    </row>
+    <row r="340" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L340" s="4"/>
+    </row>
+    <row r="341" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L341" s="4"/>
+    </row>
+    <row r="342" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L342" s="4"/>
+    </row>
+    <row r="343" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L343" s="4"/>
+    </row>
+    <row r="344" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C344"/>
+      <c r="D344" s="15"/>
+      <c r="L344" s="4"/>
+    </row>
+    <row r="345" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L345" s="4"/>
+    </row>
+    <row r="346" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L346" s="4"/>
+    </row>
+    <row r="347" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L347" s="4"/>
+    </row>
+    <row r="348" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L348" s="4"/>
+    </row>
+    <row r="349" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L349" s="4"/>
+    </row>
+    <row r="350" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L350" s="4"/>
+    </row>
+    <row r="351" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C351"/>
+      <c r="D351" s="15"/>
+      <c r="L351" s="4"/>
+    </row>
+    <row r="352" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L352" s="4"/>
+    </row>
+    <row r="353" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L353" s="4"/>
+    </row>
+    <row r="354" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L354" s="4"/>
+    </row>
+    <row r="355" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L355" s="4"/>
+    </row>
+    <row r="356" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L356" s="4"/>
+    </row>
+    <row r="357" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L357" s="4"/>
+    </row>
+    <row r="358" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C358"/>
+      <c r="D358" s="15"/>
+      <c r="L358" s="4"/>
+    </row>
+    <row r="359" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L359" s="4"/>
+    </row>
+    <row r="360" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L360" s="4"/>
+    </row>
+    <row r="361" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L361" s="4"/>
+    </row>
+    <row r="362" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L362" s="4"/>
+    </row>
+    <row r="363" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L363" s="4"/>
+    </row>
+    <row r="364" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L364" s="4"/>
+    </row>
+    <row r="365" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C365"/>
+      <c r="D365" s="15"/>
+      <c r="L365" s="4"/>
+    </row>
+    <row r="366" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L366" s="4"/>
+    </row>
+    <row r="367" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L367" s="4"/>
+    </row>
+    <row r="368" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L368" s="4"/>
+    </row>
+    <row r="369" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L369" s="4"/>
+    </row>
+    <row r="370" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L370" s="4"/>
+    </row>
+    <row r="371" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L371" s="4"/>
+    </row>
+    <row r="372" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L372" s="4"/>
+    </row>
+    <row r="373" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L373" s="4"/>
+    </row>
+    <row r="374" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L374" s="4"/>
+    </row>
+    <row r="375" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L375" s="4"/>
+    </row>
+    <row r="376" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L376" s="4"/>
+    </row>
+    <row r="377" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L377" s="4"/>
+    </row>
+    <row r="378" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L378" s="4"/>
+    </row>
+    <row r="379" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L379" s="4"/>
+    </row>
+    <row r="380" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L380" s="4"/>
+    </row>
+    <row r="381" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L381" s="4"/>
+    </row>
+    <row r="382" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L382" s="4"/>
+    </row>
+    <row r="383" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L383" s="4"/>
+    </row>
+    <row r="384" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L384" s="4"/>
+    </row>
+    <row r="385" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L385" s="4"/>
+    </row>
+    <row r="386" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L386" s="4"/>
+    </row>
+    <row r="387" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L387" s="4"/>
+    </row>
+    <row r="388" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L388" s="4"/>
+    </row>
+    <row r="389" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L389" s="4"/>
+    </row>
+    <row r="390" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L390" s="4"/>
+    </row>
+    <row r="391" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L391" s="4"/>
+    </row>
+    <row r="392" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L392" s="4"/>
+    </row>
+    <row r="393" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L393" s="4"/>
+    </row>
+    <row r="394" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L394" s="4"/>
+    </row>
+    <row r="395" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L395" s="4"/>
+    </row>
+    <row r="396" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L396" s="4"/>
+    </row>
+    <row r="397" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L397" s="4"/>
+    </row>
+    <row r="398" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L398" s="4"/>
+    </row>
+    <row r="399" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L399" s="4"/>
+    </row>
+    <row r="400" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L400" s="4"/>
+    </row>
+    <row r="401" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L401" s="4"/>
+    </row>
+    <row r="402" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L402" s="4"/>
+    </row>
+    <row r="403" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L403" s="4"/>
+    </row>
+    <row r="404" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L404" s="4"/>
+    </row>
+    <row r="405" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L405" s="4"/>
+    </row>
+    <row r="406" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L406" s="4"/>
+    </row>
+    <row r="407" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L407" s="4"/>
+    </row>
+    <row r="408" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L408" s="4"/>
+    </row>
+    <row r="409" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L409" s="4"/>
+    </row>
+    <row r="410" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L410" s="4"/>
+    </row>
+    <row r="411" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L411" s="4"/>
+    </row>
+    <row r="412" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L412" s="4"/>
+    </row>
+    <row r="413" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L413" s="4"/>
+    </row>
+    <row r="414" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L414" s="4"/>
+    </row>
+    <row r="415" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L415" s="4"/>
+    </row>
+    <row r="416" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L416" s="4"/>
+    </row>
+    <row r="417" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L417" s="4"/>
+    </row>
+    <row r="418" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L418" s="4"/>
+    </row>
+    <row r="419" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L419" s="4"/>
+    </row>
+    <row r="420" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L420" s="4"/>
+    </row>
+    <row r="421" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L421" s="4"/>
+    </row>
+    <row r="422" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L422" s="4"/>
+    </row>
+    <row r="423" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L423" s="4"/>
+    </row>
+    <row r="424" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L424" s="4"/>
+    </row>
+    <row r="425" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L425" s="4"/>
+    </row>
+    <row r="426" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L426" s="4"/>
+    </row>
+    <row r="427" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L427" s="4"/>
+    </row>
+    <row r="428" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L428" s="4"/>
+    </row>
+    <row r="429" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L429" s="4"/>
+    </row>
+    <row r="430" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L430" s="4"/>
+    </row>
+    <row r="431" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L431" s="4"/>
+    </row>
+    <row r="432" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L432" s="4"/>
+    </row>
+    <row r="433" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L433" s="4"/>
+    </row>
+    <row r="434" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L434" s="4"/>
+    </row>
+    <row r="435" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L435" s="4"/>
+    </row>
+    <row r="436" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L436" s="4"/>
+    </row>
+    <row r="437" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L437" s="4"/>
+    </row>
+    <row r="438" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L438" s="4"/>
+    </row>
+    <row r="439" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L439" s="4"/>
+    </row>
+    <row r="440" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L440" s="4"/>
+    </row>
+    <row r="441" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L441" s="4"/>
+    </row>
+    <row r="442" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L442" s="4"/>
+    </row>
+    <row r="443" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L443" s="4"/>
+    </row>
+    <row r="444" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L444" s="4"/>
+    </row>
+    <row r="445" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L445" s="4"/>
+    </row>
+    <row r="446" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L446" s="4"/>
+    </row>
+    <row r="447" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L447" s="4"/>
+    </row>
+    <row r="448" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L448" s="4"/>
+    </row>
+    <row r="449" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L449" s="4"/>
+    </row>
+    <row r="450" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L450" s="4"/>
+    </row>
+    <row r="451" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L451" s="4"/>
+    </row>
+    <row r="452" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L452" s="4"/>
+    </row>
+    <row r="453" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L453" s="4"/>
+    </row>
+    <row r="454" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L454" s="4"/>
+    </row>
+    <row r="455" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L455" s="4"/>
+    </row>
+    <row r="456" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L456" s="4"/>
+    </row>
+    <row r="457" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L457" s="4"/>
+    </row>
+    <row r="458" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L458" s="4"/>
+    </row>
+    <row r="459" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L459" s="4"/>
+    </row>
+    <row r="460" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L460" s="4"/>
+    </row>
+    <row r="461" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L461" s="4"/>
+    </row>
+    <row r="462" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L462" s="4"/>
+    </row>
+    <row r="463" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L463" s="4"/>
+    </row>
+    <row r="464" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L464" s="4"/>
+    </row>
+    <row r="465" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="L465" s="4"/>
+    </row>
+    <row r="466" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="L466" s="4"/>
+    </row>
+    <row r="467" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="L467" s="4"/>
+    </row>
+    <row r="468" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="L468" s="4"/>
+    </row>
+    <row r="469" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="L469" s="4"/>
+    </row>
+    <row r="470" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="L470" s="4"/>
+    </row>
+    <row r="471" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="L471" s="4"/>
+    </row>
+    <row r="472" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="L472" s="4"/>
+    </row>
+    <row r="473" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="L473" s="4"/>
+    </row>
+    <row r="474" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="L474" s="4"/>
+    </row>
+    <row r="475" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K475" s="4"/>
+      <c r="L475" s="4"/>
+    </row>
+    <row r="476" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K476" s="4"/>
+      <c r="L476" s="4"/>
+    </row>
+    <row r="477" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K477" s="4"/>
+      <c r="L477" s="4"/>
+    </row>
+    <row r="478" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K478" s="4"/>
+      <c r="L478" s="4"/>
+    </row>
+    <row r="479" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K479" s="4"/>
+      <c r="L479" s="4"/>
+    </row>
+    <row r="480" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K480" s="4"/>
+      <c r="L480" s="4"/>
+    </row>
+    <row r="481" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K481" s="4"/>
+      <c r="L481" s="4"/>
+    </row>
+    <row r="482" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K482" s="4"/>
+      <c r="L482" s="4"/>
+    </row>
+    <row r="483" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K483" s="4"/>
+      <c r="L483" s="4"/>
+    </row>
+    <row r="484" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K484" s="4"/>
+      <c r="L484" s="4"/>
+    </row>
+    <row r="485" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K485" s="4"/>
+      <c r="L485" s="4"/>
+    </row>
+    <row r="486" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K486" s="4"/>
+      <c r="L486" s="4"/>
+    </row>
+    <row r="487" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K487" s="4"/>
+      <c r="L487" s="4"/>
+    </row>
+    <row r="488" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K488" s="4"/>
+      <c r="L488" s="4"/>
+    </row>
+    <row r="489" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K489" s="4"/>
+      <c r="L489" s="4"/>
+    </row>
+    <row r="490" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K490" s="4"/>
+      <c r="L490" s="4"/>
+    </row>
+    <row r="491" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K491" s="4"/>
+      <c r="L491" s="4"/>
+    </row>
+    <row r="492" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K492" s="4"/>
+      <c r="L492" s="4"/>
+    </row>
+    <row r="493" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K493" s="4"/>
+      <c r="L493" s="4"/>
+    </row>
+    <row r="494" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K494" s="4"/>
+      <c r="L494" s="4"/>
+    </row>
+    <row r="495" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K495" s="4"/>
+      <c r="L495" s="4"/>
+    </row>
+    <row r="496" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K496" s="4"/>
+      <c r="L496" s="4"/>
+    </row>
+    <row r="497" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K497" s="4"/>
+      <c r="L497" s="4"/>
+    </row>
+    <row r="498" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K498" s="4"/>
+      <c r="L498" s="4"/>
+    </row>
+    <row r="499" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K499" s="4"/>
+      <c r="L499" s="4"/>
+    </row>
+    <row r="500" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K500" s="4"/>
+      <c r="L500" s="4"/>
+    </row>
+    <row r="501" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K501" s="4"/>
+      <c r="L501" s="4"/>
+    </row>
+    <row r="502" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K502" s="4"/>
+      <c r="L502" s="4"/>
+    </row>
+    <row r="503" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K503" s="4"/>
+      <c r="L503" s="4"/>
+    </row>
+    <row r="504" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K504" s="4"/>
+      <c r="L504" s="4"/>
+    </row>
+    <row r="505" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K505" s="4"/>
+      <c r="L505" s="4"/>
+    </row>
+    <row r="506" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K506" s="4"/>
+      <c r="L506" s="4"/>
+    </row>
+    <row r="507" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K507" s="4"/>
+      <c r="L507" s="4"/>
+    </row>
+    <row r="508" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K508" s="4"/>
+      <c r="L508" s="4"/>
+    </row>
+    <row r="509" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K509" s="4"/>
+      <c r="L509" s="4"/>
+    </row>
+    <row r="510" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K510" s="4"/>
+      <c r="L510" s="4"/>
+    </row>
+    <row r="511" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K511" s="4"/>
+      <c r="L511" s="4"/>
+    </row>
+    <row r="512" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K512" s="4"/>
+      <c r="L512" s="4"/>
+    </row>
+    <row r="513" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K513" s="4"/>
+      <c r="L513" s="4"/>
+    </row>
+    <row r="514" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K514" s="4"/>
+      <c r="L514" s="4"/>
+    </row>
+    <row r="515" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K515" s="4"/>
+      <c r="L515" s="4"/>
+    </row>
+    <row r="516" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K516" s="4"/>
+      <c r="L516" s="4"/>
+    </row>
+    <row r="517" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K517" s="4"/>
+      <c r="L517" s="4"/>
+    </row>
+    <row r="518" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K518" s="4"/>
+      <c r="L518" s="4"/>
+    </row>
+    <row r="519" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K519" s="4"/>
+      <c r="L519" s="4"/>
+    </row>
+    <row r="520" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K520" s="4"/>
+      <c r="L520" s="4"/>
+    </row>
+    <row r="521" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K521" s="4"/>
+      <c r="L521" s="4"/>
+    </row>
+    <row r="522" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K522" s="4"/>
+      <c r="L522" s="4"/>
+    </row>
+    <row r="523" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K523" s="4"/>
+      <c r="L523" s="4"/>
+    </row>
+    <row r="524" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K524" s="4"/>
+      <c r="L524" s="4"/>
+    </row>
+    <row r="525" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K525" s="4"/>
+      <c r="L525" s="4"/>
+    </row>
+    <row r="526" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K526" s="4"/>
+      <c r="L526" s="4"/>
+    </row>
+    <row r="527" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K527" s="4"/>
+      <c r="L527" s="4"/>
+    </row>
+    <row r="528" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K528" s="4"/>
+      <c r="L528" s="4"/>
+    </row>
+    <row r="529" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K529" s="4"/>
+      <c r="L529" s="4"/>
+    </row>
+    <row r="530" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K530" s="4"/>
+      <c r="L530" s="4"/>
+    </row>
+    <row r="531" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K531" s="4"/>
+      <c r="L531" s="4"/>
+    </row>
+    <row r="532" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K532" s="4"/>
+      <c r="L532" s="4"/>
+    </row>
+    <row r="533" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K533" s="4"/>
+      <c r="L533" s="4"/>
+    </row>
+    <row r="534" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K534" s="4"/>
+      <c r="L534" s="4"/>
+    </row>
+    <row r="535" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K535" s="4"/>
+      <c r="L535" s="4"/>
+    </row>
+    <row r="536" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K536" s="4"/>
+      <c r="L536" s="4"/>
+    </row>
+    <row r="537" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K537" s="4"/>
+      <c r="L537" s="4"/>
+    </row>
+    <row r="538" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K538" s="4"/>
+      <c r="L538" s="4"/>
+    </row>
+    <row r="539" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K539" s="4"/>
+      <c r="L539" s="4"/>
+    </row>
+    <row r="540" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K540" s="4"/>
+      <c r="L540" s="4"/>
+    </row>
+    <row r="541" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K541" s="4"/>
+      <c r="L541" s="4"/>
+    </row>
+    <row r="542" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K542" s="4"/>
+      <c r="L542" s="4"/>
+    </row>
+    <row r="543" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K543" s="4"/>
+      <c r="L543" s="4"/>
+    </row>
+    <row r="544" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K544" s="4"/>
+      <c r="L544" s="4"/>
+    </row>
+    <row r="545" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K545" s="4"/>
+      <c r="L545" s="4"/>
+    </row>
+    <row r="546" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K546" s="4"/>
+      <c r="L546" s="4"/>
+    </row>
+    <row r="547" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K547" s="4"/>
+      <c r="L547" s="4"/>
+    </row>
+    <row r="548" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K548" s="4"/>
+      <c r="L548" s="4"/>
+    </row>
+    <row r="549" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K549" s="4"/>
+      <c r="L549" s="4"/>
+    </row>
+    <row r="550" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K550" s="4"/>
+      <c r="L550" s="4"/>
+    </row>
+    <row r="551" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K551" s="4"/>
+      <c r="L551" s="4"/>
+    </row>
+    <row r="552" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K552" s="4"/>
+      <c r="L552" s="4"/>
+    </row>
+    <row r="553" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K553" s="4"/>
+      <c r="L553" s="4"/>
+    </row>
+    <row r="554" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K554" s="4"/>
+      <c r="L554" s="4"/>
+    </row>
+    <row r="555" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K555" s="4"/>
+      <c r="L555" s="4"/>
+    </row>
+    <row r="556" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K556" s="4"/>
+      <c r="L556" s="4"/>
+    </row>
+    <row r="557" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K557" s="4"/>
+      <c r="L557" s="4"/>
+    </row>
+    <row r="558" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K558" s="4"/>
+      <c r="L558" s="4"/>
+    </row>
+    <row r="559" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K559" s="4"/>
+      <c r="L559" s="4"/>
+    </row>
+    <row r="560" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K560" s="4"/>
+      <c r="L560" s="4"/>
+    </row>
+    <row r="561" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K561" s="4"/>
+      <c r="L561" s="4"/>
+    </row>
+    <row r="562" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K562" s="4"/>
+      <c r="L562" s="4"/>
+    </row>
+    <row r="563" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K563" s="4"/>
+      <c r="L563" s="4"/>
+    </row>
+    <row r="564" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K564" s="4"/>
+      <c r="L564" s="4"/>
+    </row>
+    <row r="565" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K565" s="4"/>
+      <c r="L565" s="4"/>
+    </row>
+    <row r="566" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K566" s="4"/>
+      <c r="L566" s="4"/>
+    </row>
+    <row r="567" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K567" s="4"/>
+      <c r="L567" s="4"/>
+    </row>
+    <row r="568" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K568" s="4"/>
+      <c r="L568" s="4"/>
+    </row>
+    <row r="569" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K569" s="4"/>
+      <c r="L569" s="4"/>
+    </row>
+    <row r="570" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K570" s="4"/>
+      <c r="L570" s="4"/>
+    </row>
+    <row r="571" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K571" s="4"/>
+      <c r="L571" s="4"/>
+    </row>
+    <row r="572" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K572" s="4"/>
+      <c r="L572" s="4"/>
+    </row>
+    <row r="573" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K573" s="4"/>
+      <c r="L573" s="4"/>
+    </row>
+    <row r="574" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K574" s="4"/>
+      <c r="L574" s="4"/>
+    </row>
+    <row r="575" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K575" s="4"/>
+      <c r="L575" s="4"/>
+    </row>
+    <row r="576" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K576" s="4"/>
+      <c r="L576" s="4"/>
+    </row>
+    <row r="577" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K577" s="4"/>
+      <c r="L577" s="4"/>
+    </row>
+    <row r="578" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K578" s="4"/>
+      <c r="L578" s="4"/>
+    </row>
+    <row r="579" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K579" s="4"/>
+      <c r="L579" s="4"/>
+    </row>
+    <row r="580" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K580" s="4"/>
+      <c r="L580" s="4"/>
+    </row>
+    <row r="581" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K581" s="4"/>
+      <c r="L581" s="4"/>
+    </row>
+    <row r="582" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K582" s="4"/>
+      <c r="L582" s="4"/>
+    </row>
+    <row r="583" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K583" s="4"/>
+      <c r="L583" s="4"/>
+    </row>
+    <row r="584" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K584" s="4"/>
+      <c r="L584" s="4"/>
+    </row>
+    <row r="585" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K585" s="4"/>
+      <c r="L585" s="4"/>
+    </row>
+    <row r="586" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K586" s="4"/>
+      <c r="L586" s="4"/>
+    </row>
+    <row r="587" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K587" s="4"/>
+      <c r="L587" s="4"/>
+    </row>
+    <row r="588" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K588" s="4"/>
+      <c r="L588" s="4"/>
+    </row>
+    <row r="589" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K589" s="4"/>
+      <c r="L589" s="4"/>
+    </row>
+    <row r="590" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K590" s="4"/>
+      <c r="L590" s="4"/>
+    </row>
+    <row r="591" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K591" s="4"/>
+      <c r="L591" s="4"/>
+    </row>
+    <row r="592" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K592" s="4"/>
+      <c r="L592" s="4"/>
+    </row>
+    <row r="593" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K593" s="4"/>
+      <c r="L593" s="4"/>
+    </row>
+    <row r="594" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K594" s="4"/>
+      <c r="L594" s="4"/>
+    </row>
+    <row r="595" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K595" s="4"/>
+      <c r="L595" s="4"/>
+    </row>
+    <row r="596" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K596" s="4"/>
+      <c r="L596" s="4"/>
+    </row>
+    <row r="597" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K597" s="4"/>
+      <c r="L597" s="4"/>
+    </row>
+    <row r="598" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K598" s="4"/>
+      <c r="L598" s="4"/>
+    </row>
+    <row r="599" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K599" s="4"/>
+      <c r="L599" s="4"/>
+    </row>
+    <row r="600" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K600" s="4"/>
+      <c r="L600" s="4"/>
+    </row>
+    <row r="601" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K601" s="4"/>
+      <c r="L601" s="4"/>
+    </row>
+    <row r="602" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K602" s="4"/>
+      <c r="L602" s="4"/>
+    </row>
+    <row r="603" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K603" s="4"/>
+      <c r="L603" s="4"/>
+    </row>
+    <row r="604" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K604" s="4"/>
+      <c r="L604" s="4"/>
+    </row>
+    <row r="605" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K605" s="4"/>
+      <c r="L605" s="4"/>
+    </row>
+    <row r="606" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K606" s="4"/>
+      <c r="L606" s="4"/>
+    </row>
+    <row r="607" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K607" s="4"/>
+      <c r="L607" s="4"/>
+    </row>
+    <row r="608" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K608" s="4"/>
+      <c r="L608" s="4"/>
+    </row>
+    <row r="609" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K609" s="4"/>
+      <c r="L609" s="4"/>
+    </row>
+    <row r="610" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K610" s="4"/>
+      <c r="L610" s="4"/>
+    </row>
+    <row r="611" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K611" s="4"/>
+      <c r="L611" s="4"/>
+    </row>
+    <row r="612" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K612" s="4"/>
+      <c r="L612" s="4"/>
+    </row>
+    <row r="613" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K613" s="4"/>
+      <c r="L613" s="4"/>
+    </row>
+    <row r="614" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K614" s="4"/>
+      <c r="L614" s="4"/>
+    </row>
+    <row r="615" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K615" s="4"/>
+      <c r="L615" s="4"/>
+    </row>
+    <row r="616" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K616" s="4"/>
+      <c r="L616" s="4"/>
+    </row>
+    <row r="617" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K617" s="4"/>
+      <c r="L617" s="4"/>
+    </row>
+    <row r="618" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K618" s="4"/>
+      <c r="L618" s="4"/>
+    </row>
+    <row r="619" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K619" s="4"/>
+      <c r="L619" s="4"/>
+    </row>
+    <row r="620" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K620" s="4"/>
+      <c r="L620" s="4"/>
+    </row>
+    <row r="621" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K621" s="4"/>
+      <c r="L621" s="4"/>
+    </row>
+    <row r="622" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K622" s="4"/>
+      <c r="L622" s="4"/>
+    </row>
+    <row r="623" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K623" s="4"/>
+      <c r="L623" s="4"/>
+    </row>
+    <row r="624" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K624" s="4"/>
+      <c r="L624" s="4"/>
+    </row>
+    <row r="625" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K625" s="4"/>
+      <c r="L625" s="4"/>
+    </row>
+    <row r="626" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K626" s="4"/>
+      <c r="L626" s="4"/>
+    </row>
+    <row r="627" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K627" s="4"/>
+      <c r="L627" s="4"/>
+    </row>
+    <row r="628" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K628" s="4"/>
+      <c r="L628" s="4"/>
+    </row>
+    <row r="629" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K629" s="4"/>
+      <c r="L629" s="4"/>
+    </row>
+    <row r="630" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K630" s="4"/>
+      <c r="L630" s="4"/>
+    </row>
+    <row r="631" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K631" s="4"/>
+      <c r="L631" s="4"/>
+    </row>
+    <row r="632" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K632" s="4"/>
+      <c r="L632" s="4"/>
+    </row>
+    <row r="633" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K633" s="4"/>
+      <c r="L633" s="4"/>
+    </row>
+    <row r="634" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K634" s="4"/>
+      <c r="L634" s="4"/>
+    </row>
+    <row r="635" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K635" s="4"/>
+      <c r="L635" s="4"/>
+    </row>
+    <row r="636" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K636" s="4"/>
+      <c r="L636" s="4"/>
+    </row>
+    <row r="637" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K637" s="4"/>
+      <c r="L637" s="4"/>
+    </row>
+    <row r="638" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K638" s="4"/>
+      <c r="L638" s="4"/>
+    </row>
+    <row r="639" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K639" s="4"/>
+      <c r="L639" s="4"/>
+    </row>
+    <row r="640" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K640" s="4"/>
+      <c r="L640" s="4"/>
+    </row>
+    <row r="641" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K641" s="4"/>
+      <c r="L641" s="4"/>
+    </row>
+    <row r="642" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K642" s="4"/>
+      <c r="L642" s="4"/>
+    </row>
+    <row r="643" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K643" s="4"/>
+      <c r="L643" s="4"/>
+    </row>
+    <row r="644" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K644" s="4"/>
+      <c r="L644" s="4"/>
+    </row>
+    <row r="645" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K645" s="4"/>
+      <c r="L645" s="4"/>
+    </row>
+    <row r="646" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K646" s="4"/>
+      <c r="L646" s="4"/>
+    </row>
+    <row r="647" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K647" s="4"/>
+      <c r="L647" s="4"/>
+    </row>
+    <row r="648" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K648" s="4"/>
+      <c r="L648" s="4"/>
+    </row>
+    <row r="649" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K649" s="4"/>
+      <c r="L649" s="4"/>
+    </row>
+    <row r="650" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K650" s="4"/>
+      <c r="L650" s="4"/>
+    </row>
+    <row r="651" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K651" s="4"/>
+      <c r="L651" s="4"/>
+    </row>
+    <row r="652" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K652" s="4"/>
+      <c r="L652" s="4"/>
+    </row>
+    <row r="653" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K653" s="4"/>
+      <c r="L653" s="4"/>
+    </row>
+    <row r="654" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K654" s="4"/>
+      <c r="L654" s="4"/>
+    </row>
+    <row r="655" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K655" s="4"/>
+      <c r="L655" s="4"/>
+    </row>
+    <row r="656" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K656" s="4"/>
+      <c r="L656" s="4"/>
+    </row>
+    <row r="657" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K657" s="4"/>
+      <c r="L657" s="4"/>
+    </row>
+    <row r="658" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K658" s="4"/>
+      <c r="L658" s="4"/>
+    </row>
+    <row r="659" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K659" s="4"/>
+      <c r="L659" s="4"/>
+    </row>
+    <row r="660" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K660" s="4"/>
+      <c r="L660" s="4"/>
+    </row>
+    <row r="661" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K661" s="4"/>
+      <c r="L661" s="4"/>
+    </row>
+    <row r="662" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K662" s="4"/>
+      <c r="L662" s="4"/>
+    </row>
+    <row r="663" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K663" s="4"/>
+      <c r="L663" s="4"/>
+    </row>
+    <row r="664" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K664" s="4"/>
+      <c r="L664" s="4"/>
+    </row>
+    <row r="665" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K665" s="4"/>
+      <c r="L665" s="4"/>
+    </row>
+    <row r="666" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K666" s="4"/>
+      <c r="L666" s="4"/>
+    </row>
+    <row r="667" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K667" s="4"/>
+      <c r="L667" s="4"/>
+    </row>
+    <row r="668" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K668" s="4"/>
+      <c r="L668" s="4"/>
+    </row>
+    <row r="669" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K669" s="4"/>
+      <c r="L669" s="4"/>
+    </row>
+    <row r="670" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K670" s="4"/>
+      <c r="L670" s="4"/>
+    </row>
+    <row r="671" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K671" s="4"/>
+      <c r="L671" s="4"/>
+    </row>
+    <row r="672" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K672" s="4"/>
+      <c r="L672" s="4"/>
+    </row>
+    <row r="673" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K673" s="4"/>
+      <c r="L673" s="4"/>
+    </row>
+    <row r="674" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K674" s="4"/>
+      <c r="L674" s="4"/>
+    </row>
+    <row r="675" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K675" s="4"/>
+      <c r="L675" s="4"/>
+    </row>
+    <row r="676" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K676" s="4"/>
+      <c r="L676" s="4"/>
+    </row>
+    <row r="677" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K677" s="4"/>
+      <c r="L677" s="4"/>
+    </row>
+    <row r="678" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="L678" s="4"/>
+    </row>
+    <row r="679" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="L679" s="4"/>
+    </row>
+    <row r="680" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="L680" s="4"/>
+    </row>
+    <row r="681" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="L681" s="4"/>
+    </row>
+    <row r="682" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="L682" s="4"/>
+    </row>
+    <row r="683" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="L683" s="4"/>
+    </row>
+    <row r="684" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="L684" s="4"/>
+    </row>
+    <row r="685" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="L685" s="4"/>
+    </row>
+    <row r="686" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="L686" s="4"/>
+    </row>
+    <row r="687" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="L687" s="4"/>
+    </row>
+    <row r="688" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="L688" s="4"/>
+    </row>
+    <row r="689" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L689" s="4"/>
+    </row>
+    <row r="690" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L690" s="4"/>
+    </row>
+    <row r="691" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L691" s="4"/>
+    </row>
+    <row r="692" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L692" s="4"/>
+    </row>
+    <row r="693" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L693" s="4"/>
+    </row>
+    <row r="694" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L694" s="4"/>
+    </row>
+    <row r="695" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L695" s="4"/>
+    </row>
+    <row r="696" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L696" s="4"/>
+    </row>
+    <row r="697" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L697" s="4"/>
+    </row>
+    <row r="698" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L698" s="4"/>
+    </row>
+    <row r="699" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L699" s="4"/>
+    </row>
+    <row r="700" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L700" s="4"/>
+    </row>
+    <row r="701" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L701" s="4"/>
+    </row>
+    <row r="702" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L702" s="4"/>
+    </row>
+    <row r="703" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L703" s="4"/>
+    </row>
+    <row r="704" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L704" s="4"/>
+    </row>
+    <row r="705" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L705" s="4"/>
+    </row>
+    <row r="706" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L706" s="4"/>
+    </row>
+    <row r="707" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L707" s="4"/>
+    </row>
+    <row r="708" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L708" s="4"/>
+    </row>
+    <row r="709" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L709" s="4"/>
+    </row>
+    <row r="710" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L710" s="4"/>
+    </row>
+    <row r="711" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L711" s="4"/>
+    </row>
+    <row r="712" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L712" s="4"/>
+    </row>
+    <row r="713" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L713" s="4"/>
+    </row>
+    <row r="714" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L714" s="4"/>
+    </row>
+    <row r="715" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L715" s="4"/>
+    </row>
+    <row r="716" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L716" s="4"/>
+    </row>
+    <row r="717" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L717" s="4"/>
+    </row>
+    <row r="718" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L718" s="4"/>
+    </row>
+    <row r="719" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L719" s="4"/>
+    </row>
+    <row r="720" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L720" s="4"/>
+    </row>
+    <row r="721" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L721" s="4"/>
+    </row>
+    <row r="722" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L722" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="R1:S1"/>
+  </mergeCells>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L722" xr:uid="{F7E5632B-8CA3-40AB-B2F2-4E38A9DBF00F}">
+      <formula1>"Pass, Fail, Blocked"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C94:C648 C2:C43 K45:K474 K2:K43 C45:C92" xr:uid="{99D23679-0AF0-41B7-A5B7-F39B9127E5B9}">
+      <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Semin Das, Sangeetha, Rijo J Patric"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K475:K677" xr:uid="{D4564D4A-9101-4372-AEE2-FE36132FC41A}">
+      <formula1>"Leona, Parvathy, Raziya, Rijo"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B75 B81 B108 B97 B104:B105 B94 B2 B358 B365 B13:B14 B7 B20 B344 B351 B22 B28 B30 B36:B37 B337 B45 B57 B331 B51 B59 B67 B73 B112 B115 B125 B122 B133 B143 B152 B163 B173 B184 B195 B206 B218 B225 B233 B241 B249 B256 B265 B272 B278 B284 B290 B296 B302:B303 B310 B317 B324 B65 B83 B89" xr:uid="{5C9E2EDD-AE53-453F-94E8-21B163D5F59F}">
+      <formula1>"CAS/ Appointment, Out Patient, Care Desk, EMR, Lab &amp; General Billing, Pharmacy Billing, Lab Results, Radiology, Insurance Desk, Casualty, MRD, In Patient, Nursing Station, Theatre, Indent, Store Management"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C649:C718" xr:uid="{D075D884-E6B5-43E2-8D5B-F41BCE41B730}">
+      <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Parvathy P, Semin Das, Sangeetha, Rijo J Patric"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Test Case/Sangeetha/Testcase- Insurance .xlsx
+++ b/Test Case/Sangeetha/Testcase- Insurance .xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sangeetha\Mediware\13-06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sangeetha\Mediware\17-06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B8E17A-4775-42B7-92C3-BA2ACDA17197}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4218208E-29F4-47E9-9BAD-49A55BB9E309}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B0F86180-7D4B-4DF7-AD62-71380A8C5CDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Insurance" sheetId="1" r:id="rId1"/>
+    <sheet name="Issues" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="518">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -787,6 +788,1211 @@
   </si>
   <si>
     <t>Check whether user can refresh search results for Auditing page</t>
+  </si>
+  <si>
+    <t>Go to Menu from left pane and select 
+Menu&gt;&gt;Bill Editing&gt;&gt;Invoice Editing</t>
+  </si>
+  <si>
+    <t>Consolidated Bill Search page should be displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter bill no and click on search </t>
+  </si>
+  <si>
+    <t>Patient bill details should be displayed</t>
+  </si>
+  <si>
+    <t>User is able to search Consolidated bill by clicking 
+Invoice Editing</t>
+  </si>
+  <si>
+    <t>MED_ Insurance_TC_051</t>
+  </si>
+  <si>
+    <t>Verify that user can 
+search Patient bill details by selecting Invoice Date change</t>
+  </si>
+  <si>
+    <t>MED_ Insurance_TC_052</t>
+  </si>
+  <si>
+    <t>Go to Application selector
+Select Insurance</t>
+  </si>
+  <si>
+    <t>User should be able to open insurance page</t>
+  </si>
+  <si>
+    <t>Go to Menu from left pane and select 
+Menu&gt;&gt;Bill Editing&gt;&gt;Invoice Date change</t>
+  </si>
+  <si>
+    <t>Invoice change Utility page should be displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the follwing Invoice date 
+change utility page criterias
+From
+To
+Billno
+Patient
+Customer
+Docttor
+hospital
+bill serial
+Net Amt
+Patient Name
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be able to enter search criterias </t>
+  </si>
+  <si>
+    <t>click on clear option</t>
+  </si>
+  <si>
+    <t>Enter search criteria should be cleared</t>
+  </si>
+  <si>
+    <t>Again enter search criterias and click  on SHOW button</t>
+  </si>
+  <si>
+    <t>Search result should be displayed</t>
+  </si>
+  <si>
+    <t>MED_ Insurance_TC_053</t>
+  </si>
+  <si>
+    <t>TC_Med_12</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>Steps</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Verify that user can add 
+scibe nurse in the  surgery entry</t>
+  </si>
+  <si>
+    <t>Select Surgery entry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patient Selection page should be displayed
+</t>
+  </si>
+  <si>
+    <t>Try to enter Manadatory fields
+Surgery,Theatre,Surgeon,SurgeryDate 
+Click on ADD button</t>
+  </si>
+  <si>
+    <t>Surgery Entry Page 
+should be displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter the manadatory fields
+Theatre
+Surgeon
+Anesthesia Type
+Anestheologist
+Click on SAVE  button
+</t>
+  </si>
+  <si>
+    <t>User should be able 
+to enter required fieilds</t>
+  </si>
+  <si>
+    <t>Go to Resources tab 
+and try to add Scrub Nurses</t>
+  </si>
+  <si>
+    <t>User should be able 
+to add Srub Nurse</t>
+  </si>
+  <si>
+    <t>TC_Med_13</t>
+  </si>
+  <si>
+    <t>Try to remove scrub nurses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be able to remove added scribe nurse </t>
+  </si>
+  <si>
+    <t>No warning message before deletion</t>
+  </si>
+  <si>
+    <t>TC_Med_19</t>
+  </si>
+  <si>
+    <t>Verify that user can add circulatory 
+nurse for the surgery</t>
+  </si>
+  <si>
+    <t>Go to Resources tab 
+and try to add Circulatory  Nurses</t>
+  </si>
+  <si>
+    <t>User should be able 
+to add Circulatory Nurse</t>
+  </si>
+  <si>
+    <t>TC_Med_20</t>
+  </si>
+  <si>
+    <t>Verify that user can delete circulatory 
+nurse from the surgery entry</t>
+  </si>
+  <si>
+    <t>Try to delete circulatory nurses from the added list and click on delete option</t>
+  </si>
+  <si>
+    <t>User should be able to delete
+circulatory nurses from the list</t>
+  </si>
+  <si>
+    <t>TC_Med_21</t>
+  </si>
+  <si>
+    <t>Verify that user can add other
+staffs in the surgery entry</t>
+  </si>
+  <si>
+    <t>Go to Resources tab 
+and try to add other staffs from the list</t>
+  </si>
+  <si>
+    <t>User should be able 
+to add other staffs</t>
+  </si>
+  <si>
+    <t>TC_Med_22</t>
+  </si>
+  <si>
+    <t>Verify that user can delete other
+staffs in the surgery entry</t>
+  </si>
+  <si>
+    <t>Try to add other staff from the list and click on delete option</t>
+  </si>
+  <si>
+    <t>User should be able to add staff</t>
+  </si>
+  <si>
+    <t>Try to delete added staff on clicking Delete option</t>
+  </si>
+  <si>
+    <t>User should be able to delete other staff on clicking delete option</t>
+  </si>
+  <si>
+    <t>TC_Med_23</t>
+  </si>
+  <si>
+    <t>Verify that user can add equipments in the surgery entry</t>
+  </si>
+  <si>
+    <t>Try to add equipments from the list and click on ADD option</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be able to add equipments </t>
+  </si>
+  <si>
+    <t>TC_Med_24</t>
+  </si>
+  <si>
+    <t>Verify that user can delete equipments in the surgery entry</t>
+  </si>
+  <si>
+    <t>Try to delete equipments from the list and click on Delete option</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be able to delete  equipments </t>
+  </si>
+  <si>
+    <t>TC_Med_25</t>
+  </si>
+  <si>
+    <t>Verify that user can add OT procedures in the surgery entry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter the mandatory fields
+Theatre
+Surgeon
+Anesthesia Type
+Anestheologist
+Click on SAVE  button
+</t>
+  </si>
+  <si>
+    <t>Go to OT procedure tab</t>
+  </si>
+  <si>
+    <t>User should be able to 
+navigate to OT Procedure tab</t>
+  </si>
+  <si>
+    <t>Try to add Procedure
+From date
+To Date
+Quantity
+Hrs
+Oper%
+Rate
+Discount</t>
+  </si>
+  <si>
+    <t>User should be able to add procedure details
+From date
+To Date
+Quantity
+Hrs
+Oper%
+Rate
+Discount
+Amount should be calculated automatically</t>
+  </si>
+  <si>
+    <t>TC_Med_26</t>
+  </si>
+  <si>
+    <t>Verify that user can delete OT procedures in the surgery entry</t>
+  </si>
+  <si>
+    <t>Try to delete added OT procedure</t>
+  </si>
+  <si>
+    <t>User should be able to delete OT procedures on clicking 
+Delete option</t>
+  </si>
+  <si>
+    <t>User is able to edit consolidated  Bill</t>
+  </si>
+  <si>
+    <t>Go to OP consolidated bil</t>
+  </si>
+  <si>
+    <t>Add following bills
+Pharmacy
+Surgery
+OutPatient
+LRO</t>
+  </si>
+  <si>
+    <t>User should be able to add bills</t>
+  </si>
+  <si>
+    <t>Try to edit consolidated bils</t>
+  </si>
+  <si>
+    <t>User should be able to edit consolidated bills</t>
+  </si>
+  <si>
+    <t>User is able to view doctor details from consolidated OP bills</t>
+  </si>
+  <si>
+    <t>Click on Doctor details option</t>
+  </si>
+  <si>
+    <t>User should be able to view added doctors details on clicking doctor details option</t>
+  </si>
+  <si>
+    <t>Insurance</t>
+  </si>
+  <si>
+    <t>Tc-insurance-01User is able to navigate to Menu</t>
+  </si>
+  <si>
+    <t>Enter bill no and click on show button</t>
+  </si>
+  <si>
+    <t>User is able to search bills from 
+Consolidated Bill search page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Try to enter following search criterios
+Bill no
+From date
+To date
+Patient no
+Patient Name
+Net amt
+Customer
+Bill serial
+</t>
+  </si>
+  <si>
+    <t>Again enter criteria and click on clear button</t>
+  </si>
+  <si>
+    <t>User should be able to clear search criterios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User is able to search Approval Request Status details </t>
+  </si>
+  <si>
+    <t>Go to Menu from left pane and select 
+Menu&gt;&gt;Transactions&gt;&gt;Approval Request Status List</t>
+  </si>
+  <si>
+    <t>Procedure Request list page should be displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the following search criterias and enter the seach criterios and click on SHOW button
+From
+To
+Insurance Company
+TPA
+Mobile No
+Patient No.
+Status(Pending Approved,Rejected,sent)
+Doctor
+Preapproval request
+Procedure Request
+</t>
+  </si>
+  <si>
+    <t>Search results should be displayed based on criteria</t>
+  </si>
+  <si>
+    <t>Again enter search criteria and click on clear button</t>
+  </si>
+  <si>
+    <t>Entered data should be cleared</t>
+  </si>
+  <si>
+    <t>Verify that user is able to 
+export Procedure Request list to excel on clicking export option</t>
+  </si>
+  <si>
+    <t>Enter search result and click 
+on show</t>
+  </si>
+  <si>
+    <t>Select export option</t>
+  </si>
+  <si>
+    <t>Search results should be exported to excel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Print is working for Approval procedure request list </t>
+  </si>
+  <si>
+    <t>Select Print option</t>
+  </si>
+  <si>
+    <t>User should be able to print details</t>
+  </si>
+  <si>
+    <t>Verify that user can filter bill by using any field</t>
+  </si>
+  <si>
+    <t>Enter search criteria and click 
+on show</t>
+  </si>
+  <si>
+    <t>Try to filter bill by using any search criteria</t>
+  </si>
+  <si>
+    <t>User can filter search results</t>
+  </si>
+  <si>
+    <t>Verify the  Audit log report</t>
+  </si>
+  <si>
+    <t>Go to Menu from left pane and select 
+Menu&gt;&gt;Transactions&gt;&gt;Audit log report</t>
+  </si>
+  <si>
+    <t>Audit log report page should be displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the following search criterias and enter the seach criterios and click on SHOW button
+From
+To
+Insurance Company
+TPA
+Mobile No
+Patient No.
+Status(Pending Approved,Rejected,sent)
+Doctor
+Audit log Request
+</t>
+  </si>
+  <si>
+    <t>Log of Auditing details should be displayed</t>
+  </si>
+  <si>
+    <t>Verify that user is able to 
+export audit details list to excel on clicking export option</t>
+  </si>
+  <si>
+    <t>Go to Menu from left pane and select 
+Menu&gt;&gt;Transactions&gt;&gt;Audit Log Report</t>
+  </si>
+  <si>
+    <t>Audit log Report page should be displayed</t>
+  </si>
+  <si>
+    <t>Verify that user can filter audit  bill by using any field</t>
+  </si>
+  <si>
+    <t>Go to Menu from left pane and select 
+Menu&gt;&gt;Transactions&gt;&gt;Audit log report List</t>
+  </si>
+  <si>
+    <t>Verify that Print is working for audit Log Report page</t>
+  </si>
+  <si>
+    <t>Verify the Approved 
+Procedure Requests</t>
+  </si>
+  <si>
+    <t>Go to Menu from left pane and select 
+Menu&gt;&gt;Transactions&gt;&gt;Approved Procedure Requests</t>
+  </si>
+  <si>
+    <t>Enter search criteria from and To  and click 
+on show</t>
+  </si>
+  <si>
+    <t>Verify that user able to 
+add procedure entry</t>
+  </si>
+  <si>
+    <t>Go to Menu from left pane and select 
+Menu&gt;&gt;Transactions&gt;&gt;Add Proc entry</t>
+  </si>
+  <si>
+    <t>Procedure Order Entry  page should be displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter Patient id,Patient name,Mobile No,Gender/Age
+Search (op/IP
+visit
+Procedure Request based on Selected date
+Visited date click on SHOW button
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be able to add new procedure </t>
+  </si>
+  <si>
+    <t>Verify that user able to 
+add PreApproval Request Entry</t>
+  </si>
+  <si>
+    <t>Go to Menu from left pane and select 
+Menu&gt;&gt;Transactions&gt;&gt;Add Pre Approval Request Entry</t>
+  </si>
+  <si>
+    <t>Pre approval request entry should be displayed</t>
+  </si>
+  <si>
+    <t>enter manadtory fields ans click on SAVE button</t>
+  </si>
+  <si>
+    <t>User should be able to add Pre approval Request Entry</t>
+  </si>
+  <si>
+    <t>MED_ Insurance_TC_054</t>
+  </si>
+  <si>
+    <t>MED_ Insurance_TC_055</t>
+  </si>
+  <si>
+    <t>MED_ Insurance_TC_056</t>
+  </si>
+  <si>
+    <t>MED_ Insurance_TC_057</t>
+  </si>
+  <si>
+    <t>MED_ Insurance_TC_058</t>
+  </si>
+  <si>
+    <t>MED_ Insurance_TC_059</t>
+  </si>
+  <si>
+    <t>MED_ Insurance_TC_060</t>
+  </si>
+  <si>
+    <t>MED_ Insurance_TC_061</t>
+  </si>
+  <si>
+    <t>Enter search criteria From and To  and click 
+on show</t>
+  </si>
+  <si>
+    <t>MED_ Insurance_TC_062</t>
+  </si>
+  <si>
+    <t>MED_ Insurance_TC_063</t>
+  </si>
+  <si>
+    <t>Enter manadtory fields ans click on SAVE button</t>
+  </si>
+  <si>
+    <t>MED_ Insurance_TC_064</t>
+  </si>
+  <si>
+    <t>Go to Menu from left pane and select 
+Menu&gt;&gt;Transactions&gt;&gt;Patient Register</t>
+  </si>
+  <si>
+    <t>Patient Register details should be displayed 
+The default details should be displayed as per todays data</t>
+  </si>
+  <si>
+    <t>Verify that user able to 
+view pateint details in Patient Register Details</t>
+  </si>
+  <si>
+    <t>MED_ Insurance_TC_065</t>
+  </si>
+  <si>
+    <t>Patient Register details should be displayed 
+The default details should be displayed as per todays date</t>
+  </si>
+  <si>
+    <t>Batch TC</t>
+  </si>
+  <si>
+    <t>Verify that user able to 
+view extend Preapproval details</t>
+  </si>
+  <si>
+    <t>Go to Menu from left pane and select 
+Menu&gt;&gt;Transactions&gt;&gt;Extend Pre Approval</t>
+  </si>
+  <si>
+    <t>Verify the Extend Pre Approval page
+Enter the data for from Date,To Date,Patient Name,Patient No.and click on Search option</t>
+  </si>
+  <si>
+    <t>Patient's Extend Preapproval details should be displayed</t>
+  </si>
+  <si>
+    <t>Click on close button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page should be closed </t>
+  </si>
+  <si>
+    <t>MED_ Insurance_TC_066</t>
+  </si>
+  <si>
+    <t>Go to Menu from left pane and select 
+Menu&gt;&gt;Transactions&gt;&gt;Surgery Request</t>
+  </si>
+  <si>
+    <t>Extend Pre approval page is displayed</t>
+  </si>
+  <si>
+    <t>MED_ Insurance_TC_067</t>
+  </si>
+  <si>
+    <t>Verify that user able to 
+create Surgery Request</t>
+  </si>
+  <si>
+    <t>Surgery Request page should be displayed</t>
+  </si>
+  <si>
+    <t>Try to add surgery Type and Surgery Name</t>
+  </si>
+  <si>
+    <t>User should be able save Surgery Type and Surgery Name</t>
+  </si>
+  <si>
+    <t>Search the patient by entering manadatory field Patient ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patient details should be populated </t>
+  </si>
+  <si>
+    <t>Select  Diagnosis view to view details</t>
+  </si>
+  <si>
+    <t>Diagnosis view should be displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that user able to 
+add Allergy </t>
+  </si>
+  <si>
+    <t>Select  Add Allergy on the right side</t>
+  </si>
+  <si>
+    <t>Allergy Details page should be displayed</t>
+  </si>
+  <si>
+    <t>Try to add allergy details</t>
+  </si>
+  <si>
+    <t>User should be able to add allergy details</t>
+  </si>
+  <si>
+    <t>Verify that user can view history of allergies</t>
+  </si>
+  <si>
+    <t>User should be able to view history allergy details</t>
+  </si>
+  <si>
+    <t>Verify that user able to 
+view Surgery Calender</t>
+  </si>
+  <si>
+    <t>Select Surgery Calender</t>
+  </si>
+  <si>
+    <t>Surgery Schedule view is displayed</t>
+  </si>
+  <si>
+    <t>Select  Theatre and and verify the details</t>
+  </si>
+  <si>
+    <t>User should be able to view surgery scheduled details</t>
+  </si>
+  <si>
+    <t>Click on Previous option</t>
+  </si>
+  <si>
+    <t>User should be able to view previous details</t>
+  </si>
+  <si>
+    <t>Click on NEXT option</t>
+  </si>
+  <si>
+    <t>User should be able to view next scheduled surgery details</t>
+  </si>
+  <si>
+    <t>Check whether user can attach file
+in Surgery  Request Page</t>
+  </si>
+  <si>
+    <t>Try to attach surgery file</t>
+  </si>
+  <si>
+    <t>User should be able to attach surgery file</t>
+  </si>
+  <si>
+    <t>MED_ Insurance_TC_069</t>
+  </si>
+  <si>
+    <t>View attachment
+ is not working in surgery request</t>
+  </si>
+  <si>
+    <t>Check whether user can view previously attached files</t>
+  </si>
+  <si>
+    <t>Again select  View Previous Attachments  option</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> User should be able to view previous attached files.</t>
+  </si>
+  <si>
+    <t>MED_ Insurance_TC_070</t>
+  </si>
+  <si>
+    <t>Go to Menu from left pane and select 
+Menu&gt;&gt;Transactions&gt;&gt;Review Revert Details</t>
+  </si>
+  <si>
+    <t>Review Details should be displayed</t>
+  </si>
+  <si>
+    <t>Enter  search criterias
+Billed from,
+Billed to,
+Bill no,
+Patient Id,
+Bill Type (OP bill,IP bill,Pharmacy bill) TPA
+,Insurance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Searh results should be displayed </t>
+  </si>
+  <si>
+    <t>Check whether user can search Review Revert Details</t>
+  </si>
+  <si>
+    <t>MED_ Insurance_TC_078</t>
+  </si>
+  <si>
+    <t>User should be able to cancel first review</t>
+  </si>
+  <si>
+    <t>User should be able to cancel second review</t>
+  </si>
+  <si>
+    <t>MED_ Insurance_TC_079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be able to cancel Audit </t>
+  </si>
+  <si>
+    <t>Try to cancel Audit and enter remarks</t>
+  </si>
+  <si>
+    <t>Try to cancel second  review and enter remarks</t>
+  </si>
+  <si>
+    <t>Try to cancel first review and enter remarks</t>
+  </si>
+  <si>
+    <t>Check whether user can search OP bill Review Revert Details</t>
+  </si>
+  <si>
+    <t>Check whether user can search IP bill Review Revert Details</t>
+  </si>
+  <si>
+    <t>Check whether user can search and cancel  Pharmacy Review Revert Details</t>
+  </si>
+  <si>
+    <t>Enter  search criterias
+Billed from,
+Billed to,
+Bill no,
+Patient Id,
+Bill Type (Pharmacy bill) 
+TPA
+,Insurance</t>
+  </si>
+  <si>
+    <t>Enter  search criterias
+Billed from,
+Billed to,
+Bill no,
+Patient Id,
+Bill Type  IP
+TPA
+,Insurance</t>
+  </si>
+  <si>
+    <t>Enter  search criterias
+Billed from,
+Billed to,
+Bill no,
+Patient Id,
+Bill Type OP bill
+ TPA
+,Insurance</t>
+  </si>
+  <si>
+    <t>Check whether user can search and cancel Audit Review Revert Details</t>
+  </si>
+  <si>
+    <t>Try to cancel First review</t>
+  </si>
+  <si>
+    <t>User should be able to cancel</t>
+  </si>
+  <si>
+    <t>Try to cancel Second review</t>
+  </si>
+  <si>
+    <t>Check whether user can search and cancel  any bill in Review Revert Details</t>
+  </si>
+  <si>
+    <t>MED_ Insurance_TC_080</t>
+  </si>
+  <si>
+    <t>MED_ Insurance_TC_081</t>
+  </si>
+  <si>
+    <t>MED_Insurance_TC_082</t>
+  </si>
+  <si>
+    <t>Go to Menu from left pane and select 
+Menu&gt;&gt;Submission and Resubmission</t>
+  </si>
+  <si>
+    <t>Eclaim Generation page is displayed</t>
+  </si>
+  <si>
+    <t>Verify that XML eclaim bill is generated  for IP
+Enter the From date To date check IP and click on Process</t>
+  </si>
+  <si>
+    <t>XML Eclaim should be generated and automatically would to save to third party software by DHO(Dubai Health Organisation)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check whether user can search Eclaim Submission for IP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check whether user can search Eclaim Submission for OP consolidate </t>
+  </si>
+  <si>
+    <t>Check whether user can search Eclaim Submission for OP Credit</t>
+  </si>
+  <si>
+    <t>Check whether user can search Eclaim Submission for Pharmacy</t>
+  </si>
+  <si>
+    <t>Verify that XML eclaim bill is generated  for Pharmacy
+Enter the From date To date check Pharmacy and click on Process</t>
+  </si>
+  <si>
+    <t>Verify that XML eclaim bill is generated  for OP Credit
+Enter the From date To date check OP Credit and click on Process</t>
+  </si>
+  <si>
+    <t>Verify that XML eclaim bill is generated  for OP Consolidate
+Enter the From date To date check OP consolidate and click on Process</t>
+  </si>
+  <si>
+    <t>Go to Menu from left pane and select 
+Menu&gt;&gt;Submission and Resubmission&gt;&gt; Eclaim Remittance</t>
+  </si>
+  <si>
+    <t>Eclaim Remittance page is displayed</t>
+  </si>
+  <si>
+    <t>Select  To manual Process and choose file and  Process</t>
+  </si>
+  <si>
+    <t>Check whether user can search Eclaim Remittance  for Billing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be able to process Eclaim remittance </t>
+  </si>
+  <si>
+    <t>Check whether user can search Eclaim Remittance by direct Download</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select  ToDirect Download and click on Search </t>
+  </si>
+  <si>
+    <t>Access Denied</t>
+  </si>
+  <si>
+    <t>Go to Menu from left pane and select 
+Menu&gt;&gt;Submission and Resubmission&gt;&gt; Eclaim Resubmission</t>
+  </si>
+  <si>
+    <t>Eclaim Resubmission  page is displayed</t>
+  </si>
+  <si>
+    <t>Verify the Eclaim Resubmission search page for IP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter the search results 
+From  and To 
+Remittance File name
+Topup bills
+Generated bills 
+Productions
+Fully paid
+Non standard code
+Excl.VeAmt bills
+Test XML
+Check boxes:IP.Opconsolidate ,Op credit,Pharmacy,Billing
+Select IP
+Based on
+      TPA,Insurance,Network Selection ,TPA name and click on search </t>
+  </si>
+  <si>
+    <t>Verify the Eclaim Resubmission search page for OP credit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter the search results 
+From  and To 
+Remittance File name
+Topup bills
+Generated bills 
+Productions
+Fully paid
+Non standard code
+Excl.VeAmt bills
+Test XML
+Check boxes:IP.Opconsolidate ,Op credit,Pharmacy,Billing
+Select OP Credit
+Based on
+      TPA,Insurance,Network Selection ,TPA name and click on search </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter the search results 
+From  and To 
+Remittance File name
+Topup bills
+Generated bills 
+Productions
+Fully paid
+Non standard code
+Excl.VeAmt bills
+Test XML
+Check boxes:IP.Opconsolidate ,Op credit,Pharmacy,Billing
+Select OP Consolidate
+Based on
+      TPA,Insurance,Network Selection ,TPA name and click on search </t>
+  </si>
+  <si>
+    <t>Verify the Eclaim Resubmission search page for Pharmacy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter the search results 
+From  and To 
+Remittance File name
+Topup bills
+Generated bills 
+Productions
+Fully paid
+Non standard code
+Excl.VeAmt bills
+Test XML
+Check boxes:IP.Opconsolidate ,Op credit,Pharmacy,Billing
+Select Pharmacy
+Based on
+      TPA,Insurance,Network Selection ,TPA name and click on search </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter the search results 
+From  and To 
+Remittance File name
+Topup bills
+Generated bills 
+Productions
+Fully paid
+Non standard code
+Excl.VeAmt bills
+Test XML
+Check boxes:IP.Opconsolidate ,Op credit,Pharmacy,Billing
+Select Billing
+Based on
+      TPA,Insurance,Network Selection ,TPA name and click on search </t>
+  </si>
+  <si>
+    <t>Verify the Eclaim Resubmission search page for Billing</t>
+  </si>
+  <si>
+    <t>Go to Menu from left pane and select 
+Menu&gt;&gt;Collection&amp;Allocations&gt;&gt;Cash Collection</t>
+  </si>
+  <si>
+    <t>Cash collection page should be displayed</t>
+  </si>
+  <si>
+    <t>Issue in  Receipt no in Cash collection</t>
+  </si>
+  <si>
+    <t>Verify that user can verify cash collection page</t>
+  </si>
+  <si>
+    <t>Need clarification</t>
+  </si>
+  <si>
+    <t>Verify that user can verify cash collection by cheque</t>
+  </si>
+  <si>
+    <r>
+      <t>Select Customer an receipt date and Select Payment mode as</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cash  C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lick on search button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Select Customer an receipt date and Select Payment mode as</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> cheque</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Click on search button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Select Customer an receipt date and Select Payment mode as</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Click on search button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Select Customer an receipt date and Select Payment mode as</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Credit card</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Click on search button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Select Customer an receipt date and Select Payment mode as</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Bank Transfer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Click on search button</t>
+    </r>
+  </si>
+  <si>
+    <t>Verify that user can process batchwise cash entry</t>
+  </si>
+  <si>
+    <t>Go to Menu from left pane and select 
+Menu&gt;&gt;Collection&amp;Allocations&gt;&gt;Batch wise Cash Collection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be able to process </t>
+  </si>
+  <si>
+    <t>User should be able to process batch wise collection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter receipt number in Search with receipt number and click on search </t>
+  </si>
+  <si>
+    <t>User can search all bills</t>
+  </si>
+  <si>
+    <t>Verify that batchwise cash entry search page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select search icon </t>
+  </si>
+  <si>
+    <t>Automatically receipt number should be displayed incremently</t>
+  </si>
+  <si>
+    <t>Enter the paid amount and click on SAVE button</t>
+  </si>
+  <si>
+    <t>Cash details should be saved.</t>
+  </si>
+  <si>
+    <t>Verify that bill settlement cancellation</t>
+  </si>
+  <si>
+    <t>Go to Menu from left pane and select 
+Menu&gt;&gt;Collection&amp;Allocations&gt;&gt;Bill settlement cancellation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter receipt number in Search with receipt number and click on show </t>
+  </si>
+  <si>
+    <t>Verify the  Final Settlement</t>
+  </si>
+  <si>
+    <t>Verify the  Bill Settlement</t>
+  </si>
+  <si>
+    <t>Verify the  Batchwise Write off</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the  Utlities for Insurance </t>
+  </si>
+  <si>
+    <t>Go to Menu from left pane and select 
+Menu&gt;&gt;Utilities&gt;&gt;Add Policy</t>
+  </si>
+  <si>
+    <t>Go to Menu from left pane and select 
+Menu&gt;&gt;Utilities&gt;&gt;Insurance closing</t>
+  </si>
+  <si>
+    <t>Go to Menu from left pane and select 
+Menu&gt;&gt;Utilities&gt;&gt;Pateint search</t>
+  </si>
+  <si>
+    <t>Enter patient no.,Mobile,Patient name,M/F,DOB,Email,Nationality,National id,Tick current id, Click on search</t>
+  </si>
+  <si>
+    <t>User can search patient details</t>
   </si>
 </sst>
 </file>
@@ -846,7 +2052,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -862,6 +2068,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -894,7 +2112,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -940,6 +2158,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1262,11 +2485,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA9C3D31-C5E0-4697-A93F-78D6BCE0E40D}">
-  <dimension ref="A1:S724"/>
+  <dimension ref="A1:S774"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A363" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A365" sqref="A365"/>
+      <pane ySplit="1" topLeftCell="A305" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1327,14 +2550,14 @@
       <c r="M1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="O1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="16"/>
-      <c r="R1" s="17" t="s">
+      <c r="P1" s="19"/>
+      <c r="R1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="17"/>
+      <c r="S1" s="20"/>
     </row>
     <row r="2" spans="1:19" s="13" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -1365,7 +2588,7 @@
       </c>
       <c r="P2" s="4">
         <f>COUNTA(A:A)-1</f>
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="R2" s="5" t="s">
         <v>12</v>
@@ -4770,7 +5993,7 @@
       </c>
       <c r="L368" s="4"/>
     </row>
-    <row r="369" spans="6:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="F369" s="11" t="s">
         <v>206</v>
       </c>
@@ -4779,7 +6002,7 @@
       </c>
       <c r="L369" s="4"/>
     </row>
-    <row r="370" spans="6:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F370" s="11" t="s">
         <v>215</v>
       </c>
@@ -4788,1270 +6011,3546 @@
       </c>
       <c r="L370" s="4"/>
     </row>
-    <row r="371" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L371" s="4"/>
     </row>
-    <row r="372" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A372" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="C372" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D372" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="F372" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="L372" s="4"/>
     </row>
-    <row r="373" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F373" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G373" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="L373" s="4"/>
     </row>
-    <row r="374" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F374" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="G374" s="15" t="s">
+        <v>235</v>
+      </c>
       <c r="L374" s="4"/>
     </row>
-    <row r="375" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F375" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="G375" s="15" t="s">
+        <v>237</v>
+      </c>
       <c r="L375" s="4"/>
     </row>
-    <row r="376" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L376" s="4"/>
     </row>
-    <row r="377" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L377" s="4"/>
     </row>
-    <row r="378" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A378" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="C378" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D378" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="F378" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="L378" s="4"/>
     </row>
-    <row r="379" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F379" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G379" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="L379" s="4"/>
     </row>
-    <row r="380" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F380" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G380" s="15" t="s">
+        <v>243</v>
+      </c>
       <c r="L380" s="4"/>
     </row>
-    <row r="381" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F381" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="G381" s="15" t="s">
+        <v>245</v>
+      </c>
       <c r="L381" s="4"/>
     </row>
-    <row r="382" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:12" ht="195" x14ac:dyDescent="0.25">
+      <c r="F382" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="G382" s="15" t="s">
+        <v>247</v>
+      </c>
       <c r="L382" s="4"/>
     </row>
-    <row r="383" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F383" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="G383" s="15" t="s">
+        <v>249</v>
+      </c>
       <c r="L383" s="4"/>
     </row>
-    <row r="384" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F384" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="G384" s="15" t="s">
+        <v>251</v>
+      </c>
       <c r="L384" s="4"/>
     </row>
-    <row r="385" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L385" s="4"/>
     </row>
-    <row r="386" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L386" s="4"/>
     </row>
-    <row r="387" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A387" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="C387" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D387" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="F387" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="L387" s="4"/>
     </row>
-    <row r="388" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F388" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G388" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="L388" s="4"/>
     </row>
-    <row r="389" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F389" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G389" s="15" t="s">
+        <v>243</v>
+      </c>
       <c r="L389" s="4"/>
     </row>
-    <row r="390" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F390" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="G390" s="15" t="s">
+        <v>325</v>
+      </c>
       <c r="L390" s="4"/>
     </row>
-    <row r="391" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:12" ht="225" x14ac:dyDescent="0.25">
+      <c r="F391" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="G391" s="15" t="s">
+        <v>327</v>
+      </c>
       <c r="L391" s="4"/>
     </row>
-    <row r="392" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F392" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="G392" s="15" t="s">
+        <v>329</v>
+      </c>
       <c r="L392" s="4"/>
     </row>
-    <row r="393" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F393" s="15"/>
+      <c r="G393" s="15"/>
       <c r="L393" s="4"/>
     </row>
-    <row r="394" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L394" s="4"/>
     </row>
-    <row r="395" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A395" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="C395" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D395" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="F395" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="L395" s="4"/>
     </row>
-    <row r="396" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F396" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G396" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="L396" s="4"/>
     </row>
-    <row r="397" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F397" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G397" s="15" t="s">
+        <v>243</v>
+      </c>
       <c r="L397" s="4"/>
     </row>
-    <row r="398" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F398" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="G398" s="15" t="s">
+        <v>327</v>
+      </c>
       <c r="L398" s="4"/>
     </row>
-    <row r="399" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F399" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="G399" s="15" t="s">
+        <v>336</v>
+      </c>
       <c r="L399" s="4"/>
     </row>
-    <row r="400" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L400" s="4"/>
     </row>
-    <row r="401" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L401" s="4"/>
     </row>
-    <row r="402" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L402" s="4"/>
     </row>
-    <row r="403" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A403" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="C403" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D403" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="F403" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="L403" s="4"/>
     </row>
-    <row r="404" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F404" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G404" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="L404" s="4"/>
     </row>
-    <row r="405" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F405" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G405" s="15" t="s">
+        <v>243</v>
+      </c>
       <c r="L405" s="4"/>
     </row>
-    <row r="406" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F406" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="G406" s="15" t="s">
+        <v>325</v>
+      </c>
       <c r="L406" s="4"/>
     </row>
-    <row r="407" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F407" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="G407" s="15" t="s">
+        <v>327</v>
+      </c>
       <c r="L407" s="4"/>
     </row>
-    <row r="408" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F408" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="G408" s="15" t="s">
+        <v>333</v>
+      </c>
       <c r="L408" s="4"/>
     </row>
-    <row r="409" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L409" s="4"/>
     </row>
-    <row r="410" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L410" s="4"/>
     </row>
-    <row r="411" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A411" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="C411" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D411" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="F411" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="L411" s="4"/>
     </row>
-    <row r="412" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F412" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G412" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="L412" s="4"/>
     </row>
-    <row r="413" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F413" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G413" s="15" t="s">
+        <v>243</v>
+      </c>
       <c r="L413" s="4"/>
     </row>
-    <row r="414" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F414" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="G414" s="15" t="s">
+        <v>325</v>
+      </c>
       <c r="L414" s="4"/>
     </row>
-    <row r="415" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F415" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="G415" s="15" t="s">
+        <v>327</v>
+      </c>
       <c r="L415" s="4"/>
     </row>
-    <row r="416" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F416" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="G416" s="15" t="s">
+        <v>336</v>
+      </c>
       <c r="L416" s="4"/>
     </row>
-    <row r="417" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L417" s="4"/>
     </row>
-    <row r="418" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A418" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="C418" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D418" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="F418" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="L418" s="4"/>
     </row>
-    <row r="419" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F419" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G419" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="L419" s="4"/>
     </row>
-    <row r="420" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F420" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G420" s="15" t="s">
+        <v>243</v>
+      </c>
       <c r="L420" s="4"/>
     </row>
-    <row r="421" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F421" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="G421" s="15" t="s">
+        <v>325</v>
+      </c>
       <c r="L421" s="4"/>
     </row>
-    <row r="422" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F422" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="G422" s="15" t="s">
+        <v>327</v>
+      </c>
       <c r="L422" s="4"/>
     </row>
-    <row r="423" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F423" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="G423" s="15" t="s">
+        <v>340</v>
+      </c>
       <c r="L423" s="4"/>
     </row>
-    <row r="424" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F424"/>
+      <c r="G424"/>
       <c r="L424" s="4"/>
     </row>
-    <row r="425" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L425" s="4"/>
     </row>
-    <row r="426" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L426" s="4"/>
     </row>
-    <row r="427" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A427" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="C427" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D427" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="F427" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="L427" s="4"/>
     </row>
-    <row r="428" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F428" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G428" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="L428" s="4"/>
     </row>
-    <row r="429" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F429" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G429" s="15" t="s">
+        <v>243</v>
+      </c>
       <c r="L429" s="4"/>
     </row>
-    <row r="430" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F430" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="G430" s="15" t="s">
+        <v>325</v>
+      </c>
       <c r="L430" s="4"/>
     </row>
-    <row r="431" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F431" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="G431" s="15" t="s">
+        <v>327</v>
+      </c>
       <c r="L431" s="4"/>
     </row>
-    <row r="432" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F432" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="G432" s="15" t="s">
+        <v>340</v>
+      </c>
       <c r="L432" s="4"/>
     </row>
-    <row r="433" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F433"/>
+      <c r="G433"/>
       <c r="L433" s="4"/>
     </row>
-    <row r="434" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L434" s="4"/>
     </row>
-    <row r="435" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A435" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="C435" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D435" t="s">
+        <v>341</v>
+      </c>
+      <c r="F435" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="L435" s="4"/>
     </row>
-    <row r="436" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F436" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G436" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="L436" s="4"/>
     </row>
-    <row r="437" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F437" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G437" s="15" t="s">
+        <v>243</v>
+      </c>
       <c r="L437" s="4"/>
     </row>
-    <row r="438" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F438" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="G438" s="15" t="s">
+        <v>343</v>
+      </c>
       <c r="L438" s="4"/>
     </row>
-    <row r="439" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:12" ht="210" x14ac:dyDescent="0.25">
+      <c r="F439" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="G439" s="15" t="s">
+        <v>345</v>
+      </c>
       <c r="L439" s="4"/>
     </row>
-    <row r="440" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L440" s="4"/>
     </row>
-    <row r="441" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A441" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="C441" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D441" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="F441" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="L441" s="4"/>
     </row>
-    <row r="442" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F442" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G442" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="L442" s="4"/>
     </row>
-    <row r="443" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F443" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G443" s="15" t="s">
+        <v>243</v>
+      </c>
       <c r="L443" s="4"/>
     </row>
-    <row r="444" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F444" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="G444" s="15" t="s">
+        <v>348</v>
+      </c>
       <c r="L444" s="4"/>
     </row>
-    <row r="445" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F445" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="G445" s="15" t="s">
+        <v>327</v>
+      </c>
       <c r="L445" s="4"/>
     </row>
-    <row r="446" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F446" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="G446" s="15" t="s">
+        <v>333</v>
+      </c>
       <c r="L446" s="4"/>
     </row>
-    <row r="447" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L447" s="4"/>
     </row>
-    <row r="448" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L448" s="4"/>
     </row>
-    <row r="449" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A449" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="C449" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D449" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="F449" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="L449" s="4"/>
     </row>
-    <row r="450" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F450" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G450" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="L450" s="4"/>
     </row>
-    <row r="451" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F451" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G451" s="15" t="s">
+        <v>243</v>
+      </c>
       <c r="L451" s="4"/>
     </row>
-    <row r="452" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F452" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="G452" s="15" t="s">
+        <v>325</v>
+      </c>
       <c r="L452" s="4"/>
     </row>
-    <row r="453" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F453" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="G453" s="15" t="s">
+        <v>327</v>
+      </c>
       <c r="L453" s="4"/>
     </row>
-    <row r="454" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F454" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="G454" s="15" t="s">
+        <v>340</v>
+      </c>
       <c r="L454" s="4"/>
     </row>
-    <row r="455" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L455" s="4"/>
     </row>
-    <row r="456" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L456" s="4"/>
     </row>
-    <row r="457" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L457" s="4"/>
     </row>
-    <row r="458" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A458" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="C458" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D458" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="F458" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="L458" s="4"/>
     </row>
-    <row r="459" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F459" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G459" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="L459" s="4"/>
     </row>
-    <row r="460" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F460" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G460" s="15" t="s">
+        <v>243</v>
+      </c>
       <c r="L460" s="4"/>
     </row>
-    <row r="461" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F461" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="G461" s="15" t="s">
+        <v>325</v>
+      </c>
       <c r="L461" s="4"/>
     </row>
-    <row r="462" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F462" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="G462" s="15" t="s">
+        <v>327</v>
+      </c>
       <c r="L462" s="4"/>
     </row>
-    <row r="463" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F463" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="G463" s="15" t="s">
+        <v>336</v>
+      </c>
       <c r="L463" s="4"/>
     </row>
-    <row r="464" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L464" s="4"/>
     </row>
-    <row r="465" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L465" s="4"/>
     </row>
-    <row r="466" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A466" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="C466" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D466" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="F466" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="L466" s="4"/>
     </row>
-    <row r="467" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F467" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G467" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="L467" s="4"/>
     </row>
-    <row r="468" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F468" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G468" s="15" t="s">
+        <v>243</v>
+      </c>
       <c r="L468" s="4"/>
     </row>
-    <row r="469" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F469" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="G469" s="15" t="s">
+        <v>325</v>
+      </c>
       <c r="L469" s="4"/>
     </row>
-    <row r="470" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F470" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="G470" s="15" t="s">
+        <v>327</v>
+      </c>
       <c r="L470" s="4"/>
     </row>
-    <row r="471" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F471" s="15"/>
+      <c r="G471" s="15"/>
       <c r="L471" s="4"/>
     </row>
-    <row r="472" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L472" s="4"/>
     </row>
-    <row r="473" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A473" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="C473" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D473" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="F473" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="L473" s="4"/>
     </row>
-    <row r="474" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F474" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G474" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="L474" s="4"/>
     </row>
-    <row r="475" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F475" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G475" s="15" t="s">
+        <v>243</v>
+      </c>
       <c r="L475" s="4"/>
     </row>
-    <row r="476" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F476" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="G476" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="K476" s="4"/>
       <c r="L476" s="4"/>
     </row>
-    <row r="477" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="F477" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="G477" s="15" t="s">
+        <v>359</v>
+      </c>
       <c r="K477" s="4"/>
       <c r="L477" s="4"/>
     </row>
-    <row r="478" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K478" s="4"/>
       <c r="L478" s="4"/>
     </row>
-    <row r="479" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K479" s="4"/>
       <c r="L479" s="4"/>
     </row>
-    <row r="480" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A480" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="C480" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D480" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="F480" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="K480" s="4"/>
       <c r="L480" s="4"/>
     </row>
-    <row r="481" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F481" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G481" s="15" t="s">
+        <v>243</v>
+      </c>
       <c r="K481" s="4"/>
       <c r="L481" s="4"/>
     </row>
-    <row r="482" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F482" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="G482" s="15" t="s">
+        <v>362</v>
+      </c>
       <c r="K482" s="4"/>
       <c r="L482" s="4"/>
     </row>
-    <row r="483" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F483" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="G483" s="15" t="s">
+        <v>364</v>
+      </c>
       <c r="K483" s="4"/>
       <c r="L483" s="4"/>
     </row>
-    <row r="484" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F484"/>
+      <c r="G484"/>
       <c r="K484" s="4"/>
       <c r="L484" s="4"/>
     </row>
-    <row r="485" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K485" s="4"/>
       <c r="L485" s="4"/>
     </row>
-    <row r="486" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A486" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="C486" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D486" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="F486" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="K486" s="4"/>
       <c r="L486" s="4"/>
     </row>
-    <row r="487" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F487" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G487" s="15" t="s">
+        <v>243</v>
+      </c>
       <c r="K487" s="4"/>
       <c r="L487" s="4"/>
     </row>
-    <row r="488" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="F488" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="G488" s="15" t="s">
+        <v>379</v>
+      </c>
       <c r="K488" s="4"/>
       <c r="L488" s="4"/>
     </row>
-    <row r="489" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F489" s="15"/>
+      <c r="G489" s="15"/>
       <c r="K489" s="4"/>
       <c r="L489" s="4"/>
     </row>
-    <row r="490" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F490"/>
+      <c r="G490"/>
       <c r="K490" s="4"/>
       <c r="L490" s="4"/>
     </row>
-    <row r="491" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A491" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="C491" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D491" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="F491" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="K491" s="4"/>
       <c r="L491" s="4"/>
     </row>
-    <row r="492" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F492" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G492" s="15" t="s">
+        <v>243</v>
+      </c>
       <c r="K492" s="4"/>
       <c r="L492" s="4"/>
     </row>
-    <row r="493" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="F493" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="G493" s="15" t="s">
+        <v>382</v>
+      </c>
       <c r="K493" s="4"/>
       <c r="L493" s="4"/>
     </row>
-    <row r="494" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K494" s="4"/>
       <c r="L494" s="4"/>
     </row>
-    <row r="495" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A495" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="C495" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D495" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="F495" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="K495" s="4"/>
       <c r="L495" s="4"/>
     </row>
-    <row r="496" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F496" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G496" s="15" t="s">
+        <v>243</v>
+      </c>
       <c r="K496" s="4"/>
       <c r="L496" s="4"/>
     </row>
-    <row r="497" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="F497" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="G497" s="15" t="s">
+        <v>382</v>
+      </c>
       <c r="K497" s="4"/>
       <c r="L497" s="4"/>
     </row>
-    <row r="498" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K498" s="4"/>
       <c r="L498" s="4"/>
     </row>
-    <row r="499" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A499" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="C499" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D499" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="F499" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="K499" s="4"/>
       <c r="L499" s="4"/>
     </row>
-    <row r="500" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F500" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G500" s="15" t="s">
+        <v>243</v>
+      </c>
       <c r="K500" s="4"/>
       <c r="L500" s="4"/>
     </row>
-    <row r="501" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F501" s="15" t="s">
+        <v>385</v>
+      </c>
+      <c r="G501" s="15"/>
       <c r="K501" s="4"/>
       <c r="L501" s="4"/>
     </row>
-    <row r="502" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="F502" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="G502" s="11" t="s">
+        <v>387</v>
+      </c>
       <c r="K502" s="4"/>
       <c r="L502" s="4"/>
     </row>
-    <row r="503" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F503" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="G503" s="11" t="s">
+        <v>389</v>
+      </c>
       <c r="K503" s="4"/>
       <c r="L503" s="4"/>
     </row>
-    <row r="504" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K504" s="4"/>
       <c r="L504" s="4"/>
     </row>
-    <row r="505" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K505" s="4"/>
       <c r="L505" s="4"/>
     </row>
-    <row r="506" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A506" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="C506" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D506" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="F506" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="K506" s="4"/>
       <c r="L506" s="4"/>
     </row>
-    <row r="507" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F507" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G507" s="15" t="s">
+        <v>243</v>
+      </c>
       <c r="K507" s="4"/>
       <c r="L507" s="4"/>
     </row>
-    <row r="508" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F508" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="G508" s="15" t="s">
+        <v>395</v>
+      </c>
       <c r="K508" s="4"/>
       <c r="L508" s="4"/>
     </row>
-    <row r="509" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F509" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="G509" s="11" t="s">
+        <v>397</v>
+      </c>
       <c r="K509" s="4"/>
       <c r="L509" s="4"/>
     </row>
-    <row r="510" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F510" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="G510" s="11" t="s">
+        <v>399</v>
+      </c>
       <c r="K510" s="4"/>
       <c r="L510" s="4"/>
     </row>
-    <row r="511" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F511" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="G511" s="11" t="s">
+        <v>401</v>
+      </c>
       <c r="K511" s="4"/>
       <c r="L511" s="4"/>
     </row>
-    <row r="512" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K512" s="4"/>
       <c r="L512" s="4"/>
     </row>
-    <row r="513" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A513" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="C513" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D513" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="F513" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="K513" s="4"/>
       <c r="L513" s="4"/>
     </row>
-    <row r="514" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F514" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G514" s="15" t="s">
+        <v>243</v>
+      </c>
       <c r="K514" s="4"/>
       <c r="L514" s="4"/>
     </row>
-    <row r="515" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F515" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="G515" s="15" t="s">
+        <v>392</v>
+      </c>
       <c r="K515" s="4"/>
       <c r="L515" s="4"/>
     </row>
-    <row r="516" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F516" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="G516" s="11" t="s">
+        <v>399</v>
+      </c>
       <c r="K516" s="4"/>
       <c r="L516" s="4"/>
     </row>
-    <row r="517" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F517" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="G517" s="11" t="s">
+        <v>404</v>
+      </c>
       <c r="K517" s="4"/>
       <c r="L517" s="4"/>
     </row>
-    <row r="518" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F518" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="G518" s="11" t="s">
+        <v>406</v>
+      </c>
       <c r="K518" s="4"/>
       <c r="L518" s="4"/>
     </row>
-    <row r="519" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F519" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="G519" s="11" t="s">
+        <v>408</v>
+      </c>
       <c r="K519" s="4"/>
       <c r="L519" s="4"/>
     </row>
-    <row r="520" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K520" s="4"/>
       <c r="L520" s="4"/>
     </row>
-    <row r="521" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K521" s="4"/>
       <c r="L521" s="4"/>
     </row>
-    <row r="522" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A522" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="C522" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D522" s="15" t="s">
+        <v>409</v>
+      </c>
+      <c r="F522" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="K522" s="4"/>
       <c r="L522" s="4"/>
     </row>
-    <row r="523" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F523" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G523" s="15" t="s">
+        <v>243</v>
+      </c>
       <c r="K523" s="4"/>
       <c r="L523" s="4"/>
     </row>
-    <row r="524" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F524" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="G524" s="15" t="s">
+        <v>392</v>
+      </c>
       <c r="K524" s="4"/>
       <c r="L524" s="4"/>
     </row>
-    <row r="525" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F525" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="G525" s="11" t="s">
+        <v>399</v>
+      </c>
       <c r="K525" s="4"/>
       <c r="L525" s="4"/>
     </row>
-    <row r="526" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F526" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="G526" s="11" t="s">
+        <v>411</v>
+      </c>
       <c r="K526" s="4"/>
       <c r="L526" s="4"/>
     </row>
-    <row r="527" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F527" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="G527" s="11" t="s">
+        <v>413</v>
+      </c>
       <c r="K527" s="4"/>
       <c r="L527" s="4"/>
     </row>
-    <row r="528" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F528" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="G528" s="11" t="s">
+        <v>415</v>
+      </c>
       <c r="K528" s="4"/>
       <c r="L528" s="4"/>
     </row>
-    <row r="529" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F529" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="G529" s="11" t="s">
+        <v>417</v>
+      </c>
       <c r="K529" s="4"/>
       <c r="L529" s="4"/>
     </row>
-    <row r="530" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K530" s="4"/>
       <c r="L530" s="4"/>
     </row>
-    <row r="531" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K531" s="4"/>
       <c r="L531" s="4"/>
     </row>
-    <row r="532" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K532" s="4"/>
       <c r="L532" s="4"/>
     </row>
-    <row r="533" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K533" s="4"/>
       <c r="L533" s="4"/>
     </row>
-    <row r="534" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A534" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="C534" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D534" s="15" t="s">
+        <v>418</v>
+      </c>
+      <c r="F534" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="K534" s="4"/>
       <c r="L534" s="4"/>
     </row>
-    <row r="535" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F535" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G535" s="15" t="s">
+        <v>243</v>
+      </c>
       <c r="K535" s="4"/>
       <c r="L535" s="4"/>
     </row>
-    <row r="536" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F536" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="G536" s="15" t="s">
+        <v>392</v>
+      </c>
       <c r="K536" s="4"/>
       <c r="L536" s="4"/>
     </row>
-    <row r="537" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F537" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="G537" s="11" t="s">
+        <v>399</v>
+      </c>
       <c r="K537" s="4"/>
       <c r="L537" s="4"/>
     </row>
-    <row r="538" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F538" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="G538" s="11" t="s">
+        <v>420</v>
+      </c>
       <c r="K538" s="4"/>
       <c r="L538" s="4"/>
     </row>
-    <row r="539" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K539" s="4"/>
       <c r="L539" s="4"/>
     </row>
-    <row r="540" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K540" s="4"/>
       <c r="L540" s="4"/>
     </row>
-    <row r="541" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A541" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="C541" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D541" s="15" t="s">
+        <v>418</v>
+      </c>
+      <c r="F541" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="K541" s="4"/>
       <c r="L541" s="4"/>
     </row>
-    <row r="542" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F542" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G542" s="15" t="s">
+        <v>243</v>
+      </c>
       <c r="K542" s="4"/>
       <c r="L542" s="4"/>
     </row>
-    <row r="543" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F543" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="G543" s="15" t="s">
+        <v>392</v>
+      </c>
       <c r="K543" s="4"/>
       <c r="L543" s="4"/>
     </row>
-    <row r="544" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F544" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="G544" s="11" t="s">
+        <v>399</v>
+      </c>
       <c r="K544" s="4"/>
       <c r="L544" s="4"/>
     </row>
-    <row r="545" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F545" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="G545" s="11" t="s">
+        <v>420</v>
+      </c>
       <c r="K545" s="4"/>
       <c r="L545" s="4"/>
     </row>
-    <row r="546" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K546" s="4"/>
       <c r="L546" s="4"/>
     </row>
-    <row r="547" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K547" s="4"/>
       <c r="L547" s="4"/>
     </row>
-    <row r="548" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K548" s="4"/>
       <c r="L548" s="4"/>
     </row>
-    <row r="549" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K549" s="4"/>
       <c r="L549" s="4"/>
     </row>
-    <row r="550" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A550" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="C550" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D550" s="15" t="s">
+        <v>423</v>
+      </c>
+      <c r="F550" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="K550" s="4"/>
       <c r="L550" s="4"/>
     </row>
-    <row r="551" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F551" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G551" s="15" t="s">
+        <v>243</v>
+      </c>
       <c r="K551" s="4"/>
       <c r="L551" s="4"/>
     </row>
-    <row r="552" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F552" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="G552" s="15" t="s">
+        <v>392</v>
+      </c>
       <c r="K552" s="4"/>
       <c r="L552" s="4"/>
     </row>
-    <row r="553" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F553" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="G553" s="11" t="s">
+        <v>399</v>
+      </c>
       <c r="K553" s="4"/>
       <c r="L553" s="4"/>
     </row>
-    <row r="554" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F554" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="G554" s="11" t="s">
+        <v>420</v>
+      </c>
       <c r="K554" s="4"/>
       <c r="L554" s="4"/>
     </row>
-    <row r="555" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F555" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="G555" s="11" t="s">
+        <v>425</v>
+      </c>
       <c r="K555" s="4"/>
       <c r="L555" s="4"/>
     </row>
-    <row r="556" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K556" s="4"/>
       <c r="L556" s="4"/>
     </row>
-    <row r="557" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K557" s="4"/>
       <c r="L557" s="4"/>
     </row>
-    <row r="558" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A558" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="B558" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C558" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D558" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="F558" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="K558" s="4"/>
       <c r="L558" s="4"/>
     </row>
-    <row r="559" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F559" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G559" s="15" t="s">
+        <v>243</v>
+      </c>
       <c r="K559" s="4"/>
       <c r="L559" s="4"/>
     </row>
-    <row r="560" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F560" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="G560" s="15" t="s">
+        <v>428</v>
+      </c>
       <c r="K560" s="4"/>
       <c r="L560" s="4"/>
     </row>
-    <row r="561" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="F561" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="G561" s="11" t="s">
+        <v>430</v>
+      </c>
       <c r="K561" s="4"/>
       <c r="L561" s="4"/>
     </row>
-    <row r="562" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K562" s="4"/>
       <c r="L562" s="4"/>
     </row>
-    <row r="563" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K563" s="4"/>
       <c r="L563" s="4"/>
     </row>
-    <row r="564" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A564" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="B564" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C564" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D564" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="F564" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="K564" s="4"/>
       <c r="L564" s="4"/>
     </row>
-    <row r="565" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F565" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G565" s="15" t="s">
+        <v>243</v>
+      </c>
       <c r="K565" s="4"/>
       <c r="L565" s="4"/>
     </row>
-    <row r="566" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F566" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="G566" s="15" t="s">
+        <v>428</v>
+      </c>
       <c r="K566" s="4"/>
       <c r="L566" s="4"/>
     </row>
-    <row r="567" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="F567" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="G567" s="11" t="s">
+        <v>430</v>
+      </c>
       <c r="K567" s="4"/>
       <c r="L567" s="4"/>
     </row>
-    <row r="568" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F568" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="G568" s="11" t="s">
+        <v>433</v>
+      </c>
       <c r="K568" s="4"/>
       <c r="L568" s="4"/>
     </row>
-    <row r="569" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F569" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="G569" s="11" t="s">
+        <v>434</v>
+      </c>
       <c r="K569" s="4"/>
       <c r="L569" s="4"/>
     </row>
-    <row r="570" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F570" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="G570" s="11" t="s">
+        <v>448</v>
+      </c>
       <c r="K570" s="4"/>
       <c r="L570" s="4"/>
     </row>
-    <row r="571" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D571" s="18"/>
       <c r="K571" s="4"/>
       <c r="L571" s="4"/>
     </row>
-    <row r="572" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A572" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="B572" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C572" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D572" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="F572" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="K572" s="4"/>
       <c r="L572" s="4"/>
     </row>
-    <row r="573" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F573" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G573" s="15" t="s">
+        <v>243</v>
+      </c>
       <c r="K573" s="4"/>
       <c r="L573" s="4"/>
     </row>
-    <row r="574" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F574" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="G574" s="15" t="s">
+        <v>428</v>
+      </c>
       <c r="K574" s="4"/>
       <c r="L574" s="4"/>
     </row>
-    <row r="575" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="F575" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="G575" s="11" t="s">
+        <v>430</v>
+      </c>
       <c r="K575" s="4"/>
       <c r="L575" s="4"/>
     </row>
-    <row r="576" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F576" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="G576" s="11" t="s">
+        <v>434</v>
+      </c>
       <c r="K576" s="4"/>
       <c r="L576" s="4"/>
     </row>
-    <row r="577" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F577" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="G577" s="11" t="s">
+        <v>436</v>
+      </c>
       <c r="K577" s="4"/>
       <c r="L577" s="4"/>
     </row>
-    <row r="578" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F578" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="G578" s="11" t="s">
+        <v>448</v>
+      </c>
       <c r="K578" s="4"/>
       <c r="L578" s="4"/>
     </row>
-    <row r="579" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F579" s="5"/>
+      <c r="G579" s="5"/>
       <c r="K579" s="4"/>
       <c r="L579" s="4"/>
     </row>
-    <row r="580" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A580" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="B580" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C580" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D580" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="F580" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="K580" s="4"/>
       <c r="L580" s="4"/>
     </row>
-    <row r="581" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F581" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G581" s="15" t="s">
+        <v>243</v>
+      </c>
       <c r="K581" s="4"/>
       <c r="L581" s="4"/>
     </row>
-    <row r="582" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F582" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="G582" s="15" t="s">
+        <v>428</v>
+      </c>
       <c r="K582" s="4"/>
       <c r="L582" s="4"/>
     </row>
-    <row r="583" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="F583" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="G583" s="11" t="s">
+        <v>430</v>
+      </c>
       <c r="K583" s="4"/>
       <c r="L583" s="4"/>
     </row>
-    <row r="584" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F584" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="G584" s="11" t="s">
+        <v>436</v>
+      </c>
       <c r="K584" s="4"/>
       <c r="L584" s="4"/>
     </row>
-    <row r="585" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F585" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="G585" s="11" t="s">
+        <v>448</v>
+      </c>
       <c r="K585" s="4"/>
       <c r="L585" s="4"/>
     </row>
-    <row r="586" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F586" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="G586" s="11" t="s">
+        <v>448</v>
+      </c>
       <c r="K586" s="4"/>
       <c r="L586" s="4"/>
     </row>
-    <row r="587" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K587" s="4"/>
       <c r="L587" s="4"/>
     </row>
-    <row r="588" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F588" s="5"/>
+      <c r="G588" s="5"/>
       <c r="K588" s="4"/>
       <c r="L588" s="4"/>
     </row>
-    <row r="589" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A589" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="B589" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C589" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D589" s="15" t="s">
+        <v>446</v>
+      </c>
+      <c r="F589" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="K589" s="4"/>
       <c r="L589" s="4"/>
     </row>
-    <row r="590" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F590" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G590" s="15" t="s">
+        <v>243</v>
+      </c>
       <c r="K590" s="4"/>
       <c r="L590" s="4"/>
     </row>
-    <row r="591" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F591" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="G591" s="15" t="s">
+        <v>428</v>
+      </c>
       <c r="K591" s="4"/>
       <c r="L591" s="4"/>
     </row>
-    <row r="592" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="F592" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="G592" s="11" t="s">
+        <v>430</v>
+      </c>
       <c r="K592" s="4"/>
       <c r="L592" s="4"/>
     </row>
-    <row r="593" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F593" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="G593" s="11" t="s">
+        <v>436</v>
+      </c>
       <c r="K593" s="4"/>
       <c r="L593" s="4"/>
     </row>
-    <row r="594" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F594" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="G594" s="11" t="s">
+        <v>448</v>
+      </c>
       <c r="K594" s="4"/>
       <c r="L594" s="4"/>
     </row>
-    <row r="595" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F595" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="G595" s="11" t="s">
+        <v>448</v>
+      </c>
       <c r="K595" s="4"/>
       <c r="L595" s="4"/>
     </row>
-    <row r="596" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K596" s="4"/>
       <c r="L596" s="4"/>
     </row>
-    <row r="597" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K597" s="4"/>
       <c r="L597" s="4"/>
     </row>
-    <row r="598" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A598" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="B598" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C598" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D598" s="15" t="s">
+        <v>450</v>
+      </c>
+      <c r="F598" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="K598" s="4"/>
       <c r="L598" s="4"/>
     </row>
-    <row r="599" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F599" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G599" s="15" t="s">
+        <v>243</v>
+      </c>
       <c r="K599" s="4"/>
       <c r="L599" s="4"/>
     </row>
-    <row r="600" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F600" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="G600" s="15" t="s">
+        <v>428</v>
+      </c>
       <c r="K600" s="4"/>
       <c r="L600" s="4"/>
     </row>
-    <row r="601" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="F601" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="G601" s="11" t="s">
+        <v>430</v>
+      </c>
       <c r="K601" s="4"/>
       <c r="L601" s="4"/>
     </row>
-    <row r="602" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F602" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="G602" s="11" t="s">
+        <v>436</v>
+      </c>
       <c r="K602" s="4"/>
       <c r="L602" s="4"/>
     </row>
-    <row r="603" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F603" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="G603" s="11" t="s">
+        <v>448</v>
+      </c>
       <c r="K603" s="4"/>
       <c r="L603" s="4"/>
     </row>
-    <row r="604" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F604" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="G604" s="11" t="s">
+        <v>448</v>
+      </c>
       <c r="K604" s="4"/>
       <c r="L604" s="4"/>
     </row>
-    <row r="605" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K605" s="4"/>
       <c r="L605" s="4"/>
     </row>
-    <row r="606" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A606" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="B606" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C606" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D606" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="F606" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="K606" s="4"/>
       <c r="L606" s="4"/>
     </row>
-    <row r="607" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F607" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G607" s="15" t="s">
+        <v>243</v>
+      </c>
       <c r="K607" s="4"/>
       <c r="L607" s="4"/>
     </row>
-    <row r="608" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F608" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="G608" s="15" t="s">
+        <v>455</v>
+      </c>
       <c r="K608" s="4"/>
       <c r="L608" s="4"/>
     </row>
-    <row r="609" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="F609" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="G609" s="11" t="s">
+        <v>457</v>
+      </c>
       <c r="K609" s="4"/>
       <c r="L609" s="4"/>
     </row>
-    <row r="610" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K610" s="4"/>
       <c r="L610" s="4"/>
     </row>
-    <row r="611" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A611" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="B611" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C611" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D611" s="15" t="s">
+        <v>459</v>
+      </c>
+      <c r="F611" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="K611" s="4"/>
       <c r="L611" s="4"/>
     </row>
-    <row r="612" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F612" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G612" s="15" t="s">
+        <v>243</v>
+      </c>
       <c r="K612" s="4"/>
       <c r="L612" s="4"/>
     </row>
-    <row r="613" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F613" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="G613" s="15" t="s">
+        <v>455</v>
+      </c>
       <c r="K613" s="4"/>
       <c r="L613" s="4"/>
     </row>
-    <row r="614" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="F614" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="G614" s="11" t="s">
+        <v>457</v>
+      </c>
       <c r="K614" s="4"/>
       <c r="L614" s="4"/>
     </row>
-    <row r="615" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K615" s="4"/>
       <c r="L615" s="4"/>
     </row>
-    <row r="616" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K616" s="4"/>
       <c r="L616" s="4"/>
     </row>
-    <row r="617" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K617" s="4"/>
       <c r="L617" s="4"/>
     </row>
-    <row r="618" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A618" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="B618" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C618" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D618" s="15" t="s">
+        <v>460</v>
+      </c>
+      <c r="F618" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="K618" s="4"/>
       <c r="L618" s="4"/>
     </row>
-    <row r="619" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F619" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G619" s="15" t="s">
+        <v>243</v>
+      </c>
       <c r="K619" s="4"/>
       <c r="L619" s="4"/>
     </row>
-    <row r="620" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F620" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="G620" s="15" t="s">
+        <v>455</v>
+      </c>
       <c r="K620" s="4"/>
       <c r="L620" s="4"/>
     </row>
-    <row r="621" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="F621" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="G621" s="11" t="s">
+        <v>457</v>
+      </c>
       <c r="K621" s="4"/>
       <c r="L621" s="4"/>
     </row>
-    <row r="622" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K622" s="4"/>
       <c r="L622" s="4"/>
     </row>
-    <row r="623" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K623" s="4"/>
       <c r="L623" s="4"/>
     </row>
-    <row r="624" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A624" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="B624" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C624" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D624" s="15" t="s">
+        <v>461</v>
+      </c>
+      <c r="F624" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="K624" s="4"/>
       <c r="L624" s="4"/>
     </row>
-    <row r="625" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F625" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G625" s="15" t="s">
+        <v>243</v>
+      </c>
       <c r="K625" s="4"/>
       <c r="L625" s="4"/>
     </row>
-    <row r="626" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F626" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="G626" s="15" t="s">
+        <v>455</v>
+      </c>
       <c r="K626" s="4"/>
       <c r="L626" s="4"/>
     </row>
-    <row r="627" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="F627" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="G627" s="11" t="s">
+        <v>457</v>
+      </c>
       <c r="K627" s="4"/>
       <c r="L627" s="4"/>
     </row>
-    <row r="628" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K628" s="4"/>
       <c r="L628" s="4"/>
     </row>
-    <row r="629" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K629" s="4"/>
       <c r="L629" s="4"/>
     </row>
-    <row r="630" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A630" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="B630" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C630" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D630" s="15" t="s">
+        <v>468</v>
+      </c>
+      <c r="F630" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="K630" s="4"/>
       <c r="L630" s="4"/>
     </row>
-    <row r="631" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F631" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G631" s="15" t="s">
+        <v>243</v>
+      </c>
       <c r="K631" s="4"/>
       <c r="L631" s="4"/>
     </row>
-    <row r="632" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F632" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="G632" s="15" t="s">
+        <v>466</v>
+      </c>
       <c r="K632" s="4"/>
       <c r="L632" s="4"/>
     </row>
-    <row r="633" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F633" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="G633" s="11" t="s">
+        <v>469</v>
+      </c>
       <c r="K633" s="4"/>
       <c r="L633" s="4"/>
     </row>
-    <row r="634" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K634" s="4"/>
       <c r="L634" s="4"/>
     </row>
-    <row r="635" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K635" s="4"/>
       <c r="L635" s="4"/>
     </row>
-    <row r="636" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K636" s="4"/>
       <c r="L636" s="4"/>
     </row>
-    <row r="637" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A637" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="B637" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C637" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D637" s="15" t="s">
+        <v>470</v>
+      </c>
+      <c r="F637" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="K637" s="4"/>
       <c r="L637" s="4"/>
     </row>
-    <row r="638" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F638" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G638" s="15" t="s">
+        <v>243</v>
+      </c>
       <c r="K638" s="4"/>
       <c r="L638" s="4"/>
     </row>
-    <row r="639" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F639" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="G639" s="15" t="s">
+        <v>466</v>
+      </c>
       <c r="K639" s="4"/>
       <c r="L639" s="4"/>
     </row>
-    <row r="640" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F640" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="G640" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="H640" s="11" t="s">
+        <v>472</v>
+      </c>
       <c r="K640" s="4"/>
       <c r="L640" s="4"/>
     </row>
-    <row r="641" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K641" s="4"/>
       <c r="L641" s="4"/>
     </row>
-    <row r="642" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K642" s="4"/>
       <c r="L642" s="4"/>
     </row>
-    <row r="643" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K643" s="4"/>
       <c r="L643" s="4"/>
     </row>
-    <row r="644" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A644" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="B644" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C644" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D644" s="15" t="s">
+        <v>475</v>
+      </c>
+      <c r="F644" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="K644" s="4"/>
       <c r="L644" s="4"/>
     </row>
-    <row r="645" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F645" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G645" s="15" t="s">
+        <v>243</v>
+      </c>
       <c r="K645" s="4"/>
       <c r="L645" s="4"/>
     </row>
-    <row r="646" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F646" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="G646" s="15" t="s">
+        <v>474</v>
+      </c>
       <c r="K646" s="4"/>
       <c r="L646" s="4"/>
     </row>
-    <row r="647" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:12" ht="240" x14ac:dyDescent="0.25">
+      <c r="F647" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="G647" s="11" t="s">
+        <v>474</v>
+      </c>
       <c r="K647" s="4"/>
       <c r="L647" s="4"/>
     </row>
-    <row r="648" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K648" s="4"/>
       <c r="L648" s="4"/>
     </row>
-    <row r="649" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K649" s="4"/>
       <c r="L649" s="4"/>
     </row>
-    <row r="650" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A650" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="B650" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C650" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D650" s="15" t="s">
+        <v>477</v>
+      </c>
+      <c r="F650" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="K650" s="4"/>
       <c r="L650" s="4"/>
     </row>
-    <row r="651" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F651" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G651" s="15" t="s">
+        <v>243</v>
+      </c>
       <c r="K651" s="4"/>
       <c r="L651" s="4"/>
     </row>
-    <row r="652" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F652" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="G652" s="15" t="s">
+        <v>474</v>
+      </c>
       <c r="K652" s="4"/>
       <c r="L652" s="4"/>
     </row>
-    <row r="653" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:12" ht="240" x14ac:dyDescent="0.25">
+      <c r="F653" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="G653" s="11" t="s">
+        <v>474</v>
+      </c>
       <c r="K653" s="4"/>
       <c r="L653" s="4"/>
     </row>
-    <row r="654" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K654" s="4"/>
       <c r="L654" s="4"/>
     </row>
-    <row r="655" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K655" s="4"/>
       <c r="L655" s="4"/>
     </row>
-    <row r="656" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K656" s="4"/>
       <c r="L656" s="4"/>
     </row>
-    <row r="657" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A657" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="B657" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C657" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D657" s="15" t="s">
+        <v>477</v>
+      </c>
+      <c r="F657" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="K657" s="4"/>
       <c r="L657" s="4"/>
     </row>
-    <row r="658" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F658" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G658" s="15" t="s">
+        <v>243</v>
+      </c>
       <c r="K658" s="4"/>
       <c r="L658" s="4"/>
     </row>
-    <row r="659" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F659" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="G659" s="15" t="s">
+        <v>474</v>
+      </c>
       <c r="K659" s="4"/>
       <c r="L659" s="4"/>
     </row>
-    <row r="660" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:12" ht="240" x14ac:dyDescent="0.25">
+      <c r="F660" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="G660" s="11" t="s">
+        <v>474</v>
+      </c>
       <c r="K660" s="4"/>
       <c r="L660" s="4"/>
     </row>
-    <row r="661" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K661" s="4"/>
       <c r="L661" s="4"/>
     </row>
-    <row r="662" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K662" s="4"/>
       <c r="L662" s="4"/>
     </row>
-    <row r="663" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A663" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="B663" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C663" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D663" s="15" t="s">
+        <v>480</v>
+      </c>
+      <c r="F663" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="K663" s="4"/>
       <c r="L663" s="4"/>
     </row>
-    <row r="664" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F664" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G664" s="15" t="s">
+        <v>243</v>
+      </c>
       <c r="K664" s="4"/>
       <c r="L664" s="4"/>
     </row>
-    <row r="665" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F665" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="G665" s="15" t="s">
+        <v>474</v>
+      </c>
       <c r="K665" s="4"/>
       <c r="L665" s="4"/>
     </row>
-    <row r="666" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:12" ht="240" x14ac:dyDescent="0.25">
+      <c r="F666" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="G666" s="11" t="s">
+        <v>474</v>
+      </c>
       <c r="K666" s="4"/>
       <c r="L666" s="4"/>
     </row>
-    <row r="667" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K667" s="4"/>
       <c r="L667" s="4"/>
     </row>
-    <row r="668" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K668" s="4"/>
       <c r="L668" s="4"/>
     </row>
-    <row r="669" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A669" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="B669" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C669" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D669" s="15" t="s">
+        <v>483</v>
+      </c>
+      <c r="F669" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="K669" s="4"/>
       <c r="L669" s="4"/>
     </row>
-    <row r="670" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F670" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G670" s="15" t="s">
+        <v>243</v>
+      </c>
       <c r="K670" s="4"/>
       <c r="L670" s="4"/>
     </row>
-    <row r="671" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F671" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="G671" s="15" t="s">
+        <v>474</v>
+      </c>
       <c r="K671" s="4"/>
       <c r="L671" s="4"/>
     </row>
-    <row r="672" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:12" ht="240" x14ac:dyDescent="0.25">
+      <c r="F672" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="G672" s="11" t="s">
+        <v>474</v>
+      </c>
       <c r="K672" s="4"/>
       <c r="L672" s="4"/>
     </row>
-    <row r="673" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K673" s="4"/>
       <c r="L673" s="4"/>
     </row>
-    <row r="674" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K674" s="4"/>
       <c r="L674" s="4"/>
     </row>
-    <row r="675" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A675" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="B675" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C675" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D675" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="F675" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="K675" s="4"/>
       <c r="L675" s="4"/>
     </row>
-    <row r="676" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F676" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G676" s="15" t="s">
+        <v>243</v>
+      </c>
       <c r="K676" s="4"/>
       <c r="L676" s="4"/>
     </row>
-    <row r="677" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F677" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="G677" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="J677" s="5" t="s">
+        <v>488</v>
+      </c>
       <c r="K677" s="4"/>
       <c r="L677" s="4"/>
     </row>
-    <row r="678" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F678" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="G678" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="K678" s="4"/>
       <c r="L678" s="4"/>
     </row>
-    <row r="679" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K679" s="4"/>
       <c r="L679" s="4"/>
     </row>
-    <row r="680" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K680" s="4"/>
       <c r="L680" s="4"/>
     </row>
-    <row r="681" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A681" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="B681" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C681" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D681" s="15" t="s">
+        <v>489</v>
+      </c>
+      <c r="F681" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K681" s="4"/>
       <c r="L681" s="4"/>
     </row>
-    <row r="682" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F682" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G682" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="K682" s="4"/>
       <c r="L682" s="4"/>
     </row>
-    <row r="683" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F683" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="G683" s="15" t="s">
+        <v>485</v>
+      </c>
       <c r="L683" s="4"/>
     </row>
-    <row r="684" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F684" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="G684" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="L684" s="4"/>
     </row>
-    <row r="685" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L685" s="4"/>
     </row>
-    <row r="686" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L686" s="4"/>
     </row>
-    <row r="687" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A687" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="B687" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C687" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D687" s="15" t="s">
+        <v>489</v>
+      </c>
+      <c r="F687" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="L687" s="4"/>
     </row>
-    <row r="688" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F688" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G688" s="15" t="s">
+        <v>243</v>
+      </c>
       <c r="L688" s="4"/>
     </row>
-    <row r="689" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F689" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="G689" s="15" t="s">
+        <v>485</v>
+      </c>
       <c r="L689" s="4"/>
     </row>
-    <row r="690" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F690" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="G690" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="L690" s="4"/>
     </row>
-    <row r="691" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L691" s="4"/>
     </row>
-    <row r="692" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L692" s="4"/>
     </row>
-    <row r="693" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A693" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="B693" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C693" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D693" s="15" t="s">
+        <v>489</v>
+      </c>
+      <c r="F693" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="L693" s="4"/>
     </row>
-    <row r="694" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F694" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G694" s="15" t="s">
+        <v>243</v>
+      </c>
       <c r="L694" s="4"/>
     </row>
-    <row r="695" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F695" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="G695" s="15" t="s">
+        <v>485</v>
+      </c>
       <c r="L695" s="4"/>
     </row>
-    <row r="696" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F696" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="G696" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="L696" s="4"/>
     </row>
-    <row r="697" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L697" s="4"/>
     </row>
-    <row r="698" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L698" s="4"/>
     </row>
-    <row r="699" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A699" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="B699" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C699" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D699" s="15" t="s">
+        <v>489</v>
+      </c>
+      <c r="F699" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="L699" s="4"/>
     </row>
-    <row r="700" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F700" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G700" s="15" t="s">
+        <v>243</v>
+      </c>
       <c r="L700" s="4"/>
     </row>
-    <row r="701" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F701" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="G701" s="15" t="s">
+        <v>485</v>
+      </c>
       <c r="L701" s="4"/>
     </row>
-    <row r="702" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F702" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="G702" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="L702" s="4"/>
     </row>
-    <row r="703" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L703" s="4"/>
     </row>
-    <row r="704" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L704" s="4"/>
     </row>
-    <row r="705" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A705" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="B705" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C705" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D705" s="15" t="s">
+        <v>489</v>
+      </c>
+      <c r="F705" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="L705" s="4"/>
     </row>
-    <row r="706" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F706" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G706" s="15" t="s">
+        <v>243</v>
+      </c>
       <c r="L706" s="4"/>
     </row>
-    <row r="707" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F707" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="G707" s="15" t="s">
+        <v>485</v>
+      </c>
       <c r="L707" s="4"/>
     </row>
-    <row r="708" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F708" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="G708" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="L708" s="4"/>
     </row>
-    <row r="709" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L709" s="4"/>
     </row>
-    <row r="710" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A710" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="B710" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C710" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D710" s="15" t="s">
+        <v>495</v>
+      </c>
+      <c r="F710" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="L710" s="4"/>
     </row>
-    <row r="711" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F711" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G711" s="15" t="s">
+        <v>243</v>
+      </c>
       <c r="L711" s="4"/>
     </row>
-    <row r="712" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F712" s="15" t="s">
+        <v>496</v>
+      </c>
+      <c r="G712" s="15" t="s">
+        <v>498</v>
+      </c>
       <c r="L712" s="4"/>
     </row>
-    <row r="713" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F713" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="G713" s="11" t="s">
+        <v>500</v>
+      </c>
       <c r="L713" s="4"/>
     </row>
-    <row r="714" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L714" s="4"/>
     </row>
-    <row r="715" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A715" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="B715" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C715" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D715" s="15" t="s">
+        <v>501</v>
+      </c>
+      <c r="F715" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="L715" s="4"/>
     </row>
-    <row r="716" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F716" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G716" s="15" t="s">
+        <v>243</v>
+      </c>
       <c r="L716" s="4"/>
     </row>
-    <row r="717" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F717" s="15" t="s">
+        <v>496</v>
+      </c>
+      <c r="G717" s="15" t="s">
+        <v>498</v>
+      </c>
       <c r="L717" s="4"/>
     </row>
-    <row r="718" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F718" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="G718" s="11" t="s">
+        <v>500</v>
+      </c>
       <c r="L718" s="4"/>
     </row>
-    <row r="719" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F719" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="G719" s="11" t="s">
+        <v>503</v>
+      </c>
       <c r="L719" s="4"/>
     </row>
-    <row r="720" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F720" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="G720" s="11" t="s">
+        <v>505</v>
+      </c>
       <c r="L720" s="4"/>
     </row>
-    <row r="721" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L721" s="4"/>
     </row>
-    <row r="722" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L722" s="4"/>
     </row>
-    <row r="723" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A723" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="B723" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C723" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D723" s="15" t="s">
+        <v>506</v>
+      </c>
+      <c r="F723" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="L723" s="4"/>
     </row>
-    <row r="724" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F724" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G724" s="15" t="s">
+        <v>243</v>
+      </c>
       <c r="L724" s="4"/>
+    </row>
+    <row r="725" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F725" s="15" t="s">
+        <v>507</v>
+      </c>
+      <c r="G725" s="15" t="s">
+        <v>498</v>
+      </c>
+      <c r="L725" s="4"/>
+    </row>
+    <row r="726" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F726" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="G726" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="L726" s="4"/>
+    </row>
+    <row r="727" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L727" s="4"/>
+    </row>
+    <row r="731" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A731" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="B731" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C731" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D731" s="15" t="s">
+        <v>509</v>
+      </c>
+      <c r="F731" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="732" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F732" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G732" s="15" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="733" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F733" s="15" t="s">
+        <v>496</v>
+      </c>
+      <c r="G733" s="15" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="734" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F734" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="G734" s="11" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="735" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F735" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="G735" s="11" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="736" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F736" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="G736" s="11" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="739" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A739" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="B739" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C739" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D739" s="15" t="s">
+        <v>510</v>
+      </c>
+      <c r="F739" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="740" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F740" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G740" s="15" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="741" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="F741" s="15" t="s">
+        <v>496</v>
+      </c>
+      <c r="G741" s="15" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="742" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F742" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="G742" s="11" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="743" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="F743" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="G743" s="11" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="744" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F744" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="G744" s="11" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="747" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A747" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="B747" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C747" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D747" s="15" t="s">
+        <v>511</v>
+      </c>
+      <c r="F747" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="748" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F748" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G748" s="15" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="749" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="F749" s="15" t="s">
+        <v>496</v>
+      </c>
+      <c r="G749" s="15" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="750" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F750" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="G750" s="11" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="751" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="F751" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="G751" s="11" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="752" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F752" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="G752" s="11" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="755" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A755" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="B755" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C755" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D755" s="15" t="s">
+        <v>512</v>
+      </c>
+      <c r="F755" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="756" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F756" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G756" s="15" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="757" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F757" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="G757" s="15" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="758" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F758" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="G758" s="11" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="759" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="F759" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="G759" s="11" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="760" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F760" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="G760" s="11" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="763" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A763" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="B763" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C763" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D763" s="15" t="s">
+        <v>512</v>
+      </c>
+      <c r="F763" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="764" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F764" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G764" s="15" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="765" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F765" s="15" t="s">
+        <v>514</v>
+      </c>
+      <c r="G765" s="15" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="766" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F766" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="G766" s="11" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="767" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="F767" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="G767" s="11" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="768" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F768" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="G768" s="11" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="771" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A771" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="B771" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C771" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D771" s="15" t="s">
+        <v>512</v>
+      </c>
+      <c r="F771" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="772" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F772" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G772" s="15" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="773" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F773" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="G773" s="15" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="774" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="F774" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="G774" s="11" t="s">
+        <v>517</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6060,23 +9559,1281 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C651:C720" xr:uid="{BB1FB602-1765-4F63-8427-732A8BF96F64}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C655:C656 C662 C668 C674 C680 C686 C692 C698 C704 C719:C722 C727:C729 C735:C737 C743:C745 C751:C753 C759:C761 C767:C769 C775:C777" xr:uid="{BB1FB602-1765-4F63-8427-732A8BF96F64}">
       <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Parvathy P, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B137 B143 B135 B153 B159 B162 B2 B328 B334:B335 B14:B16 B178 B8 B304 B341:B342 B22:B24 B29:B30 B190 B54 B306 B36:B38 B312:B313 B61 B63 B204 B210 B45 B298 B319:B320 B326 B70 B76:B77 B168 B170 B183 B197 B215:B216 B145 B151 B83:B84 B90 B92 B98 B100 B106:B107 B115 B127 B121 B129 B274 B290 B296 B220 B224 B240:B241 B284 B231:B233 B243 B257:B258 B250 B266 B286 B282 B351 B357:B358 B364:B365" xr:uid="{2F52606D-49DC-4947-9725-5342D25B1853}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B137 B143 B135 B153 B159 B162 B2 B328 B334:B335 B14:B16 B178 B8 B304 B341:B342 B22:B24 B29:B30 B190 B54 B306 B36:B38 B312:B313 B61 B63 B204 B210 B45 B298 B319:B320 B326 B70 B76:B77 B168 B170 B183 B197 B215:B216 B145 B151 B83:B84 B90 B92 B98 B100 B106:B107 B115 B127 B121 B129 B274 B290 B296 B220 B224 B240:B241 B284 B231:B233 B243 B257:B258 B250 B266 B286 B282 B351 B357:B358 B364:B365 B372" xr:uid="{2F52606D-49DC-4947-9725-5342D25B1853}">
       <formula1>"CAS/ Appointment, Out Patient, Care Desk, EMR, Lab &amp; General Billing, Pharmacy Billing, Lab Results, Radiology, Insurance Desk, Casualty, MRD, In Patient, Nursing Station, Theatre, Indent, Store Management"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K477:K679" xr:uid="{01AD6F3F-ED6E-4BD4-A56A-48A431009C35}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K476:K682" xr:uid="{01AD6F3F-ED6E-4BD4-A56A-48A431009C35}">
       <formula1>"Leona, Parvathy, Raziya, Rijo"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C63:C113 K2:K44 C2:C51 C54:C61 K61:K476 C115:C650" xr:uid="{9ABCAB91-EA72-4653-9CA8-9A382BDAE099}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C63:C113 K2:K44 C2:C51 C54:C61 K61:K475 C115:C654 C657:C661 C663:C667 C669:C673 C675:C679 C681:C685 C687:C691 C693:C697 C699:C703 C705:C718 C723:C726 C731:C734 C739:C742 C747:C750 C755:C758 C763:C766 C771:C774" xr:uid="{9ABCAB91-EA72-4653-9CA8-9A382BDAE099}">
       <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L45 L61:L724" xr:uid="{448852A5-7DBD-44F3-839F-CC0FA067F14F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L45 L61:L727" xr:uid="{448852A5-7DBD-44F3-839F-CC0FA067F14F}">
       <formula1>"Pass, Fail, Blocked"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B983EB89-A4FC-4CB7-B777-6863248353DE}">
+  <dimension ref="A1:F136"/>
+  <sheetViews>
+    <sheetView topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="A143" sqref="A143"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="3" width="29.140625" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="6" max="6" width="33.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B2" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="C2" s="15"/>
+    </row>
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>266</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="C7" s="15"/>
+    </row>
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>258</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="F12" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>270</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>258</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>274</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>258</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>278</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>258</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>282</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>258</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>6</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>288</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>258</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>292</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>258</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>296</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>258</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>5</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>303</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>258</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>4</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>5</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>6</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>303</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="E54" s="15"/>
+    </row>
+    <row r="55" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>3</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>303</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="E57" s="15"/>
+    </row>
+    <row r="58" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="E58" s="15" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>3</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C60" s="17" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>317</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="E61" s="15" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="D62" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="E62" s="15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D63" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="E63" s="15" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>317</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="E65" s="15" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="D66" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="E66" s="15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D67" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="E67" s="15" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>2</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="D69" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="E69" s="15" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="D70" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="E70" s="15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="D71" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="E71" s="15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D72" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="E72" s="15" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>3</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="D73" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="E73" s="15" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="D74" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="E74" s="15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+      <c r="D75" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="E75" s="15" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D76" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="E76" s="15" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D77" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="E77" s="15" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="15">
+        <v>4</v>
+      </c>
+      <c r="B79" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="D79" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="E79" s="15" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="D80" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="E80" s="15" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="240" x14ac:dyDescent="0.25">
+      <c r="D81" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="E81" s="15" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D82" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="E82" s="15" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>5</v>
+      </c>
+      <c r="B83" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="D83" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="E83" s="15" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="D84" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="E84" s="15" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="D85" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="E85" s="15" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D86" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="E86" s="15" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>6</v>
+      </c>
+      <c r="B88" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="D88" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="E88" s="15" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="D89" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="E89" s="15" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="D90" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="E90" s="15" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D91" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="E91" s="15" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>7</v>
+      </c>
+      <c r="B93" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="D93" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="E93" s="15" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="D94" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="E94" s="15" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="D95" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="E95" s="15" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D96" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="E96" s="15" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>8.8888888888888797E+104</v>
+      </c>
+      <c r="B98" t="s">
+        <v>341</v>
+      </c>
+      <c r="D98" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="E98" s="15" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="D99" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="E99" s="15" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+      <c r="D100" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="E100" s="15" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>9</v>
+      </c>
+      <c r="B102" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="D102" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="E102" s="15" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="D103" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="E103" s="15" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="D104" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="E104" s="15" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D105" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="E105" s="15" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>10</v>
+      </c>
+      <c r="B108" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="D108" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="E108" s="15" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="D109" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="E109" s="15" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="D110" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="E110" s="15" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D111" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="E111" s="15" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>11</v>
+      </c>
+      <c r="B112" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="D112" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="E112" s="15" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="D113" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="E113" s="15" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="D114" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="E114" s="15" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D115" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="E115" s="15" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>12</v>
+      </c>
+      <c r="B118" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="D118" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="E118" s="15" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="D119" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="E119" s="15" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="D120" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="E120" s="15" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>13</v>
+      </c>
+      <c r="B121" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="D121" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="E121" s="15" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="D122" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="E122" s="15" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="D123" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="E123" s="15" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>13</v>
+      </c>
+      <c r="B126" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="D126" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="E126" s="15" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="D127" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="E127" s="15" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="D128" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="E128" s="15" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A134" s="15" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>486</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Test Case/Sangeetha/Testcase- Insurance .xlsx
+++ b/Test Case/Sangeetha/Testcase- Insurance .xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sangeetha\Mediware\17-06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sangeetha\Mediware\24-06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4218208E-29F4-47E9-9BAD-49A55BB9E309}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEBE4DA1-7D0F-499D-980B-2676F3E53944}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B0F86180-7D4B-4DF7-AD62-71380A8C5CDD}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1791" uniqueCount="559">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1599,12 +1599,6 @@
   </si>
   <si>
     <t>Check whether user can search and cancel  any bill in Review Revert Details</t>
-  </si>
-  <si>
-    <t>MED_ Insurance_TC_080</t>
-  </si>
-  <si>
-    <t>MED_ Insurance_TC_081</t>
   </si>
   <si>
     <t>MED_Insurance_TC_082</t>
@@ -1974,9 +1968,6 @@
     <t>Verify the  Batchwise Write off</t>
   </si>
   <si>
-    <t xml:space="preserve">Verify the  Utlities for Insurance </t>
-  </si>
-  <si>
     <t>Go to Menu from left pane and select 
 Menu&gt;&gt;Utilities&gt;&gt;Add Policy</t>
   </si>
@@ -1993,6 +1984,138 @@
   </si>
   <si>
     <t>User can search patient details</t>
+  </si>
+  <si>
+    <t>MED_ Insurance_TC_068</t>
+  </si>
+  <si>
+    <t>MED_ Insurance_TC_071</t>
+  </si>
+  <si>
+    <t>MED_ Insurance_TC_072</t>
+  </si>
+  <si>
+    <t>MED_ Insurance_TC_073</t>
+  </si>
+  <si>
+    <t>MED_ Insurance_TC_074</t>
+  </si>
+  <si>
+    <t>MED_ Insurance_TC_075</t>
+  </si>
+  <si>
+    <t>MED_ Insurance_TC_076</t>
+  </si>
+  <si>
+    <t>MED_ Insurance_TC_077</t>
+  </si>
+  <si>
+    <t>MED_Insurance_TC_080</t>
+  </si>
+  <si>
+    <t>MED_Insurance_TC_081</t>
+  </si>
+  <si>
+    <t>MED_Insurance_TC_083</t>
+  </si>
+  <si>
+    <t>MED_Insurance_TC_084</t>
+  </si>
+  <si>
+    <t>MED_Insurance_TC_085</t>
+  </si>
+  <si>
+    <t>MED_Insurance_TC_086</t>
+  </si>
+  <si>
+    <t>MED_Insurance_TC_087</t>
+  </si>
+  <si>
+    <t>MED_Insurance_TC_088</t>
+  </si>
+  <si>
+    <t>MED_Insurance_TC_089</t>
+  </si>
+  <si>
+    <t>MED_Insurance_TC_090</t>
+  </si>
+  <si>
+    <t>MED_Insurance_TC_091</t>
+  </si>
+  <si>
+    <t>MED_Insurance_TC_092</t>
+  </si>
+  <si>
+    <t>MED_Insurance_TC_093</t>
+  </si>
+  <si>
+    <t>MED_Insurance_TC_094</t>
+  </si>
+  <si>
+    <t>MED_Insurance_TC_095</t>
+  </si>
+  <si>
+    <t>MED_Insurance_TC_096</t>
+  </si>
+  <si>
+    <t>MED_Insurance_TC_097</t>
+  </si>
+  <si>
+    <t>MED_Insurance_TC_098</t>
+  </si>
+  <si>
+    <t>MED_Insurance_TC_099</t>
+  </si>
+  <si>
+    <t>MED_Insurance_TC_100</t>
+  </si>
+  <si>
+    <t>MED_Insurance_TC_101</t>
+  </si>
+  <si>
+    <t>MED_Insurance_TC_102</t>
+  </si>
+  <si>
+    <t>MED_Insurance_TC_103</t>
+  </si>
+  <si>
+    <t>MED_Insurance_TC_104</t>
+  </si>
+  <si>
+    <t>MED_Insurance_TC_105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the  add policy in Utlities for Insurance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the  Insurance closing in Utlities for Insurance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the Patient Search in  Utlities for Insurance </t>
+  </si>
+  <si>
+    <t>MED_Insurance_TC_106</t>
+  </si>
+  <si>
+    <t>MED_Insurance_TC_107</t>
+  </si>
+  <si>
+    <t>Verify the Batch process</t>
+  </si>
+  <si>
+    <t>Select batchwise process on the right side</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the abill amount of each patient </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User can verify the bill amount </t>
+  </si>
+  <si>
+    <t>Verify the Batch wise</t>
+  </si>
+  <si>
+    <t>MED_Insurance_TC_108</t>
   </si>
 </sst>
 </file>
@@ -2485,11 +2608,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA9C3D31-C5E0-4697-A93F-78D6BCE0E40D}">
-  <dimension ref="A1:S774"/>
+  <dimension ref="A1:S796"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A305" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A786" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A793" sqref="A793"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2588,7 +2711,7 @@
       </c>
       <c r="P2" s="4">
         <f>COUNTA(A:A)-1</f>
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="R2" s="5" t="s">
         <v>12</v>
@@ -6724,7 +6847,7 @@
     </row>
     <row r="458" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A458" s="11" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C458" s="5" t="s">
         <v>46</v>
@@ -6790,7 +6913,7 @@
     </row>
     <row r="466" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A466" s="11" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C466" s="5" t="s">
         <v>46</v>
@@ -6849,7 +6972,7 @@
     </row>
     <row r="473" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A473" s="11" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C473" s="5" t="s">
         <v>46</v>
@@ -6910,7 +7033,7 @@
     </row>
     <row r="480" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A480" s="11" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="C480" s="5" t="s">
         <v>46</v>
@@ -6966,7 +7089,7 @@
     </row>
     <row r="486" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A486" s="11" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="C486" s="5" t="s">
         <v>46</v>
@@ -7014,7 +7137,7 @@
     </row>
     <row r="491" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A491" s="11" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="C491" s="5" t="s">
         <v>46</v>
@@ -7054,7 +7177,7 @@
     </row>
     <row r="495" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A495" s="11" t="s">
-        <v>381</v>
+        <v>515</v>
       </c>
       <c r="C495" s="5" t="s">
         <v>46</v>
@@ -7094,7 +7217,7 @@
     </row>
     <row r="499" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A499" s="11" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="C499" s="5" t="s">
         <v>46</v>
@@ -7156,7 +7279,7 @@
     </row>
     <row r="506" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A506" s="11" t="s">
-        <v>390</v>
+        <v>515</v>
       </c>
       <c r="C506" s="5" t="s">
         <v>46</v>
@@ -7226,7 +7349,7 @@
     </row>
     <row r="513" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A513" s="11" t="s">
-        <v>393</v>
+        <v>421</v>
       </c>
       <c r="C513" s="5" t="s">
         <v>46</v>
@@ -7310,7 +7433,7 @@
     </row>
     <row r="522" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A522" s="11" t="s">
-        <v>393</v>
+        <v>426</v>
       </c>
       <c r="C522" s="5" t="s">
         <v>46</v>
@@ -7412,7 +7535,7 @@
     </row>
     <row r="534" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A534" s="11" t="s">
-        <v>393</v>
+        <v>516</v>
       </c>
       <c r="C534" s="5" t="s">
         <v>46</v>
@@ -7476,7 +7599,7 @@
     </row>
     <row r="541" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A541" s="11" t="s">
-        <v>421</v>
+        <v>517</v>
       </c>
       <c r="C541" s="5" t="s">
         <v>46</v>
@@ -7548,7 +7671,7 @@
     </row>
     <row r="550" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A550" s="11" t="s">
-        <v>421</v>
+        <v>518</v>
       </c>
       <c r="C550" s="5" t="s">
         <v>46</v>
@@ -7622,7 +7745,7 @@
     </row>
     <row r="558" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A558" s="11" t="s">
-        <v>426</v>
+        <v>519</v>
       </c>
       <c r="B558" s="11" t="s">
         <v>316</v>
@@ -7679,7 +7802,7 @@
     </row>
     <row r="564" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A564" s="11" t="s">
-        <v>432</v>
+        <v>520</v>
       </c>
       <c r="B564" s="11" t="s">
         <v>316</v>
@@ -7763,7 +7886,7 @@
     </row>
     <row r="572" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A572" s="11" t="s">
-        <v>432</v>
+        <v>521</v>
       </c>
       <c r="B572" s="11" t="s">
         <v>316</v>
@@ -7848,7 +7971,7 @@
     </row>
     <row r="580" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A580" s="11" t="s">
-        <v>435</v>
+        <v>522</v>
       </c>
       <c r="B580" s="11" t="s">
         <v>316</v>
@@ -7937,7 +8060,7 @@
     </row>
     <row r="589" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A589" s="11" t="s">
-        <v>451</v>
+        <v>432</v>
       </c>
       <c r="B589" s="11" t="s">
         <v>316</v>
@@ -8024,7 +8147,7 @@
     </row>
     <row r="598" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A598" s="11" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="B598" s="11" t="s">
         <v>316</v>
@@ -8107,7 +8230,7 @@
     </row>
     <row r="606" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A606" s="11" t="s">
-        <v>453</v>
+        <v>523</v>
       </c>
       <c r="B606" s="11" t="s">
         <v>316</v>
@@ -8116,7 +8239,7 @@
         <v>46</v>
       </c>
       <c r="D606" s="15" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F606" s="11" t="s">
         <v>41</v>
@@ -8136,20 +8259,20 @@
     </row>
     <row r="608" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F608" s="15" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G608" s="15" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K608" s="4"/>
       <c r="L608" s="4"/>
     </row>
     <row r="609" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="F609" s="11" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G609" s="11" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="K609" s="4"/>
       <c r="L609" s="4"/>
@@ -8160,7 +8283,7 @@
     </row>
     <row r="611" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A611" s="11" t="s">
-        <v>453</v>
+        <v>524</v>
       </c>
       <c r="B611" s="11" t="s">
         <v>316</v>
@@ -8169,7 +8292,7 @@
         <v>46</v>
       </c>
       <c r="D611" s="15" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F611" s="11" t="s">
         <v>41</v>
@@ -8189,20 +8312,20 @@
     </row>
     <row r="613" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F613" s="15" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G613" s="15" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K613" s="4"/>
       <c r="L613" s="4"/>
     </row>
     <row r="614" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="F614" s="11" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G614" s="11" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="K614" s="4"/>
       <c r="L614" s="4"/>
@@ -8221,7 +8344,7 @@
     </row>
     <row r="618" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A618" s="11" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B618" s="11" t="s">
         <v>316</v>
@@ -8230,7 +8353,7 @@
         <v>46</v>
       </c>
       <c r="D618" s="15" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F618" s="11" t="s">
         <v>41</v>
@@ -8250,20 +8373,20 @@
     </row>
     <row r="620" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F620" s="15" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G620" s="15" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K620" s="4"/>
       <c r="L620" s="4"/>
     </row>
     <row r="621" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="F621" s="11" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G621" s="11" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="K621" s="4"/>
       <c r="L621" s="4"/>
@@ -8278,7 +8401,7 @@
     </row>
     <row r="624" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A624" s="11" t="s">
-        <v>453</v>
+        <v>525</v>
       </c>
       <c r="B624" s="11" t="s">
         <v>316</v>
@@ -8287,7 +8410,7 @@
         <v>46</v>
       </c>
       <c r="D624" s="15" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F624" s="11" t="s">
         <v>41</v>
@@ -8307,20 +8430,20 @@
     </row>
     <row r="626" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F626" s="15" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G626" s="15" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K626" s="4"/>
       <c r="L626" s="4"/>
     </row>
     <row r="627" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="F627" s="11" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G627" s="11" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="K627" s="4"/>
       <c r="L627" s="4"/>
@@ -8335,7 +8458,7 @@
     </row>
     <row r="630" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A630" s="11" t="s">
-        <v>453</v>
+        <v>526</v>
       </c>
       <c r="B630" s="11" t="s">
         <v>316</v>
@@ -8344,7 +8467,7 @@
         <v>46</v>
       </c>
       <c r="D630" s="15" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F630" s="11" t="s">
         <v>41</v>
@@ -8364,20 +8487,20 @@
     </row>
     <row r="632" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F632" s="15" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G632" s="15" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="K632" s="4"/>
       <c r="L632" s="4"/>
     </row>
     <row r="633" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F633" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="G633" s="11" t="s">
         <v>467</v>
-      </c>
-      <c r="G633" s="11" t="s">
-        <v>469</v>
       </c>
       <c r="K633" s="4"/>
       <c r="L633" s="4"/>
@@ -8396,7 +8519,7 @@
     </row>
     <row r="637" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A637" s="11" t="s">
-        <v>453</v>
+        <v>527</v>
       </c>
       <c r="B637" s="11" t="s">
         <v>316</v>
@@ -8405,7 +8528,7 @@
         <v>46</v>
       </c>
       <c r="D637" s="15" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F637" s="11" t="s">
         <v>41</v>
@@ -8425,23 +8548,23 @@
     </row>
     <row r="639" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F639" s="15" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G639" s="15" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="K639" s="4"/>
       <c r="L639" s="4"/>
     </row>
     <row r="640" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F640" s="11" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="G640" s="11" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="H640" s="11" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="K640" s="4"/>
       <c r="L640" s="4"/>
@@ -8460,7 +8583,7 @@
     </row>
     <row r="644" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A644" s="11" t="s">
-        <v>453</v>
+        <v>528</v>
       </c>
       <c r="B644" s="11" t="s">
         <v>316</v>
@@ -8469,7 +8592,7 @@
         <v>46</v>
       </c>
       <c r="D644" s="15" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F644" s="11" t="s">
         <v>41</v>
@@ -8489,20 +8612,20 @@
     </row>
     <row r="646" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F646" s="15" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G646" s="15" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="K646" s="4"/>
       <c r="L646" s="4"/>
     </row>
     <row r="647" spans="1:12" ht="240" x14ac:dyDescent="0.25">
       <c r="F647" s="11" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G647" s="11" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="K647" s="4"/>
       <c r="L647" s="4"/>
@@ -8517,7 +8640,7 @@
     </row>
     <row r="650" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A650" s="11" t="s">
-        <v>453</v>
+        <v>529</v>
       </c>
       <c r="B650" s="11" t="s">
         <v>316</v>
@@ -8526,7 +8649,7 @@
         <v>46</v>
       </c>
       <c r="D650" s="15" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F650" s="11" t="s">
         <v>41</v>
@@ -8546,20 +8669,20 @@
     </row>
     <row r="652" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F652" s="15" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G652" s="15" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="K652" s="4"/>
       <c r="L652" s="4"/>
     </row>
     <row r="653" spans="1:12" ht="240" x14ac:dyDescent="0.25">
       <c r="F653" s="11" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G653" s="11" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="K653" s="4"/>
       <c r="L653" s="4"/>
@@ -8578,7 +8701,7 @@
     </row>
     <row r="657" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A657" s="11" t="s">
-        <v>453</v>
+        <v>530</v>
       </c>
       <c r="B657" s="11" t="s">
         <v>316</v>
@@ -8587,7 +8710,7 @@
         <v>46</v>
       </c>
       <c r="D657" s="15" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F657" s="11" t="s">
         <v>41</v>
@@ -8607,20 +8730,20 @@
     </row>
     <row r="659" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F659" s="15" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G659" s="15" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="K659" s="4"/>
       <c r="L659" s="4"/>
     </row>
     <row r="660" spans="1:12" ht="240" x14ac:dyDescent="0.25">
       <c r="F660" s="11" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="G660" s="11" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="K660" s="4"/>
       <c r="L660" s="4"/>
@@ -8635,7 +8758,7 @@
     </row>
     <row r="663" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A663" s="11" t="s">
-        <v>453</v>
+        <v>531</v>
       </c>
       <c r="B663" s="11" t="s">
         <v>316</v>
@@ -8644,7 +8767,7 @@
         <v>46</v>
       </c>
       <c r="D663" s="15" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F663" s="11" t="s">
         <v>41</v>
@@ -8664,20 +8787,20 @@
     </row>
     <row r="665" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F665" s="15" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G665" s="15" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="K665" s="4"/>
       <c r="L665" s="4"/>
     </row>
     <row r="666" spans="1:12" ht="240" x14ac:dyDescent="0.25">
       <c r="F666" s="11" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="G666" s="11" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="K666" s="4"/>
       <c r="L666" s="4"/>
@@ -8692,7 +8815,7 @@
     </row>
     <row r="669" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A669" s="11" t="s">
-        <v>453</v>
+        <v>532</v>
       </c>
       <c r="B669" s="11" t="s">
         <v>316</v>
@@ -8701,7 +8824,7 @@
         <v>46</v>
       </c>
       <c r="D669" s="15" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F669" s="11" t="s">
         <v>41</v>
@@ -8721,20 +8844,20 @@
     </row>
     <row r="671" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F671" s="15" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G671" s="15" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="K671" s="4"/>
       <c r="L671" s="4"/>
     </row>
     <row r="672" spans="1:12" ht="240" x14ac:dyDescent="0.25">
       <c r="F672" s="11" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G672" s="11" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="K672" s="4"/>
       <c r="L672" s="4"/>
@@ -8749,7 +8872,7 @@
     </row>
     <row r="675" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A675" s="11" t="s">
-        <v>453</v>
+        <v>533</v>
       </c>
       <c r="B675" s="11" t="s">
         <v>316</v>
@@ -8758,7 +8881,7 @@
         <v>46</v>
       </c>
       <c r="D675" s="15" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F675" s="11" t="s">
         <v>41</v>
@@ -8778,23 +8901,23 @@
     </row>
     <row r="677" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F677" s="15" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G677" s="15" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="J677" s="5" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="K677" s="4"/>
       <c r="L677" s="4"/>
     </row>
     <row r="678" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F678" s="11" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G678" s="11" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="K678" s="4"/>
       <c r="L678" s="4"/>
@@ -8809,7 +8932,7 @@
     </row>
     <row r="681" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A681" s="11" t="s">
-        <v>453</v>
+        <v>534</v>
       </c>
       <c r="B681" s="11" t="s">
         <v>316</v>
@@ -8818,7 +8941,7 @@
         <v>46</v>
       </c>
       <c r="D681" s="15" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F681" s="11" t="s">
         <v>41</v>
@@ -8838,19 +8961,19 @@
     </row>
     <row r="683" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F683" s="15" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G683" s="15" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="L683" s="4"/>
     </row>
     <row r="684" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F684" s="11" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G684" s="11" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="L684" s="4"/>
     </row>
@@ -8862,7 +8985,7 @@
     </row>
     <row r="687" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A687" s="11" t="s">
-        <v>453</v>
+        <v>535</v>
       </c>
       <c r="B687" s="11" t="s">
         <v>316</v>
@@ -8871,7 +8994,7 @@
         <v>46</v>
       </c>
       <c r="D687" s="15" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F687" s="11" t="s">
         <v>41</v>
@@ -8889,19 +9012,19 @@
     </row>
     <row r="689" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F689" s="15" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G689" s="15" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="L689" s="4"/>
     </row>
     <row r="690" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F690" s="11" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G690" s="11" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="L690" s="4"/>
     </row>
@@ -8913,7 +9036,7 @@
     </row>
     <row r="693" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A693" s="11" t="s">
-        <v>453</v>
+        <v>536</v>
       </c>
       <c r="B693" s="11" t="s">
         <v>316</v>
@@ -8922,7 +9045,7 @@
         <v>46</v>
       </c>
       <c r="D693" s="15" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F693" s="11" t="s">
         <v>41</v>
@@ -8940,19 +9063,19 @@
     </row>
     <row r="695" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F695" s="15" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G695" s="15" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="L695" s="4"/>
     </row>
     <row r="696" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F696" s="11" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="G696" s="11" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="L696" s="4"/>
     </row>
@@ -8964,7 +9087,7 @@
     </row>
     <row r="699" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A699" s="11" t="s">
-        <v>453</v>
+        <v>537</v>
       </c>
       <c r="B699" s="11" t="s">
         <v>316</v>
@@ -8973,7 +9096,7 @@
         <v>46</v>
       </c>
       <c r="D699" s="15" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F699" s="11" t="s">
         <v>41</v>
@@ -8991,19 +9114,19 @@
     </row>
     <row r="701" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F701" s="15" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G701" s="15" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="L701" s="4"/>
     </row>
     <row r="702" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F702" s="11" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G702" s="11" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="L702" s="4"/>
     </row>
@@ -9015,7 +9138,7 @@
     </row>
     <row r="705" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A705" s="11" t="s">
-        <v>453</v>
+        <v>538</v>
       </c>
       <c r="B705" s="11" t="s">
         <v>316</v>
@@ -9024,7 +9147,7 @@
         <v>46</v>
       </c>
       <c r="D705" s="15" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F705" s="11" t="s">
         <v>41</v>
@@ -9042,19 +9165,19 @@
     </row>
     <row r="707" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F707" s="15" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G707" s="15" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="L707" s="4"/>
     </row>
     <row r="708" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F708" s="11" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G708" s="11" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="L708" s="4"/>
     </row>
@@ -9063,7 +9186,7 @@
     </row>
     <row r="710" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A710" s="11" t="s">
-        <v>453</v>
+        <v>539</v>
       </c>
       <c r="B710" s="11" t="s">
         <v>316</v>
@@ -9072,7 +9195,7 @@
         <v>46</v>
       </c>
       <c r="D710" s="15" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F710" s="11" t="s">
         <v>41</v>
@@ -9090,19 +9213,19 @@
     </row>
     <row r="712" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F712" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="G712" s="15" t="s">
         <v>496</v>
-      </c>
-      <c r="G712" s="15" t="s">
-        <v>498</v>
       </c>
       <c r="L712" s="4"/>
     </row>
     <row r="713" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F713" s="11" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G713" s="11" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="L713" s="4"/>
     </row>
@@ -9111,7 +9234,7 @@
     </row>
     <row r="715" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A715" s="11" t="s">
-        <v>453</v>
+        <v>540</v>
       </c>
       <c r="B715" s="11" t="s">
         <v>316</v>
@@ -9120,7 +9243,7 @@
         <v>46</v>
       </c>
       <c r="D715" s="15" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F715" s="11" t="s">
         <v>41</v>
@@ -9138,37 +9261,37 @@
     </row>
     <row r="717" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F717" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="G717" s="15" t="s">
         <v>496</v>
-      </c>
-      <c r="G717" s="15" t="s">
-        <v>498</v>
       </c>
       <c r="L717" s="4"/>
     </row>
     <row r="718" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F718" s="11" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G718" s="11" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="L718" s="4"/>
     </row>
     <row r="719" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F719" s="11" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G719" s="11" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="L719" s="4"/>
     </row>
     <row r="720" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F720" s="11" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G720" s="11" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="L720" s="4"/>
     </row>
@@ -9180,7 +9303,7 @@
     </row>
     <row r="723" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A723" s="11" t="s">
-        <v>453</v>
+        <v>541</v>
       </c>
       <c r="B723" s="11" t="s">
         <v>316</v>
@@ -9189,7 +9312,7 @@
         <v>46</v>
       </c>
       <c r="D723" s="15" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F723" s="11" t="s">
         <v>41</v>
@@ -9207,19 +9330,19 @@
     </row>
     <row r="725" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F725" s="15" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="G725" s="15" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="L725" s="4"/>
     </row>
     <row r="726" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F726" s="11" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G726" s="11" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="L726" s="4"/>
     </row>
@@ -9228,7 +9351,7 @@
     </row>
     <row r="731" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A731" s="11" t="s">
-        <v>453</v>
+        <v>542</v>
       </c>
       <c r="B731" s="11" t="s">
         <v>316</v>
@@ -9237,7 +9360,7 @@
         <v>46</v>
       </c>
       <c r="D731" s="15" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F731" s="11" t="s">
         <v>41</v>
@@ -9253,39 +9376,39 @@
     </row>
     <row r="733" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F733" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="G733" s="15" t="s">
         <v>496</v>
-      </c>
-      <c r="G733" s="15" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="734" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F734" s="11" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G734" s="11" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="735" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F735" s="11" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G735" s="11" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="736" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F736" s="11" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G736" s="11" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="739" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A739" s="11" t="s">
-        <v>453</v>
+        <v>543</v>
       </c>
       <c r="B739" s="11" t="s">
         <v>316</v>
@@ -9294,7 +9417,7 @@
         <v>46</v>
       </c>
       <c r="D739" s="15" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F739" s="11" t="s">
         <v>41</v>
@@ -9310,39 +9433,39 @@
     </row>
     <row r="741" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="F741" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="G741" s="15" t="s">
         <v>496</v>
-      </c>
-      <c r="G741" s="15" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="742" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F742" s="11" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G742" s="11" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="743" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="F743" s="11" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G743" s="11" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="744" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F744" s="11" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G744" s="11" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="747" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A747" s="11" t="s">
-        <v>453</v>
+        <v>544</v>
       </c>
       <c r="B747" s="11" t="s">
         <v>316</v>
@@ -9351,7 +9474,7 @@
         <v>46</v>
       </c>
       <c r="D747" s="15" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F747" s="11" t="s">
         <v>41</v>
@@ -9367,39 +9490,39 @@
     </row>
     <row r="749" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="F749" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="G749" s="15" t="s">
         <v>496</v>
-      </c>
-      <c r="G749" s="15" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="750" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F750" s="11" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G750" s="11" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="751" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="F751" s="11" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G751" s="11" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="752" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F752" s="11" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G752" s="11" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="755" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A755" s="11" t="s">
-        <v>453</v>
+        <v>545</v>
       </c>
       <c r="B755" s="11" t="s">
         <v>316</v>
@@ -9408,7 +9531,7 @@
         <v>46</v>
       </c>
       <c r="D755" s="15" t="s">
-        <v>512</v>
+        <v>548</v>
       </c>
       <c r="F755" s="11" t="s">
         <v>41</v>
@@ -9424,39 +9547,39 @@
     </row>
     <row r="757" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F757" s="15" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G757" s="15" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="758" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F758" s="11" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G758" s="11" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="759" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="F759" s="11" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G759" s="11" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="760" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F760" s="11" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G760" s="11" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="763" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A763" s="11" t="s">
-        <v>453</v>
+        <v>546</v>
       </c>
       <c r="B763" s="11" t="s">
         <v>316</v>
@@ -9465,7 +9588,7 @@
         <v>46</v>
       </c>
       <c r="D763" s="15" t="s">
-        <v>512</v>
+        <v>549</v>
       </c>
       <c r="F763" s="11" t="s">
         <v>41</v>
@@ -9481,39 +9604,39 @@
     </row>
     <row r="765" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F765" s="15" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="G765" s="15" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="766" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F766" s="11" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G766" s="11" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="767" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="F767" s="11" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G767" s="11" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="768" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F768" s="11" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G768" s="11" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="771" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A771" s="11" t="s">
-        <v>453</v>
+        <v>547</v>
       </c>
       <c r="B771" s="11" t="s">
         <v>316</v>
@@ -9522,7 +9645,7 @@
         <v>46</v>
       </c>
       <c r="D771" s="15" t="s">
-        <v>512</v>
+        <v>550</v>
       </c>
       <c r="F771" s="11" t="s">
         <v>41</v>
@@ -9538,18 +9661,182 @@
     </row>
     <row r="773" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F773" s="15" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="G773" s="15" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="774" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="F774" s="11" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="G774" s="11" t="s">
-        <v>517</v>
+        <v>514</v>
+      </c>
+    </row>
+    <row r="776" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A776" s="11" t="s">
+        <v>551</v>
+      </c>
+      <c r="B776" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C776" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D776" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="F776" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="777" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F777" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G777" s="15" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="778" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F778" s="15" t="s">
+        <v>512</v>
+      </c>
+      <c r="G778" s="15" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="779" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="F779" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="G779" s="11" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="782" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A782" s="11" t="s">
+        <v>551</v>
+      </c>
+      <c r="B782" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C782" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D782" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="F782" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="783" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F783" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G783" s="15" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="784" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F784" s="15" t="s">
+        <v>512</v>
+      </c>
+      <c r="G784" s="15" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="785" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="F785" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="G785" s="11" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="788" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A788" s="11" t="s">
+        <v>552</v>
+      </c>
+      <c r="B788" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C788" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D788" s="15" t="s">
+        <v>553</v>
+      </c>
+      <c r="F788" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="789" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F789" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G789" s="15" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="790" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F790" s="15" t="s">
+        <v>554</v>
+      </c>
+      <c r="G790" s="15" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="791" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F791" s="11" t="s">
+        <v>555</v>
+      </c>
+      <c r="G791" s="11" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="793" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A793" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="B793" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C793" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D793" s="15" t="s">
+        <v>557</v>
+      </c>
+      <c r="F793" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="794" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F794" s="15" t="s">
+        <v>554</v>
+      </c>
+      <c r="G794" s="15" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="795" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F795" s="15" t="s">
+        <v>554</v>
+      </c>
+      <c r="G795" s="15" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="796" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F796" s="11" t="s">
+        <v>555</v>
+      </c>
+      <c r="G796" s="11" t="s">
+        <v>556</v>
       </c>
     </row>
   </sheetData>
@@ -9559,7 +9846,7 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C655:C656 C662 C668 C674 C680 C686 C692 C698 C704 C719:C722 C727:C729 C735:C737 C743:C745 C751:C753 C759:C761 C767:C769 C775:C777" xr:uid="{BB1FB602-1765-4F63-8427-732A8BF96F64}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C655:C656 C662 C668 C674 C680 C686 C692 C698 C704 C719:C722 C727:C729 C735:C737 C743:C745 C751:C753 C759:C761 C767:C769 C775" xr:uid="{BB1FB602-1765-4F63-8427-732A8BF96F64}">
       <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Parvathy P, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B137 B143 B135 B153 B159 B162 B2 B328 B334:B335 B14:B16 B178 B8 B304 B341:B342 B22:B24 B29:B30 B190 B54 B306 B36:B38 B312:B313 B61 B63 B204 B210 B45 B298 B319:B320 B326 B70 B76:B77 B168 B170 B183 B197 B215:B216 B145 B151 B83:B84 B90 B92 B98 B100 B106:B107 B115 B127 B121 B129 B274 B290 B296 B220 B224 B240:B241 B284 B231:B233 B243 B257:B258 B250 B266 B286 B282 B351 B357:B358 B364:B365 B372" xr:uid="{2F52606D-49DC-4947-9725-5342D25B1853}">
@@ -9568,7 +9855,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K476:K682" xr:uid="{01AD6F3F-ED6E-4BD4-A56A-48A431009C35}">
       <formula1>"Leona, Parvathy, Raziya, Rijo"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C63:C113 K2:K44 C2:C51 C54:C61 K61:K475 C115:C654 C657:C661 C663:C667 C669:C673 C675:C679 C681:C685 C687:C691 C693:C697 C699:C703 C705:C718 C723:C726 C731:C734 C739:C742 C747:C750 C755:C758 C763:C766 C771:C774" xr:uid="{9ABCAB91-EA72-4653-9CA8-9A382BDAE099}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C63:C113 K2:K44 C2:C51 C54:C61 K61:K475 C115:C654 C657:C661 C663:C667 C669:C673 C675:C679 C681:C685 C687:C691 C693:C697 C699:C703 C705:C718 C723:C726 C731:C734 C739:C742 C747:C750 C755:C758 C763:C766 C771:C774 C776:C779 C782:C785 C788:C791 C793:C796" xr:uid="{9ABCAB91-EA72-4653-9CA8-9A382BDAE099}">
       <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L45 L61:L727" xr:uid="{448852A5-7DBD-44F3-839F-CC0FA067F14F}">
@@ -10830,7 +11117,7 @@
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
   </sheetData>
